--- a/last_snapshot.xlsx
+++ b/last_snapshot.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="1785">
   <si>
     <t>Status</t>
   </si>
@@ -3090,12 +3090,6 @@
     <t>Filing/Order Docket No. RD-16-6-000</t>
   </si>
   <si>
-    <t>Technical Rationale IRO-018-1(i)</t>
-  </si>
-  <si>
-    <t>3/12/2020</t>
-  </si>
-  <si>
     <t>IRO-STD-006-0</t>
   </si>
   <si>
@@ -4202,9 +4196,6 @@
     <t>Project 2007-17.4</t>
   </si>
   <si>
-    <t>5/21/2018</t>
-  </si>
-  <si>
     <t>PRC-006-0</t>
   </si>
   <si>
@@ -4515,9 +4506,6 @@
   <si>
     <t xml:space="preserve">Filing/Order Docket No. RD15-3-000
 Please see the Implementation Plan for Version 1 for specific compliance dates and timeframes.</t>
-  </si>
-  <si>
-    <t>2/1/2023</t>
   </si>
   <si>
     <t>PRC-020-1</t>
@@ -4822,9 +4810,6 @@
   </si>
   <si>
     <t>TOP-001-6</t>
-  </si>
-  <si>
-    <t>Technical Rationale TOP-001-6</t>
   </si>
   <si>
     <t>TOP-002-0</t>
@@ -5638,7 +5623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
@@ -5709,6 +5694,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -12251,7 +12242,7 @@
       <c r="Q155" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R155" s="18" t="s">
+      <c r="R155" s="25" t="s">
         <v>443</v>
       </c>
     </row>
@@ -17394,7 +17385,9 @@
       <c r="P277" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q277" s="12"/>
+      <c r="Q277" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="R277" s="12"/>
     </row>
     <row r="278" s="1" customFormat="1" ht="30.3981" customHeight="1">
@@ -17736,7 +17729,9 @@
       <c r="P285" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q285" s="12"/>
+      <c r="Q285" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="R285" s="12"/>
     </row>
     <row r="286" s="1" customFormat="1" ht="52.2634" customHeight="1">
@@ -18530,7 +18525,9 @@
       <c r="P304" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q304" s="7"/>
+      <c r="Q304" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="R304" s="7"/>
     </row>
     <row r="305" s="1" customFormat="1" ht="52.2634" customHeight="1">
@@ -20544,15 +20541,15 @@
       <c r="N352" s="15" t="s">
         <v>996</v>
       </c>
-      <c r="O352" s="16" t="s">
-        <v>999</v>
-      </c>
+      <c r="O352" s="9"/>
       <c r="P352" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q352" s="7"/>
+      <c r="Q352" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="R352" s="15" t="s">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="41.0641" customHeight="1">
@@ -20560,13 +20557,13 @@
         <v>18</v>
       </c>
       <c r="B353" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D353" s="11" t="s">
         <v>1001</v>
-      </c>
-      <c r="C353" s="12" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D353" s="11" t="s">
-        <v>1003</v>
       </c>
       <c r="E353" s="13">
         <v>39153</v>
@@ -20589,7 +20586,7 @@
       </c>
       <c r="L353" s="12"/>
       <c r="M353" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N353" s="12"/>
       <c r="O353" s="14"/>
@@ -20602,13 +20599,13 @@
         <v>18</v>
       </c>
       <c r="B354" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D354" s="10" t="s">
         <v>1005</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D354" s="10" t="s">
-        <v>1007</v>
       </c>
       <c r="E354" s="8">
         <v>38391</v>
@@ -20623,7 +20620,7 @@
       </c>
       <c r="L354" s="7"/>
       <c r="M354" s="6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N354" s="7"/>
       <c r="O354" s="9"/>
@@ -20636,13 +20633,13 @@
         <v>18</v>
       </c>
       <c r="B355" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D355" s="11" t="s">
         <v>1009</v>
-      </c>
-      <c r="C355" s="12" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D355" s="11" t="s">
-        <v>1011</v>
       </c>
       <c r="E355" s="13">
         <v>39686</v>
@@ -20663,7 +20660,7 @@
       </c>
       <c r="L355" s="12"/>
       <c r="M355" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="N355" s="12"/>
       <c r="O355" s="14"/>
@@ -20676,13 +20673,13 @@
         <v>18</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E356" s="8">
         <v>40122</v>
@@ -20705,10 +20702,10 @@
       </c>
       <c r="L356" s="7"/>
       <c r="M356" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="N356" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="O356" s="9"/>
       <c r="P356" s="9"/>
@@ -20720,13 +20717,13 @@
         <v>18</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E357" s="13">
         <v>41676</v>
@@ -20743,10 +20740,10 @@
       </c>
       <c r="L357" s="12"/>
       <c r="M357" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="N357" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="O357" s="14"/>
       <c r="P357" s="14"/>
@@ -20758,13 +20755,13 @@
         <v>18</v>
       </c>
       <c r="B358" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D358" s="10" t="s">
         <v>1019</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D358" s="10" t="s">
-        <v>1021</v>
       </c>
       <c r="E358" s="8">
         <v>38391</v>
@@ -20779,7 +20776,7 @@
       </c>
       <c r="L358" s="7"/>
       <c r="M358" s="6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N358" s="7"/>
       <c r="O358" s="9"/>
@@ -20792,13 +20789,13 @@
         <v>18</v>
       </c>
       <c r="B359" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D359" s="17" t="s">
         <v>1022</v>
-      </c>
-      <c r="C359" s="12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D359" s="17" t="s">
-        <v>1024</v>
       </c>
       <c r="E359" s="13">
         <v>38391</v>
@@ -20813,7 +20810,7 @@
       </c>
       <c r="L359" s="12"/>
       <c r="M359" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N359" s="12"/>
       <c r="O359" s="14"/>
@@ -20826,13 +20823,13 @@
         <v>18</v>
       </c>
       <c r="B360" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D360" s="6" t="s">
         <v>1025</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>1027</v>
       </c>
       <c r="E360" s="8">
         <v>38391</v>
@@ -20847,7 +20844,7 @@
       </c>
       <c r="L360" s="7"/>
       <c r="M360" s="6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N360" s="7"/>
       <c r="O360" s="9"/>
@@ -20860,13 +20857,13 @@
         <v>18</v>
       </c>
       <c r="B361" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D361" s="11" t="s">
         <v>1028</v>
-      </c>
-      <c r="C361" s="12" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D361" s="11" t="s">
-        <v>1030</v>
       </c>
       <c r="E361" s="13">
         <v>39765</v>
@@ -20889,10 +20886,10 @@
       </c>
       <c r="L361" s="12"/>
       <c r="M361" s="17" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="N361" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="O361" s="14"/>
       <c r="P361" s="14"/>
@@ -20904,13 +20901,13 @@
         <v>18</v>
       </c>
       <c r="B362" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D362" s="6" t="s">
         <v>1033</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>1035</v>
       </c>
       <c r="E362" s="8">
         <v>38391</v>
@@ -20925,7 +20922,7 @@
       </c>
       <c r="L362" s="7"/>
       <c r="M362" s="6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N362" s="7"/>
       <c r="O362" s="9"/>
@@ -20938,13 +20935,13 @@
         <v>18</v>
       </c>
       <c r="B363" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D363" s="11" t="s">
         <v>1036</v>
-      </c>
-      <c r="C363" s="12" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D363" s="11" t="s">
-        <v>1038</v>
       </c>
       <c r="E363" s="13">
         <v>38391</v>
@@ -20980,13 +20977,13 @@
         <v>18</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E364" s="8">
         <v>39750</v>
@@ -21022,13 +21019,13 @@
         <v>18</v>
       </c>
       <c r="B365" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D365" s="17" t="s">
         <v>1041</v>
-      </c>
-      <c r="C365" s="12" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D365" s="17" t="s">
-        <v>1043</v>
       </c>
       <c r="E365" s="13">
         <v>38391</v>
@@ -21064,13 +21061,13 @@
         <v>18</v>
       </c>
       <c r="B366" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D366" s="10" t="s">
         <v>1044</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D366" s="10" t="s">
-        <v>1046</v>
       </c>
       <c r="E366" s="8">
         <v>38391</v>
@@ -21085,7 +21082,7 @@
       </c>
       <c r="L366" s="7"/>
       <c r="M366" s="6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N366" s="7"/>
       <c r="O366" s="9"/>
@@ -21098,13 +21095,13 @@
         <v>18</v>
       </c>
       <c r="B367" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D367" s="11" t="s">
         <v>1047</v>
-      </c>
-      <c r="C367" s="12" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D367" s="11" t="s">
-        <v>1049</v>
       </c>
       <c r="E367" s="13">
         <v>39686</v>
@@ -21127,10 +21124,10 @@
       </c>
       <c r="L367" s="12"/>
       <c r="M367" s="17" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="N367" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="O367" s="14"/>
       <c r="P367" s="14"/>
@@ -21142,13 +21139,13 @@
         <v>18</v>
       </c>
       <c r="B368" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D368" s="6" t="s">
         <v>1051</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D368" s="6" t="s">
-        <v>1053</v>
       </c>
       <c r="E368" s="8">
         <v>38391</v>
@@ -21163,7 +21160,7 @@
       </c>
       <c r="L368" s="7"/>
       <c r="M368" s="6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N368" s="7"/>
       <c r="O368" s="9"/>
@@ -21176,13 +21173,13 @@
         <v>18</v>
       </c>
       <c r="B369" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D369" s="11" t="s">
         <v>1054</v>
-      </c>
-      <c r="C369" s="12" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D369" s="11" t="s">
-        <v>1056</v>
       </c>
       <c r="E369" s="13">
         <v>38391</v>
@@ -21208,7 +21205,7 @@
         <v>45</v>
       </c>
       <c r="N369" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O369" s="14"/>
       <c r="P369" s="14"/>
@@ -21220,13 +21217,13 @@
         <v>18</v>
       </c>
       <c r="B370" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D370" s="6" t="s">
         <v>1058</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D370" s="6" t="s">
-        <v>1060</v>
       </c>
       <c r="E370" s="8">
         <v>38391</v>
@@ -21246,7 +21243,7 @@
         <v>45</v>
       </c>
       <c r="N370" s="7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O370" s="9"/>
       <c r="P370" s="9"/>
@@ -21258,13 +21255,13 @@
         <v>18</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E371" s="13">
         <v>38391</v>
@@ -21290,7 +21287,7 @@
         <v>45</v>
       </c>
       <c r="N371" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O371" s="14"/>
       <c r="P371" s="14"/>
@@ -21302,13 +21299,13 @@
         <v>18</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E372" s="8">
         <v>38391</v>
@@ -21325,7 +21322,7 @@
       </c>
       <c r="L372" s="7"/>
       <c r="M372" s="10" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="N372" s="7"/>
       <c r="O372" s="9"/>
@@ -21338,13 +21335,13 @@
         <v>18</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E373" s="13">
         <v>38839</v>
@@ -21364,7 +21361,7 @@
         <v>255</v>
       </c>
       <c r="N373" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O373" s="14"/>
       <c r="P373" s="14"/>
@@ -21376,13 +21373,13 @@
         <v>18</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E374" s="8">
         <v>38391</v>
@@ -21402,7 +21399,7 @@
         <v>45</v>
       </c>
       <c r="N374" s="7" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="O374" s="9"/>
       <c r="P374" s="9"/>
@@ -21414,13 +21411,13 @@
         <v>18</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E375" s="13">
         <v>38391</v>
@@ -21440,7 +21437,7 @@
         <v>45</v>
       </c>
       <c r="N375" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O375" s="14"/>
       <c r="P375" s="14"/>
@@ -21452,13 +21449,13 @@
         <v>18</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E376" s="8">
         <v>39750</v>
@@ -21473,10 +21470,10 @@
       </c>
       <c r="L376" s="7"/>
       <c r="M376" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="N376" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O376" s="9"/>
       <c r="P376" s="9"/>
@@ -21488,13 +21485,13 @@
         <v>18</v>
       </c>
       <c r="B377" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D377" s="17" t="s">
         <v>1076</v>
-      </c>
-      <c r="C377" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D377" s="17" t="s">
-        <v>1078</v>
       </c>
       <c r="E377" s="13">
         <v>38391</v>
@@ -21509,7 +21506,7 @@
       </c>
       <c r="L377" s="12"/>
       <c r="M377" s="11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="N377" s="12"/>
       <c r="O377" s="14"/>
@@ -21522,13 +21519,13 @@
         <v>18</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E378" s="8">
         <v>38839</v>
@@ -21564,13 +21561,13 @@
         <v>18</v>
       </c>
       <c r="B379" s="12" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E379" s="13">
         <v>39750</v>
@@ -21596,7 +21593,7 @@
         <v>24</v>
       </c>
       <c r="N379" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O379" s="14"/>
       <c r="P379" s="14"/>
@@ -21608,13 +21605,13 @@
         <v>18</v>
       </c>
       <c r="B380" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D380" s="10" t="s">
         <v>1083</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D380" s="10" t="s">
-        <v>1085</v>
       </c>
       <c r="E380" s="8">
         <v>38391</v>
@@ -21650,13 +21647,13 @@
         <v>18</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E381" s="13">
         <v>39750</v>
@@ -21682,7 +21679,7 @@
         <v>24</v>
       </c>
       <c r="N381" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O381" s="14"/>
       <c r="P381" s="14"/>
@@ -21694,13 +21691,13 @@
         <v>18</v>
       </c>
       <c r="B382" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D382" s="10" t="s">
         <v>1087</v>
-      </c>
-      <c r="C382" s="7" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D382" s="10" t="s">
-        <v>1089</v>
       </c>
       <c r="E382" s="8">
         <v>38391</v>
@@ -21726,7 +21723,7 @@
         <v>45</v>
       </c>
       <c r="N382" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O382" s="9"/>
       <c r="P382" s="9"/>
@@ -21738,13 +21735,13 @@
         <v>18</v>
       </c>
       <c r="B383" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D383" s="17" t="s">
         <v>1090</v>
-      </c>
-      <c r="C383" s="12" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D383" s="17" t="s">
-        <v>1092</v>
       </c>
       <c r="E383" s="13">
         <v>38391</v>
@@ -21780,13 +21777,13 @@
         <v>18</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D384" s="10" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E384" s="8">
         <v>39750</v>
@@ -21812,7 +21809,7 @@
         <v>24</v>
       </c>
       <c r="N384" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O384" s="9"/>
       <c r="P384" s="9"/>
@@ -21824,13 +21821,13 @@
         <v>18</v>
       </c>
       <c r="B385" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D385" s="17" t="s">
         <v>1094</v>
-      </c>
-      <c r="C385" s="12" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D385" s="17" t="s">
-        <v>1096</v>
       </c>
       <c r="E385" s="13">
         <v>38391</v>
@@ -21856,7 +21853,7 @@
         <v>45</v>
       </c>
       <c r="N385" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O385" s="14"/>
       <c r="P385" s="14"/>
@@ -21868,13 +21865,13 @@
         <v>18</v>
       </c>
       <c r="B386" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D386" s="10" t="s">
         <v>1097</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D386" s="10" t="s">
-        <v>1099</v>
       </c>
       <c r="E386" s="8">
         <v>38391</v>
@@ -21910,13 +21907,13 @@
         <v>18</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E387" s="13">
         <v>39918</v>
@@ -21939,7 +21936,7 @@
       </c>
       <c r="L387" s="12"/>
       <c r="M387" s="11" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="N387" s="12"/>
       <c r="O387" s="14"/>
@@ -21952,13 +21949,13 @@
         <v>18</v>
       </c>
       <c r="B388" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D388" s="10" t="s">
         <v>1102</v>
-      </c>
-      <c r="C388" s="7" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D388" s="10" t="s">
-        <v>1104</v>
       </c>
       <c r="E388" s="8">
         <v>40395</v>
@@ -21996,13 +21993,13 @@
         <v>18</v>
       </c>
       <c r="B389" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C389" s="12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D389" s="11" t="s">
         <v>1105</v>
-      </c>
-      <c r="C389" s="12" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D389" s="11" t="s">
-        <v>1107</v>
       </c>
       <c r="E389" s="13">
         <v>38755</v>
@@ -22022,7 +22019,7 @@
         <v>45</v>
       </c>
       <c r="N389" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O389" s="14"/>
       <c r="P389" s="14"/>
@@ -22034,13 +22031,13 @@
         <v>18</v>
       </c>
       <c r="B390" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D390" s="6" t="s">
         <v>1108</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D390" s="6" t="s">
-        <v>1110</v>
       </c>
       <c r="E390" s="8">
         <v>38755</v>
@@ -22060,7 +22057,7 @@
         <v>45</v>
       </c>
       <c r="N390" s="7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O390" s="9"/>
       <c r="P390" s="9"/>
@@ -22072,13 +22069,13 @@
         <v>30</v>
       </c>
       <c r="B391" s="18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C391" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D391" s="11" t="s">
         <v>1111</v>
-      </c>
-      <c r="C391" s="12" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D391" s="11" t="s">
-        <v>1113</v>
       </c>
       <c r="E391" s="13">
         <v>41312</v>
@@ -22101,10 +22098,10 @@
         <v>11</v>
       </c>
       <c r="M391" s="17" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="N391" s="18" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="O391" s="14"/>
       <c r="P391" s="19" t="s">
@@ -22118,13 +22115,13 @@
         <v>18</v>
       </c>
       <c r="B392" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D392" s="6" t="s">
         <v>1116</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D392" s="6" t="s">
-        <v>1118</v>
       </c>
       <c r="E392" s="8">
         <v>40850</v>
@@ -22139,7 +22136,7 @@
       </c>
       <c r="L392" s="7"/>
       <c r="M392" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="N392" s="7"/>
       <c r="O392" s="9"/>
@@ -22152,13 +22149,13 @@
         <v>30</v>
       </c>
       <c r="B393" s="18" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C393" s="12" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D393" s="17" t="s">
         <v>1120</v>
-      </c>
-      <c r="C393" s="12" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D393" s="17" t="s">
-        <v>1122</v>
       </c>
       <c r="E393" s="13">
         <v>41312</v>
@@ -22183,10 +22180,10 @@
         <v>11</v>
       </c>
       <c r="M393" s="17" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="N393" s="18" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="O393" s="14"/>
       <c r="P393" s="19" t="s">
@@ -22200,13 +22197,13 @@
         <v>209</v>
       </c>
       <c r="B394" s="15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D394" s="10" t="s">
         <v>1124</v>
-      </c>
-      <c r="C394" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D394" s="10" t="s">
-        <v>1126</v>
       </c>
       <c r="E394" s="8">
         <v>45961</v>
@@ -22225,10 +22222,10 @@
         <v>11</v>
       </c>
       <c r="M394" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="N394" s="15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="O394" s="9"/>
       <c r="P394" s="9"/>
@@ -22240,13 +22237,13 @@
         <v>30</v>
       </c>
       <c r="B395" s="18" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D395" s="17" t="s">
         <v>1129</v>
-      </c>
-      <c r="C395" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D395" s="17" t="s">
-        <v>1131</v>
       </c>
       <c r="E395" s="13">
         <v>41312</v>
@@ -22271,10 +22268,10 @@
         <v>11</v>
       </c>
       <c r="M395" s="11" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="N395" s="18" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="O395" s="14"/>
       <c r="P395" s="19" t="s">
@@ -22288,13 +22285,13 @@
         <v>18</v>
       </c>
       <c r="B396" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D396" s="6" t="s">
         <v>1133</v>
-      </c>
-      <c r="C396" s="7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D396" s="6" t="s">
-        <v>1135</v>
       </c>
       <c r="E396" s="8">
         <v>39686</v>
@@ -22317,7 +22314,7 @@
       </c>
       <c r="L396" s="7"/>
       <c r="M396" s="6" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="N396" s="7"/>
       <c r="O396" s="9"/>
@@ -22330,13 +22327,13 @@
         <v>18</v>
       </c>
       <c r="B397" s="12" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C397" s="12" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D397" s="11" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E397" s="13">
         <v>40948</v>
@@ -22359,10 +22356,10 @@
       </c>
       <c r="L397" s="12"/>
       <c r="M397" s="17" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="N397" s="12" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="O397" s="14"/>
       <c r="P397" s="14"/>
@@ -22374,13 +22371,13 @@
         <v>18</v>
       </c>
       <c r="B398" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D398" s="6" t="s">
         <v>1139</v>
-      </c>
-      <c r="C398" s="7" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D398" s="6" t="s">
-        <v>1141</v>
       </c>
       <c r="E398" s="8">
         <v>39686</v>
@@ -22401,7 +22398,7 @@
       </c>
       <c r="L398" s="7"/>
       <c r="M398" s="6" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="N398" s="7"/>
       <c r="O398" s="9"/>
@@ -22414,13 +22411,13 @@
         <v>18</v>
       </c>
       <c r="B399" s="12" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C399" s="12" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D399" s="11" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E399" s="13">
         <v>40122</v>
@@ -22443,10 +22440,10 @@
       </c>
       <c r="L399" s="12"/>
       <c r="M399" s="11" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="N399" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="O399" s="14"/>
       <c r="P399" s="14"/>
@@ -22458,13 +22455,13 @@
         <v>18</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E400" s="8">
         <v>41956</v>
@@ -22502,13 +22499,13 @@
         <v>18</v>
       </c>
       <c r="B401" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D401" s="11" t="s">
         <v>1145</v>
-      </c>
-      <c r="C401" s="12" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D401" s="11" t="s">
-        <v>1147</v>
       </c>
       <c r="E401" s="13">
         <v>39686</v>
@@ -22525,7 +22522,7 @@
       </c>
       <c r="L401" s="12"/>
       <c r="M401" s="17" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="N401" s="12"/>
       <c r="O401" s="14"/>
@@ -22538,13 +22535,13 @@
         <v>18</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E402" s="8">
         <v>39854</v>
@@ -22567,10 +22564,10 @@
       </c>
       <c r="L402" s="7"/>
       <c r="M402" s="6" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="N402" s="7" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="O402" s="9"/>
       <c r="P402" s="9"/>
@@ -22582,13 +22579,13 @@
         <v>18</v>
       </c>
       <c r="B403" s="12" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D403" s="11" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E403" s="13">
         <v>41956</v>
@@ -22611,7 +22608,7 @@
       </c>
       <c r="L403" s="12"/>
       <c r="M403" s="17" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="N403" s="12" t="s">
         <v>186</v>
@@ -22626,13 +22623,13 @@
         <v>18</v>
       </c>
       <c r="B404" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D404" s="6" t="s">
         <v>1153</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>1155</v>
       </c>
       <c r="E404" s="8">
         <v>41766</v>
@@ -22655,10 +22652,10 @@
       </c>
       <c r="L404" s="7"/>
       <c r="M404" s="6" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="N404" s="7" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="O404" s="9"/>
       <c r="P404" s="9"/>
@@ -22670,13 +22667,13 @@
         <v>18</v>
       </c>
       <c r="B405" s="12" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C405" s="12" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D405" s="11" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E405" s="13">
         <v>42313</v>
@@ -22699,10 +22696,10 @@
       </c>
       <c r="L405" s="12"/>
       <c r="M405" s="11" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="N405" s="12" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="O405" s="14"/>
       <c r="P405" s="14"/>
@@ -22714,13 +22711,13 @@
         <v>30</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E406" s="8">
         <v>43867</v>
@@ -22743,7 +22740,7 @@
         <v>11</v>
       </c>
       <c r="M406" s="6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="N406" s="15" t="s">
         <v>645</v>
@@ -22760,13 +22757,13 @@
         <v>30</v>
       </c>
       <c r="B407" s="18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C407" s="12" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D407" s="11" t="s">
         <v>1163</v>
-      </c>
-      <c r="C407" s="12" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D407" s="11" t="s">
-        <v>1165</v>
       </c>
       <c r="E407" s="13">
         <v>41676</v>
@@ -22791,10 +22788,10 @@
         <v>11</v>
       </c>
       <c r="M407" s="17" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="N407" s="18" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="O407" s="14"/>
       <c r="P407" s="19" t="s">
@@ -22808,13 +22805,13 @@
         <v>209</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D408" s="10" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E408" s="8">
         <v>45961</v>
@@ -22846,13 +22843,13 @@
         <v>18</v>
       </c>
       <c r="B409" s="12" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D409" s="11" t="s">
         <v>1170</v>
-      </c>
-      <c r="C409" s="12" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D409" s="11" t="s">
-        <v>1172</v>
       </c>
       <c r="E409" s="13">
         <v>41676</v>
@@ -22875,10 +22872,10 @@
       </c>
       <c r="L409" s="12"/>
       <c r="M409" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="N409" s="12" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="O409" s="14"/>
       <c r="P409" s="14"/>
@@ -22890,13 +22887,13 @@
         <v>30</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E410" s="8">
         <v>43867</v>
@@ -22919,7 +22916,7 @@
         <v>11</v>
       </c>
       <c r="M410" s="6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="N410" s="15" t="s">
         <v>645</v>
@@ -22936,13 +22933,13 @@
         <v>209</v>
       </c>
       <c r="B411" s="18" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C411" s="12" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D411" s="17" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E411" s="13">
         <v>45961</v>
@@ -22959,10 +22956,10 @@
         <v>11</v>
       </c>
       <c r="M411" s="11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="N411" s="18" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="O411" s="14"/>
       <c r="P411" s="14"/>
@@ -22974,13 +22971,13 @@
         <v>18</v>
       </c>
       <c r="B412" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D412" s="6" t="s">
         <v>1179</v>
-      </c>
-      <c r="C412" s="7" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D412" s="6" t="s">
-        <v>1181</v>
       </c>
       <c r="E412" s="8">
         <v>39204</v>
@@ -23001,7 +22998,7 @@
       </c>
       <c r="L412" s="7"/>
       <c r="M412" s="6" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="N412" s="7"/>
       <c r="O412" s="9"/>
@@ -23014,13 +23011,13 @@
         <v>18</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C413" s="12" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D413" s="11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E413" s="13">
         <v>40030</v>
@@ -23043,7 +23040,7 @@
       </c>
       <c r="L413" s="12"/>
       <c r="M413" s="11" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="N413" s="12"/>
       <c r="O413" s="14"/>
@@ -23056,13 +23053,13 @@
         <v>18</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E414" s="8">
         <v>41010</v>
@@ -23083,10 +23080,10 @@
       </c>
       <c r="L414" s="7"/>
       <c r="M414" s="6" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="N414" s="7" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="O414" s="9"/>
       <c r="P414" s="9"/>
@@ -23098,13 +23095,13 @@
         <v>18</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C415" s="12" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E415" s="13">
         <v>41956</v>
@@ -23132,13 +23129,13 @@
         <v>18</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E416" s="8">
         <v>41865</v>
@@ -23161,10 +23158,10 @@
       </c>
       <c r="L416" s="7"/>
       <c r="M416" s="6" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="N416" s="7" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="O416" s="9"/>
       <c r="P416" s="9"/>
@@ -23176,13 +23173,13 @@
         <v>30</v>
       </c>
       <c r="B417" s="18" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C417" s="12" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D417" s="11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E417" s="13">
         <v>43867</v>
@@ -23222,13 +23219,13 @@
         <v>18</v>
       </c>
       <c r="B418" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D418" s="6" t="s">
         <v>1192</v>
-      </c>
-      <c r="C418" s="7" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D418" s="6" t="s">
-        <v>1194</v>
       </c>
       <c r="E418" s="8">
         <v>38391</v>
@@ -23254,7 +23251,7 @@
         <v>45</v>
       </c>
       <c r="N418" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="O418" s="9"/>
       <c r="P418" s="9"/>
@@ -23266,13 +23263,13 @@
         <v>18</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C419" s="12" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D419" s="11" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E419" s="13">
         <v>39918</v>
@@ -23308,13 +23305,13 @@
         <v>18</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E420" s="8">
         <v>40976</v>
@@ -23340,7 +23337,7 @@
         <v>118</v>
       </c>
       <c r="N420" s="7" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="O420" s="9"/>
       <c r="P420" s="9"/>
@@ -23352,13 +23349,13 @@
         <v>18</v>
       </c>
       <c r="B421" s="12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C421" s="12" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D421" s="11" t="s">
         <v>1199</v>
-      </c>
-      <c r="C421" s="12" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D421" s="11" t="s">
-        <v>1201</v>
       </c>
       <c r="E421" s="13">
         <v>38391</v>
@@ -23394,13 +23391,13 @@
         <v>18</v>
       </c>
       <c r="B422" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D422" s="6" t="s">
         <v>1202</v>
-      </c>
-      <c r="C422" s="7" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D422" s="6" t="s">
-        <v>1204</v>
       </c>
       <c r="E422" s="8">
         <v>38391</v>
@@ -23426,7 +23423,7 @@
         <v>45</v>
       </c>
       <c r="N422" s="7" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="O422" s="9"/>
       <c r="P422" s="9"/>
@@ -23438,13 +23435,13 @@
         <v>18</v>
       </c>
       <c r="B423" s="12" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C423" s="12" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D423" s="17" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E423" s="13">
         <v>40591</v>
@@ -23467,10 +23464,10 @@
       </c>
       <c r="L423" s="12"/>
       <c r="M423" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="N423" s="12" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="O423" s="14"/>
       <c r="P423" s="14"/>
@@ -23482,13 +23479,13 @@
         <v>30</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D424" s="10" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E424" s="8">
         <v>43230</v>
@@ -23511,10 +23508,10 @@
         <v>11</v>
       </c>
       <c r="M424" s="6" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="N424" s="15" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="O424" s="9"/>
       <c r="P424" s="16" t="s">
@@ -23528,13 +23525,13 @@
         <v>18</v>
       </c>
       <c r="B425" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C425" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D425" s="11" t="s">
         <v>1212</v>
-      </c>
-      <c r="C425" s="12" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D425" s="11" t="s">
-        <v>1214</v>
       </c>
       <c r="E425" s="13">
         <v>38391</v>
@@ -23551,7 +23548,7 @@
       </c>
       <c r="L425" s="12"/>
       <c r="M425" s="17" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="N425" s="12"/>
       <c r="O425" s="14"/>
@@ -23564,13 +23561,13 @@
         <v>18</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E426" s="8">
         <v>39022</v>
@@ -23606,13 +23603,13 @@
         <v>18</v>
       </c>
       <c r="B427" s="12" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C427" s="12" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D427" s="11" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E427" s="13">
         <v>39854</v>
@@ -23635,10 +23632,10 @@
       </c>
       <c r="L427" s="12"/>
       <c r="M427" s="11" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="N427" s="12" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="O427" s="14"/>
       <c r="P427" s="14"/>
@@ -23650,13 +23647,13 @@
         <v>18</v>
       </c>
       <c r="B428" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D428" s="10" t="s">
         <v>1220</v>
-      </c>
-      <c r="C428" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D428" s="10" t="s">
-        <v>1222</v>
       </c>
       <c r="E428" s="8">
         <v>39854</v>
@@ -23679,10 +23676,10 @@
       </c>
       <c r="L428" s="7"/>
       <c r="M428" s="6" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="N428" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="O428" s="9"/>
       <c r="P428" s="9"/>
@@ -23694,13 +23691,13 @@
         <v>30</v>
       </c>
       <c r="B429" s="18" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D429" s="11" t="s">
         <v>1224</v>
-      </c>
-      <c r="C429" s="12" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D429" s="11" t="s">
-        <v>1226</v>
       </c>
       <c r="E429" s="13">
         <v>41676</v>
@@ -23723,10 +23720,10 @@
         <v>11</v>
       </c>
       <c r="M429" s="11" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="N429" s="18" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="O429" s="14"/>
       <c r="P429" s="19" t="s">
@@ -23740,13 +23737,13 @@
         <v>30</v>
       </c>
       <c r="B430" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D430" s="6" t="s">
         <v>1229</v>
-      </c>
-      <c r="C430" s="7" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D430" s="6" t="s">
-        <v>1231</v>
       </c>
       <c r="E430" s="8">
         <v>42593</v>
@@ -23769,10 +23766,10 @@
         <v>11</v>
       </c>
       <c r="M430" s="6" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="N430" s="15" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="O430" s="9"/>
       <c r="P430" s="16" t="s">
@@ -23786,13 +23783,13 @@
         <v>18</v>
       </c>
       <c r="B431" s="12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C431" s="12" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D431" s="11" t="s">
         <v>1234</v>
-      </c>
-      <c r="C431" s="12" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D431" s="11" t="s">
-        <v>1236</v>
       </c>
       <c r="E431" s="13">
         <v>38391</v>
@@ -23809,10 +23806,10 @@
       </c>
       <c r="L431" s="12"/>
       <c r="M431" s="17" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="N431" s="12" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="O431" s="14"/>
       <c r="P431" s="14"/>
@@ -23824,13 +23821,13 @@
         <v>18</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E432" s="8">
         <v>39022</v>
@@ -23856,7 +23853,7 @@
         <v>469</v>
       </c>
       <c r="N432" s="7" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="O432" s="9"/>
       <c r="P432" s="9"/>
@@ -23868,13 +23865,13 @@
         <v>18</v>
       </c>
       <c r="B433" s="12" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C433" s="12" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D433" s="11" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E433" s="13">
         <v>41010</v>
@@ -23895,10 +23892,10 @@
       </c>
       <c r="L433" s="12"/>
       <c r="M433" s="11" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="N433" s="12" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="O433" s="14"/>
       <c r="P433" s="14"/>
@@ -23910,13 +23907,13 @@
         <v>18</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E434" s="8">
         <v>41956</v>
@@ -23954,13 +23951,13 @@
         <v>18</v>
       </c>
       <c r="B435" s="12" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C435" s="12" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E435" s="13">
         <v>42047</v>
@@ -23985,10 +23982,10 @@
       </c>
       <c r="L435" s="12"/>
       <c r="M435" s="11" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="N435" s="12" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O435" s="14"/>
       <c r="P435" s="14"/>
@@ -24000,13 +23997,13 @@
         <v>18</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E436" s="8">
         <v>41038</v>
@@ -24023,10 +24020,10 @@
       </c>
       <c r="L436" s="7"/>
       <c r="M436" s="6" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="N436" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="O436" s="9"/>
       <c r="P436" s="9"/>
@@ -24038,13 +24035,13 @@
         <v>18</v>
       </c>
       <c r="B437" s="12" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D437" s="11" t="s">
         <v>1247</v>
-      </c>
-      <c r="C437" s="12" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D437" s="11" t="s">
-        <v>1249</v>
       </c>
       <c r="E437" s="13">
         <v>38391</v>
@@ -24061,10 +24058,10 @@
       </c>
       <c r="L437" s="12"/>
       <c r="M437" s="17" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="N437" s="12" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O437" s="14"/>
       <c r="P437" s="14"/>
@@ -24076,13 +24073,13 @@
         <v>18</v>
       </c>
       <c r="B438" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D438" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="C438" s="7" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D438" s="6" t="s">
-        <v>1254</v>
       </c>
       <c r="E438" s="8">
         <v>38931</v>
@@ -24099,10 +24096,10 @@
       </c>
       <c r="L438" s="7"/>
       <c r="M438" s="10" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="N438" s="7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O438" s="9"/>
       <c r="P438" s="9"/>
@@ -24114,13 +24111,13 @@
         <v>18</v>
       </c>
       <c r="B439" s="12" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D439" s="11" t="s">
         <v>1256</v>
-      </c>
-      <c r="C439" s="12" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D439" s="11" t="s">
-        <v>1258</v>
       </c>
       <c r="E439" s="13">
         <v>41956</v>
@@ -24145,10 +24142,10 @@
       </c>
       <c r="L439" s="12"/>
       <c r="M439" s="17" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N439" s="12" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O439" s="14"/>
       <c r="P439" s="14"/>
@@ -24160,13 +24157,13 @@
         <v>18</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E440" s="8">
         <v>44329</v>
@@ -24189,7 +24186,7 @@
       </c>
       <c r="L440" s="7"/>
       <c r="M440" s="6" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N440" s="7" t="s">
         <v>457</v>
@@ -24204,13 +24201,13 @@
         <v>18</v>
       </c>
       <c r="B441" s="12" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C441" s="12" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D441" s="17" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E441" s="13">
         <v>44973</v>
@@ -24233,10 +24230,10 @@
       </c>
       <c r="L441" s="12"/>
       <c r="M441" s="11" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="N441" s="12" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="O441" s="14"/>
       <c r="P441" s="14"/>
@@ -24248,13 +24245,13 @@
         <v>30</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E442" s="8">
         <v>45573</v>
@@ -24277,10 +24274,10 @@
         <v>11</v>
       </c>
       <c r="M442" s="6" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="N442" s="15" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="O442" s="9"/>
       <c r="P442" s="9"/>
@@ -24292,13 +24289,13 @@
         <v>18</v>
       </c>
       <c r="B443" s="12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C443" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D443" s="11" t="s">
         <v>1269</v>
-      </c>
-      <c r="C443" s="12" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D443" s="11" t="s">
-        <v>1271</v>
       </c>
       <c r="E443" s="13">
         <v>40486</v>
@@ -24321,7 +24318,7 @@
       </c>
       <c r="L443" s="12"/>
       <c r="M443" s="11" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="N443" s="12"/>
       <c r="O443" s="14"/>
@@ -24334,13 +24331,13 @@
         <v>18</v>
       </c>
       <c r="B444" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D444" s="6" t="s">
         <v>1273</v>
-      </c>
-      <c r="C444" s="7" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D444" s="6" t="s">
-        <v>1275</v>
       </c>
       <c r="E444" s="8">
         <v>38391</v>
@@ -24355,7 +24352,7 @@
       </c>
       <c r="L444" s="7"/>
       <c r="M444" s="6" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="N444" s="7"/>
       <c r="O444" s="9"/>
@@ -24368,13 +24365,13 @@
         <v>18</v>
       </c>
       <c r="B445" s="12" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C445" s="12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D445" s="11" t="s">
         <v>1277</v>
-      </c>
-      <c r="C445" s="12" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D445" s="11" t="s">
-        <v>1279</v>
       </c>
       <c r="E445" s="13">
         <v>38755</v>
@@ -24394,7 +24391,7 @@
         <v>45</v>
       </c>
       <c r="N445" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O445" s="14"/>
       <c r="P445" s="14"/>
@@ -24406,13 +24403,13 @@
         <v>18</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E446" s="8">
         <v>38391</v>
@@ -24442,13 +24439,13 @@
         <v>18</v>
       </c>
       <c r="B447" s="12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C447" s="12" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D447" s="11" t="s">
         <v>1282</v>
-      </c>
-      <c r="C447" s="12" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D447" s="11" t="s">
-        <v>1284</v>
       </c>
       <c r="E447" s="13">
         <v>38755</v>
@@ -24474,7 +24471,7 @@
         <v>45</v>
       </c>
       <c r="N447" s="12" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="O447" s="14"/>
       <c r="P447" s="14"/>
@@ -24486,13 +24483,13 @@
         <v>18</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E448" s="8">
         <v>40591</v>
@@ -24515,10 +24512,10 @@
       </c>
       <c r="L448" s="7"/>
       <c r="M448" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="N448" s="7" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="O448" s="9"/>
       <c r="P448" s="9"/>
@@ -24530,13 +24527,13 @@
         <v>18</v>
       </c>
       <c r="B449" s="12" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C449" s="12" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D449" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E449" s="13">
         <v>40395</v>
@@ -24560,7 +24557,7 @@
         <v>47</v>
       </c>
       <c r="N449" s="12" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="O449" s="14"/>
       <c r="P449" s="14"/>
@@ -24572,13 +24569,13 @@
         <v>18</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E450" s="8">
         <v>40948</v>
@@ -24601,10 +24598,10 @@
       </c>
       <c r="L450" s="7"/>
       <c r="M450" s="6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="N450" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O450" s="9"/>
       <c r="P450" s="9"/>
@@ -24616,13 +24613,13 @@
         <v>18</v>
       </c>
       <c r="B451" s="12" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C451" s="12" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E451" s="13">
         <v>41956</v>
@@ -24645,10 +24642,10 @@
       </c>
       <c r="L451" s="12"/>
       <c r="M451" s="11" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="N451" s="12" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O451" s="14"/>
       <c r="P451" s="14"/>
@@ -24660,13 +24657,13 @@
         <v>18</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E452" s="8">
         <v>40591</v>
@@ -24689,7 +24686,7 @@
       </c>
       <c r="L452" s="7"/>
       <c r="M452" s="6" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="N452" s="7" t="s">
         <v>48</v>
@@ -24704,13 +24701,13 @@
         <v>18</v>
       </c>
       <c r="B453" s="12" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D453" s="11" t="s">
         <v>1297</v>
-      </c>
-      <c r="C453" s="12" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D453" s="11" t="s">
-        <v>1299</v>
       </c>
       <c r="E453" s="13">
         <v>41865</v>
@@ -24733,10 +24730,10 @@
       </c>
       <c r="L453" s="12"/>
       <c r="M453" s="17" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="N453" s="12" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="O453" s="14"/>
       <c r="P453" s="14"/>
@@ -24748,13 +24745,13 @@
         <v>18</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E454" s="8">
         <v>42177</v>
@@ -24777,7 +24774,7 @@
       </c>
       <c r="L454" s="7"/>
       <c r="M454" s="10" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="N454" s="7" t="s">
         <v>13</v>
@@ -24792,13 +24789,13 @@
         <v>18</v>
       </c>
       <c r="B455" s="12" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C455" s="12" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D455" s="11" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E455" s="13">
         <v>41956</v>
@@ -24819,10 +24816,10 @@
       </c>
       <c r="L455" s="12"/>
       <c r="M455" s="17" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="N455" s="12" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O455" s="14"/>
       <c r="P455" s="14"/>
@@ -24834,13 +24831,13 @@
         <v>18</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E456" s="8">
         <v>42177</v>
@@ -24863,10 +24860,10 @@
       </c>
       <c r="L456" s="7"/>
       <c r="M456" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="N456" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O456" s="9"/>
       <c r="P456" s="9"/>
@@ -24878,13 +24875,13 @@
         <v>18</v>
       </c>
       <c r="B457" s="12" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C457" s="12" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D457" s="11" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E457" s="13">
         <v>42131</v>
@@ -24907,10 +24904,10 @@
       </c>
       <c r="L457" s="12"/>
       <c r="M457" s="17" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="N457" s="12" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="O457" s="14"/>
       <c r="P457" s="14"/>
@@ -24922,13 +24919,13 @@
         <v>18</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E458" s="8">
         <v>42177</v>
@@ -24951,10 +24948,10 @@
       </c>
       <c r="L458" s="7"/>
       <c r="M458" s="6" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="N458" s="7" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="O458" s="9"/>
       <c r="P458" s="9"/>
@@ -24966,13 +24963,13 @@
         <v>30</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C459" s="12" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D459" s="11" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E459" s="13">
         <v>43594</v>
@@ -24995,7 +24992,7 @@
         <v>11</v>
       </c>
       <c r="M459" s="11" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="N459" s="18" t="s">
         <v>690</v>
@@ -25012,13 +25009,13 @@
         <v>18</v>
       </c>
       <c r="B460" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D460" s="6" t="s">
         <v>1315</v>
-      </c>
-      <c r="C460" s="7" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D460" s="6" t="s">
-        <v>1317</v>
       </c>
       <c r="E460" s="8">
         <v>39750</v>
@@ -25056,13 +25053,13 @@
         <v>18</v>
       </c>
       <c r="B461" s="12" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C461" s="12" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D461" s="11" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E461" s="13">
         <v>41956</v>
@@ -25100,13 +25097,13 @@
         <v>18</v>
       </c>
       <c r="B462" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D462" s="10" t="s">
         <v>1319</v>
-      </c>
-      <c r="C462" s="7" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D462" s="10" t="s">
-        <v>1321</v>
       </c>
       <c r="E462" s="8">
         <v>38391</v>
@@ -25121,7 +25118,7 @@
       </c>
       <c r="L462" s="7"/>
       <c r="M462" s="6" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="N462" s="7"/>
       <c r="O462" s="9"/>
@@ -25134,13 +25131,13 @@
         <v>18</v>
       </c>
       <c r="B463" s="12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C463" s="12" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D463" s="11" t="s">
         <v>1323</v>
-      </c>
-      <c r="C463" s="12" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D463" s="11" t="s">
-        <v>1325</v>
       </c>
       <c r="E463" s="13">
         <v>38755</v>
@@ -25176,13 +25173,13 @@
         <v>18</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E464" s="8">
         <v>41038</v>
@@ -25205,10 +25202,10 @@
       </c>
       <c r="L464" s="7"/>
       <c r="M464" s="6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="N464" s="15" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="O464" s="9"/>
       <c r="P464" s="9"/>
@@ -25220,13 +25217,13 @@
         <v>18</v>
       </c>
       <c r="B465" s="12" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C465" s="12" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D465" s="11" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E465" s="13">
         <v>40591</v>
@@ -25249,7 +25246,7 @@
       </c>
       <c r="L465" s="12"/>
       <c r="M465" s="11" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="N465" s="12"/>
       <c r="O465" s="14"/>
@@ -25262,13 +25259,13 @@
         <v>18</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E466" s="8">
         <v>40122</v>
@@ -25291,7 +25288,7 @@
       </c>
       <c r="L466" s="7"/>
       <c r="M466" s="6" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="N466" s="7"/>
       <c r="O466" s="9"/>
@@ -25304,13 +25301,13 @@
         <v>18</v>
       </c>
       <c r="B467" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C467" s="12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D467" s="11" t="s">
         <v>1331</v>
-      </c>
-      <c r="C467" s="12" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D467" s="11" t="s">
-        <v>1333</v>
       </c>
       <c r="E467" s="13">
         <v>41220</v>
@@ -25333,10 +25330,10 @@
       </c>
       <c r="L467" s="12"/>
       <c r="M467" s="11" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="N467" s="12" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="O467" s="14"/>
       <c r="P467" s="14"/>
@@ -25348,13 +25345,13 @@
         <v>18</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E468" s="8">
         <v>41956</v>
@@ -25377,10 +25374,10 @@
       </c>
       <c r="L468" s="7"/>
       <c r="M468" s="6" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="N468" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O468" s="9"/>
       <c r="P468" s="9"/>
@@ -25392,13 +25389,13 @@
         <v>18</v>
       </c>
       <c r="B469" s="12" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C469" s="12" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D469" s="11" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E469" s="13">
         <v>41956</v>
@@ -25419,7 +25416,7 @@
       </c>
       <c r="L469" s="12"/>
       <c r="M469" s="11" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="N469" s="12" t="s">
         <v>186</v>
@@ -25434,13 +25431,13 @@
         <v>18</v>
       </c>
       <c r="B470" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D470" s="6" t="s">
         <v>1339</v>
-      </c>
-      <c r="C470" s="7" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D470" s="6" t="s">
-        <v>1341</v>
       </c>
       <c r="E470" s="8">
         <v>41585</v>
@@ -25457,10 +25454,10 @@
       </c>
       <c r="L470" s="7"/>
       <c r="M470" s="6" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="N470" s="7" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="O470" s="9"/>
       <c r="P470" s="9"/>
@@ -25472,13 +25469,13 @@
         <v>18</v>
       </c>
       <c r="B471" s="12" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C471" s="12" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D471" s="11" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E471" s="13">
         <v>41956</v>
@@ -25495,10 +25492,10 @@
       </c>
       <c r="L471" s="12"/>
       <c r="M471" s="17" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="N471" s="12" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O471" s="14"/>
       <c r="P471" s="14"/>
@@ -25510,13 +25507,13 @@
         <v>18</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E472" s="8">
         <v>41956</v>
@@ -25537,10 +25534,10 @@
       </c>
       <c r="L472" s="7"/>
       <c r="M472" s="10" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="N472" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="O472" s="9"/>
       <c r="P472" s="9"/>
@@ -25552,13 +25549,13 @@
         <v>18</v>
       </c>
       <c r="B473" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D473" s="11" t="s">
         <v>1347</v>
-      </c>
-      <c r="C473" s="12" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D473" s="11" t="s">
-        <v>1349</v>
       </c>
       <c r="E473" s="13">
         <v>41956</v>
@@ -25575,10 +25572,10 @@
       </c>
       <c r="L473" s="12"/>
       <c r="M473" s="11" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="N473" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="O473" s="14"/>
       <c r="P473" s="14"/>
@@ -25590,13 +25587,13 @@
         <v>18</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E474" s="8">
         <v>42131</v>
@@ -25615,10 +25612,10 @@
       </c>
       <c r="L474" s="7"/>
       <c r="M474" s="6" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="N474" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O474" s="9"/>
       <c r="P474" s="9"/>
@@ -25630,13 +25627,13 @@
         <v>30</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C475" s="12" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D475" s="11" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E475" s="13">
         <v>42313</v>
@@ -25661,10 +25658,10 @@
         <v>11</v>
       </c>
       <c r="M475" s="17" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="N475" s="18" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="O475" s="14"/>
       <c r="P475" s="19" t="s">
@@ -25672,7 +25669,7 @@
       </c>
       <c r="Q475" s="12"/>
       <c r="R475" s="18" t="s">
-        <v>1357</v>
+        <v>17</v>
       </c>
     </row>
     <row r="476" s="1" customFormat="1" ht="62.9294" customHeight="1">
@@ -25680,13 +25677,13 @@
         <v>18</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="E476" s="8">
         <v>38391</v>
@@ -25716,13 +25713,13 @@
         <v>18</v>
       </c>
       <c r="B477" s="12" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C477" s="12" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D477" s="11" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E477" s="13">
         <v>40486</v>
@@ -25760,13 +25757,13 @@
         <v>18</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E478" s="8">
         <v>41956</v>
@@ -25789,10 +25786,10 @@
       </c>
       <c r="L478" s="7"/>
       <c r="M478" s="6" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="N478" s="7" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="O478" s="9"/>
       <c r="P478" s="9"/>
@@ -25804,13 +25801,13 @@
         <v>18</v>
       </c>
       <c r="B479" s="12" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C479" s="12" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D479" s="11" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E479" s="13">
         <v>42957</v>
@@ -25833,7 +25830,7 @@
       </c>
       <c r="L479" s="12"/>
       <c r="M479" s="17" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="N479" s="12" t="s">
         <v>68</v>
@@ -25848,13 +25845,13 @@
         <v>18</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E480" s="8">
         <v>43867</v>
@@ -25886,13 +25883,13 @@
         <v>30</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C481" s="12" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D481" s="11" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E481" s="13">
         <v>44063</v>
@@ -25915,7 +25912,7 @@
         <v>11</v>
       </c>
       <c r="M481" s="11" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="N481" s="18" t="s">
         <v>68</v>
@@ -25932,13 +25929,13 @@
         <v>18</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D482" s="10" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E482" s="8">
         <v>40948</v>
@@ -25964,7 +25961,7 @@
       <c r="L482" s="7"/>
       <c r="M482" s="6"/>
       <c r="N482" s="7" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O482" s="9"/>
       <c r="P482" s="9"/>
@@ -25976,13 +25973,13 @@
         <v>30</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C483" s="12" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D483" s="17" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E483" s="13">
         <v>43785</v>
@@ -26007,10 +26004,10 @@
         <v>11</v>
       </c>
       <c r="M483" s="11" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="N483" s="18" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O483" s="14"/>
       <c r="P483" s="14"/>
@@ -26022,13 +26019,13 @@
         <v>18</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E484" s="8">
         <v>40850</v>
@@ -26051,10 +26048,10 @@
       </c>
       <c r="L484" s="7"/>
       <c r="M484" s="6" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="N484" s="7" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="O484" s="9"/>
       <c r="P484" s="9"/>
@@ -26066,13 +26063,13 @@
         <v>18</v>
       </c>
       <c r="B485" s="12" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C485" s="12" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="D485" s="11" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E485" s="13">
         <v>42957</v>
@@ -26095,10 +26092,10 @@
       </c>
       <c r="L485" s="12"/>
       <c r="M485" s="11" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="N485" s="12" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="O485" s="14"/>
       <c r="P485" s="14"/>
@@ -26110,13 +26107,13 @@
         <v>30</v>
       </c>
       <c r="B486" s="15" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="D486" s="10" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E486" s="8">
         <v>44504</v>
@@ -26135,12 +26132,14 @@
       </c>
       <c r="J486" s="9"/>
       <c r="K486" s="8"/>
-      <c r="L486" s="7"/>
+      <c r="L486" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="M486" s="6" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="N486" s="15" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="O486" s="9"/>
       <c r="Q486" s="7"/>
@@ -26151,13 +26150,13 @@
         <v>18</v>
       </c>
       <c r="B487" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C487" s="12" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D487" s="11" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="E487" s="13">
         <v>41220</v>
@@ -26174,10 +26173,10 @@
       </c>
       <c r="L487" s="12"/>
       <c r="M487" s="17" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="N487" s="12" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="O487" s="14"/>
       <c r="P487" s="14"/>
@@ -26189,13 +26188,13 @@
         <v>18</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E488" s="8">
         <v>38391</v>
@@ -26233,13 +26232,13 @@
         <v>30</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C489" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D489" s="11" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="E489" s="13">
         <v>38391</v>
@@ -26267,7 +26266,7 @@
         <v>45</v>
       </c>
       <c r="N489" s="18" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O489" s="14"/>
       <c r="P489" s="19" t="s">
@@ -26281,13 +26280,13 @@
         <v>18</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E490" s="8">
         <v>38391</v>
@@ -26313,7 +26312,7 @@
         <v>45</v>
       </c>
       <c r="N490" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O490" s="9"/>
       <c r="P490" s="9"/>
@@ -26325,13 +26324,13 @@
         <v>18</v>
       </c>
       <c r="B491" s="12" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C491" s="12" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D491" s="11" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E491" s="13">
         <v>38391</v>
@@ -26357,7 +26356,7 @@
         <v>45</v>
       </c>
       <c r="N491" s="12" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="O491" s="14"/>
       <c r="P491" s="14"/>
@@ -26369,13 +26368,13 @@
         <v>18</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E492" s="8">
         <v>41956</v>
@@ -26398,10 +26397,10 @@
       </c>
       <c r="L492" s="7"/>
       <c r="M492" s="6" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="N492" s="7" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="O492" s="9"/>
       <c r="P492" s="9"/>
@@ -26413,13 +26412,13 @@
         <v>30</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="C493" s="12" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D493" s="11" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E493" s="13">
         <v>42131</v>
@@ -26442,10 +26441,10 @@
         <v>11</v>
       </c>
       <c r="M493" s="11" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="N493" s="18" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="O493" s="14"/>
       <c r="P493" s="19" t="s">
@@ -26459,13 +26458,13 @@
         <v>30</v>
       </c>
       <c r="B494" s="15" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E494" s="8">
         <v>38391</v>
@@ -26493,7 +26492,7 @@
         <v>45</v>
       </c>
       <c r="N494" s="15" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O494" s="9"/>
       <c r="P494" s="16" t="s">
@@ -26507,13 +26506,13 @@
         <v>18</v>
       </c>
       <c r="B495" s="12" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C495" s="12" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D495" s="17" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E495" s="13">
         <v>38391</v>
@@ -26533,7 +26532,7 @@
         <v>45</v>
       </c>
       <c r="N495" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O495" s="14"/>
       <c r="P495" s="14"/>
@@ -26545,13 +26544,13 @@
         <v>18</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D496" s="10" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E496" s="8">
         <v>41956</v>
@@ -26583,13 +26582,13 @@
         <v>30</v>
       </c>
       <c r="B497" s="18" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C497" s="12" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D497" s="11" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E497" s="13">
         <v>42495</v>
@@ -26612,10 +26611,10 @@
         <v>11</v>
       </c>
       <c r="M497" s="11" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="N497" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="O497" s="14"/>
       <c r="P497" s="19" t="s">
@@ -26629,13 +26628,13 @@
         <v>18</v>
       </c>
       <c r="B498" s="7" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="D498" s="6" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E498" s="8">
         <v>38391</v>
@@ -26655,7 +26654,7 @@
         <v>45</v>
       </c>
       <c r="N498" s="7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O498" s="9"/>
       <c r="P498" s="9"/>
@@ -26667,13 +26666,13 @@
         <v>18</v>
       </c>
       <c r="B499" s="12" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C499" s="12" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D499" s="11" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="E499" s="13">
         <v>41956</v>
@@ -26705,13 +26704,13 @@
         <v>18</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D500" s="10" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="E500" s="8">
         <v>38391</v>
@@ -26731,7 +26730,7 @@
         <v>45</v>
       </c>
       <c r="N500" s="7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="O500" s="9"/>
       <c r="P500" s="9"/>
@@ -26743,13 +26742,13 @@
         <v>18</v>
       </c>
       <c r="B501" s="12" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C501" s="12" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D501" s="17" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E501" s="13">
         <v>41956</v>
@@ -26781,13 +26780,13 @@
         <v>18</v>
       </c>
       <c r="B502" s="7" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D502" s="10" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E502" s="8">
         <v>38391</v>
@@ -26813,7 +26812,7 @@
         <v>45</v>
       </c>
       <c r="N502" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O502" s="9"/>
       <c r="P502" s="9"/>
@@ -26825,13 +26824,13 @@
         <v>18</v>
       </c>
       <c r="B503" s="12" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C503" s="12" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D503" s="17" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E503" s="13">
         <v>41956</v>
@@ -26869,13 +26868,13 @@
         <v>18</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D504" s="10" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E504" s="8">
         <v>38391</v>
@@ -26911,13 +26910,13 @@
         <v>18</v>
       </c>
       <c r="B505" s="12" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="C505" s="12" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D505" s="17" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E505" s="13">
         <v>39750</v>
@@ -26943,7 +26942,7 @@
         <v>24</v>
       </c>
       <c r="N505" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O505" s="14"/>
       <c r="P505" s="14"/>
@@ -26955,13 +26954,13 @@
         <v>18</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D506" s="10" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E506" s="8">
         <v>41956</v>
@@ -26999,13 +26998,13 @@
         <v>18</v>
       </c>
       <c r="B507" s="12" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="C507" s="12" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="D507" s="17" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E507" s="13">
         <v>38391</v>
@@ -27031,7 +27030,7 @@
         <v>45</v>
       </c>
       <c r="N507" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O507" s="14"/>
       <c r="P507" s="14"/>
@@ -27043,13 +27042,13 @@
         <v>30</v>
       </c>
       <c r="B508" s="15" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D508" s="10" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E508" s="8">
         <v>41956</v>
@@ -27091,13 +27090,13 @@
         <v>18</v>
       </c>
       <c r="B509" s="12" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C509" s="12" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D509" s="11" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E509" s="13">
         <v>38931</v>
@@ -27123,7 +27122,7 @@
         <v>255</v>
       </c>
       <c r="N509" s="12" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="O509" s="14"/>
       <c r="P509" s="14"/>
@@ -27135,13 +27134,13 @@
         <v>18</v>
       </c>
       <c r="B510" s="7" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="D510" s="6" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E510" s="8">
         <v>41312</v>
@@ -27164,10 +27163,10 @@
       </c>
       <c r="L510" s="7"/>
       <c r="M510" s="10" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="N510" s="7" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="O510" s="9"/>
       <c r="P510" s="9"/>
@@ -27179,13 +27178,13 @@
         <v>30</v>
       </c>
       <c r="B511" s="18" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="C511" s="12" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D511" s="11" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E511" s="13">
         <v>42047</v>
@@ -27208,10 +27207,10 @@
         <v>11</v>
       </c>
       <c r="M511" s="17" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="N511" s="18" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O511" s="14"/>
       <c r="P511" s="19" t="s">
@@ -27219,7 +27218,7 @@
       </c>
       <c r="Q511" s="12"/>
       <c r="R511" s="18" t="s">
-        <v>1459</v>
+        <v>17</v>
       </c>
     </row>
     <row r="512" s="1" customFormat="1" ht="84.2614" customHeight="1">
@@ -27227,13 +27226,13 @@
         <v>18</v>
       </c>
       <c r="B512" s="7" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D512" s="10" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="E512" s="8">
         <v>38755</v>
@@ -27253,7 +27252,7 @@
         <v>45</v>
       </c>
       <c r="N512" s="7" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="O512" s="9"/>
       <c r="P512" s="9"/>
@@ -27265,13 +27264,13 @@
         <v>18</v>
       </c>
       <c r="B513" s="12" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="C513" s="12" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D513" s="17" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="E513" s="13">
         <v>41956</v>
@@ -27301,13 +27300,13 @@
         <v>18</v>
       </c>
       <c r="B514" s="7" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="D514" s="6" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="E514" s="8">
         <v>38755</v>
@@ -27333,7 +27332,7 @@
         <v>45</v>
       </c>
       <c r="N514" s="7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O514" s="9"/>
       <c r="P514" s="9"/>
@@ -27345,13 +27344,13 @@
         <v>18</v>
       </c>
       <c r="B515" s="12" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C515" s="12" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="D515" s="11" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="E515" s="13">
         <v>41956</v>
@@ -27381,13 +27380,13 @@
         <v>18</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="D516" s="6" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="E516" s="8">
         <v>38755</v>
@@ -27413,7 +27412,7 @@
         <v>45</v>
       </c>
       <c r="N516" s="7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O516" s="9"/>
       <c r="P516" s="9"/>
@@ -27425,13 +27424,13 @@
         <v>18</v>
       </c>
       <c r="B517" s="12" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C517" s="12" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D517" s="17" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E517" s="13">
         <v>39490</v>
@@ -27454,10 +27453,10 @@
       </c>
       <c r="L517" s="12"/>
       <c r="M517" s="11" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="N517" s="12" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="O517" s="14"/>
       <c r="P517" s="14"/>
@@ -27469,13 +27468,13 @@
         <v>18</v>
       </c>
       <c r="B518" s="7" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D518" s="10" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E518" s="8">
         <v>40612</v>
@@ -27498,10 +27497,10 @@
       </c>
       <c r="L518" s="7"/>
       <c r="M518" s="6" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="N518" s="7" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="O518" s="9"/>
       <c r="P518" s="9"/>
@@ -27513,13 +27512,13 @@
         <v>18</v>
       </c>
       <c r="B519" s="12" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C519" s="12" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D519" s="17" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E519" s="13">
         <v>41585</v>
@@ -27542,10 +27541,10 @@
       </c>
       <c r="L519" s="12"/>
       <c r="M519" s="11" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="N519" s="12" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="O519" s="14"/>
       <c r="P519" s="14"/>
@@ -27557,13 +27556,13 @@
         <v>18</v>
       </c>
       <c r="B520" s="7" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E520" s="8">
         <v>41956</v>
@@ -27601,13 +27600,13 @@
         <v>18</v>
       </c>
       <c r="B521" s="12" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C521" s="12" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D521" s="17" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E521" s="13">
         <v>44329</v>
@@ -27630,7 +27629,7 @@
       </c>
       <c r="L521" s="12"/>
       <c r="M521" s="11" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N521" s="12" t="s">
         <v>457</v>
@@ -27645,13 +27644,13 @@
         <v>30</v>
       </c>
       <c r="B522" s="15" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D522" s="10" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="E522" s="8">
         <v>44973</v>
@@ -27674,19 +27673,19 @@
         <v>11</v>
       </c>
       <c r="M522" s="10" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="N522" s="15" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="O522" s="16" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="P522" s="16" t="s">
         <v>713</v>
       </c>
       <c r="Q522" s="7"/>
-      <c r="R522" s="15" t="s">
+      <c r="R522" s="22" t="s">
         <v>279</v>
       </c>
     </row>
@@ -27695,13 +27694,13 @@
         <v>18</v>
       </c>
       <c r="B523" s="12" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C523" s="12" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="D523" s="11" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="E523" s="13">
         <v>41403</v>
@@ -27724,10 +27723,10 @@
       </c>
       <c r="L523" s="12"/>
       <c r="M523" s="17" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="N523" s="12" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="O523" s="14"/>
       <c r="P523" s="14"/>
@@ -27739,13 +27738,13 @@
         <v>18</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="E524" s="8">
         <v>42047</v>
@@ -27768,10 +27767,10 @@
       </c>
       <c r="L524" s="7"/>
       <c r="M524" s="10" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="N524" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O524" s="9"/>
       <c r="P524" s="9"/>
@@ -27783,13 +27782,13 @@
         <v>30</v>
       </c>
       <c r="B525" s="18" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="C525" s="12" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="D525" s="11" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="E525" s="13">
         <v>43867</v>
@@ -27814,10 +27813,10 @@
         <v>11</v>
       </c>
       <c r="M525" s="11" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="N525" s="18" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="O525" s="14"/>
       <c r="P525" s="19" t="s">
@@ -27831,13 +27830,13 @@
         <v>139</v>
       </c>
       <c r="B526" s="15" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="E526" s="8">
         <v>45573</v>
@@ -27860,10 +27859,10 @@
         <v>11</v>
       </c>
       <c r="M526" s="10" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="N526" s="15" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="O526" s="9"/>
       <c r="P526" s="9"/>
@@ -27875,13 +27874,13 @@
         <v>18</v>
       </c>
       <c r="B527" s="12" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C527" s="12" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="D527" s="11" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="E527" s="13">
         <v>41501</v>
@@ -27904,10 +27903,10 @@
       </c>
       <c r="L527" s="12"/>
       <c r="M527" s="17" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="N527" s="12" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="O527" s="14"/>
       <c r="P527" s="14"/>
@@ -27919,13 +27918,13 @@
         <v>30</v>
       </c>
       <c r="B528" s="15" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="E528" s="8">
         <v>43139</v>
@@ -27950,10 +27949,10 @@
         <v>11</v>
       </c>
       <c r="M528" s="6" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="N528" s="15" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="O528" s="9"/>
       <c r="P528" s="16" t="s">
@@ -27967,13 +27966,13 @@
         <v>18</v>
       </c>
       <c r="B529" s="12" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C529" s="12" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D529" s="11" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="E529" s="13">
         <v>41990</v>
@@ -27998,10 +27997,10 @@
       </c>
       <c r="L529" s="12"/>
       <c r="M529" s="17" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="N529" s="12" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="O529" s="14"/>
       <c r="P529" s="14"/>
@@ -28013,13 +28012,13 @@
         <v>30</v>
       </c>
       <c r="B530" s="15" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="E530" s="8">
         <v>44329</v>
@@ -28044,7 +28043,7 @@
         <v>11</v>
       </c>
       <c r="M530" s="6" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N530" s="15" t="s">
         <v>457</v>
@@ -28061,13 +28060,13 @@
         <v>30</v>
       </c>
       <c r="B531" s="18" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C531" s="12" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="D531" s="11" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E531" s="13">
         <v>42313</v>
@@ -28090,10 +28089,10 @@
         <v>11</v>
       </c>
       <c r="M531" s="11" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="N531" s="18" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="O531" s="14"/>
       <c r="P531" s="19" t="s">
@@ -28107,13 +28106,13 @@
         <v>30</v>
       </c>
       <c r="B532" s="15" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="D532" s="6" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="E532" s="8">
         <v>45573</v>
@@ -28138,10 +28137,10 @@
         <v>11</v>
       </c>
       <c r="M532" s="6" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="N532" s="15" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="O532" s="9"/>
       <c r="P532" s="9"/>
@@ -28153,13 +28152,13 @@
         <v>139</v>
       </c>
       <c r="B533" s="18" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="C533" s="12" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="D533" s="11" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="E533" s="13">
         <v>45573</v>
@@ -28184,10 +28183,10 @@
         <v>11</v>
       </c>
       <c r="M533" s="17" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="N533" s="18" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="O533" s="14"/>
       <c r="P533" s="14"/>
@@ -28199,13 +28198,13 @@
         <v>139</v>
       </c>
       <c r="B534" s="15" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="D534" s="6" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="E534" s="8">
         <v>45573</v>
@@ -28230,10 +28229,10 @@
         <v>11</v>
       </c>
       <c r="M534" s="10" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="N534" s="15" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="O534" s="9"/>
       <c r="P534" s="9"/>
@@ -28245,13 +28244,13 @@
         <v>18</v>
       </c>
       <c r="B535" s="12" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="C535" s="12" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D535" s="11" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E535" s="13">
         <v>39153</v>
@@ -28274,7 +28273,7 @@
       </c>
       <c r="L535" s="12"/>
       <c r="M535" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N535" s="12"/>
       <c r="O535" s="14"/>
@@ -28287,13 +28286,13 @@
         <v>18</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="D536" s="10" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="E536" s="8">
         <v>39153</v>
@@ -28316,7 +28315,7 @@
       </c>
       <c r="L536" s="7"/>
       <c r="M536" s="6" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N536" s="7"/>
       <c r="O536" s="9"/>
@@ -28329,13 +28328,13 @@
         <v>18</v>
       </c>
       <c r="B537" s="12" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C537" s="12" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D537" s="11" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E537" s="13">
         <v>39153</v>
@@ -28358,7 +28357,7 @@
       </c>
       <c r="L537" s="12"/>
       <c r="M537" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N537" s="12"/>
       <c r="O537" s="14"/>
@@ -28371,13 +28370,13 @@
         <v>18</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D538" s="6" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E538" s="8">
         <v>38391</v>
@@ -28407,13 +28406,13 @@
         <v>18</v>
       </c>
       <c r="B539" s="12" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C539" s="12" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D539" s="11" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E539" s="13">
         <v>39022</v>
@@ -28449,13 +28448,13 @@
         <v>18</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E540" s="8">
         <v>40310</v>
@@ -28478,10 +28477,10 @@
       </c>
       <c r="L540" s="7"/>
       <c r="M540" s="6" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="N540" s="7" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="O540" s="9"/>
       <c r="P540" s="9"/>
@@ -28493,13 +28492,13 @@
         <v>18</v>
       </c>
       <c r="B541" s="12" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="C541" s="12" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D541" s="11" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="E541" s="13">
         <v>41038</v>
@@ -28516,10 +28515,10 @@
       </c>
       <c r="L541" s="12"/>
       <c r="M541" s="11" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="N541" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="O541" s="14"/>
       <c r="P541" s="14"/>
@@ -28531,13 +28530,13 @@
         <v>18</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D542" s="6" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E542" s="8">
         <v>42047</v>
@@ -28575,13 +28574,13 @@
         <v>18</v>
       </c>
       <c r="B543" s="12" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="C543" s="12" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D543" s="11" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E543" s="13">
         <v>42775</v>
@@ -28604,7 +28603,7 @@
       </c>
       <c r="L543" s="12"/>
       <c r="M543" s="11" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="N543" s="12" t="s">
         <v>861</v>
@@ -28619,13 +28618,13 @@
         <v>18</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E544" s="8">
         <v>43594</v>
@@ -28648,7 +28647,7 @@
       </c>
       <c r="L544" s="7"/>
       <c r="M544" s="6" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="N544" s="7" t="s">
         <v>690</v>
@@ -28663,13 +28662,13 @@
         <v>30</v>
       </c>
       <c r="B545" s="18" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C545" s="12" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D545" s="11" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E545" s="13">
         <v>44329</v>
@@ -28692,18 +28691,18 @@
         <v>11</v>
       </c>
       <c r="M545" s="11" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N545" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="O545" s="19" t="s">
-        <v>1558</v>
-      </c>
+      <c r="O545" s="14"/>
       <c r="P545" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="Q545" s="12"/>
+      <c r="Q545" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="R545" s="12"/>
     </row>
     <row r="546" s="1" customFormat="1" ht="41.0641" customHeight="1">
@@ -28711,13 +28710,13 @@
         <v>18</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="D546" s="6" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="E546" s="8">
         <v>38391</v>
@@ -28747,13 +28746,13 @@
         <v>18</v>
       </c>
       <c r="B547" s="12" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="C547" s="12" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="D547" s="11" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="E547" s="13">
         <v>38931</v>
@@ -28768,7 +28767,7 @@
       </c>
       <c r="L547" s="12"/>
       <c r="M547" s="11" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="N547" s="12"/>
       <c r="O547" s="14"/>
@@ -28781,13 +28780,13 @@
         <v>18</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="D548" s="6" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="E548" s="8">
         <v>39022</v>
@@ -28823,13 +28822,13 @@
         <v>18</v>
       </c>
       <c r="B549" s="12" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="C549" s="12" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="D549" s="11" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="E549" s="13">
         <v>41010</v>
@@ -28855,7 +28854,7 @@
         <v>118</v>
       </c>
       <c r="N549" s="12" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="O549" s="14"/>
       <c r="P549" s="14"/>
@@ -28867,13 +28866,13 @@
         <v>18</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="D550" s="6" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="E550" s="8">
         <v>39854</v>
@@ -28909,13 +28908,13 @@
         <v>18</v>
       </c>
       <c r="B551" s="12" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="C551" s="12" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="D551" s="11" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="E551" s="13">
         <v>40486</v>
@@ -28938,7 +28937,7 @@
       </c>
       <c r="L551" s="12"/>
       <c r="M551" s="11" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="N551" s="12"/>
       <c r="O551" s="14"/>
@@ -28951,13 +28950,13 @@
         <v>18</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="D552" s="6" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="E552" s="8">
         <v>41038</v>
@@ -28974,10 +28973,10 @@
       </c>
       <c r="L552" s="7"/>
       <c r="M552" s="6" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="N552" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="O552" s="9"/>
       <c r="P552" s="9"/>
@@ -28989,13 +28988,13 @@
         <v>18</v>
       </c>
       <c r="B553" s="12" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="C553" s="12" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="D553" s="11" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="E553" s="13">
         <v>41956</v>
@@ -29033,13 +29032,13 @@
         <v>30</v>
       </c>
       <c r="B554" s="15" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="D554" s="6" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="E554" s="8">
         <v>45222</v>
@@ -29062,7 +29061,7 @@
         <v>11</v>
       </c>
       <c r="M554" s="6" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="N554" s="15" t="s">
         <v>605</v>
@@ -29079,13 +29078,13 @@
         <v>18</v>
       </c>
       <c r="B555" s="12" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="C555" s="12" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="D555" s="11" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="E555" s="13">
         <v>38391</v>
@@ -29121,13 +29120,13 @@
         <v>18</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="E556" s="8">
         <v>39738</v>
@@ -29165,13 +29164,13 @@
         <v>18</v>
       </c>
       <c r="B557" s="12" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="C557" s="12" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="D557" s="11" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="E557" s="13">
         <v>41038</v>
@@ -29188,10 +29187,10 @@
       </c>
       <c r="L557" s="12"/>
       <c r="M557" s="11" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="N557" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="O557" s="14"/>
       <c r="P557" s="14"/>
@@ -29203,13 +29202,13 @@
         <v>18</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="E558" s="8">
         <v>41956</v>
@@ -29234,7 +29233,7 @@
       </c>
       <c r="L558" s="7"/>
       <c r="M558" s="10" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="N558" s="7" t="s">
         <v>841</v>
@@ -29249,13 +29248,13 @@
         <v>18</v>
       </c>
       <c r="B559" s="12" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="C559" s="12" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="D559" s="11" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="E559" s="13">
         <v>43867</v>
@@ -29278,7 +29277,7 @@
       </c>
       <c r="L559" s="12"/>
       <c r="M559" s="11" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="N559" s="12" t="s">
         <v>645</v>
@@ -29293,13 +29292,13 @@
         <v>18</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="E560" s="8">
         <v>44358</v>
@@ -29337,13 +29336,13 @@
         <v>30</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="C561" s="12" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="D561" s="17" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="E561" s="13">
         <v>45161</v>
@@ -29368,7 +29367,7 @@
         <v>11</v>
       </c>
       <c r="M561" s="11" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="N561" s="18" t="s">
         <v>968</v>
@@ -29385,13 +29384,13 @@
         <v>139</v>
       </c>
       <c r="B562" s="15" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="D562" s="6" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="E562" s="8">
         <v>45636</v>
@@ -29414,7 +29413,7 @@
         <v>11</v>
       </c>
       <c r="M562" s="6" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="N562" s="15" t="s">
         <v>144</v>
@@ -29429,13 +29428,13 @@
         <v>209</v>
       </c>
       <c r="B563" s="18" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="C563" s="12" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="D563" s="17" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="E563" s="13">
         <v>45961</v>
@@ -29467,13 +29466,13 @@
         <v>18</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D564" s="6" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="E564" s="8">
         <v>38391</v>
@@ -29490,7 +29489,7 @@
       </c>
       <c r="L564" s="7"/>
       <c r="M564" s="10" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="N564" s="7"/>
       <c r="O564" s="9"/>
@@ -29503,13 +29502,13 @@
         <v>18</v>
       </c>
       <c r="B565" s="12" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="C565" s="12" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D565" s="11" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="E565" s="13">
         <v>39022</v>
@@ -29545,13 +29544,13 @@
         <v>18</v>
       </c>
       <c r="B566" s="7" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D566" s="6" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="E566" s="8">
         <v>39022</v>
@@ -29575,7 +29574,7 @@
       <c r="L566" s="7"/>
       <c r="M566" s="6"/>
       <c r="N566" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="O566" s="9"/>
       <c r="P566" s="9"/>
@@ -29587,13 +29586,13 @@
         <v>18</v>
       </c>
       <c r="B567" s="12" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="C567" s="12" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="D567" s="11" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="E567" s="13">
         <v>38391</v>
@@ -29608,7 +29607,7 @@
       </c>
       <c r="L567" s="12"/>
       <c r="M567" s="11" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="N567" s="12"/>
       <c r="O567" s="14"/>
@@ -29621,13 +29620,13 @@
         <v>18</v>
       </c>
       <c r="B568" s="7" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="D568" s="6" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="E568" s="8">
         <v>38755</v>
@@ -29663,13 +29662,13 @@
         <v>18</v>
       </c>
       <c r="B569" s="12" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="C569" s="12" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="D569" s="11" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="E569" s="13">
         <v>39750</v>
@@ -29705,13 +29704,13 @@
         <v>18</v>
       </c>
       <c r="B570" s="7" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="D570" s="6" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="E570" s="8">
         <v>40122</v>
@@ -29747,13 +29746,13 @@
         <v>18</v>
       </c>
       <c r="B571" s="12" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="C571" s="12" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="D571" s="11" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="E571" s="13">
         <v>39738</v>
@@ -29787,13 +29786,13 @@
         <v>18</v>
       </c>
       <c r="B572" s="7" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="E572" s="8">
         <v>39738</v>
@@ -29831,13 +29830,13 @@
         <v>18</v>
       </c>
       <c r="B573" s="12" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="C573" s="12" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="D573" s="11" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="E573" s="13">
         <v>41956</v>
@@ -29867,13 +29866,13 @@
         <v>18</v>
       </c>
       <c r="B574" s="7" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="E574" s="8">
         <v>38391</v>
@@ -29890,7 +29889,7 @@
       </c>
       <c r="L574" s="7"/>
       <c r="M574" s="10" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="N574" s="7"/>
       <c r="O574" s="9"/>
@@ -29903,13 +29902,13 @@
         <v>18</v>
       </c>
       <c r="B575" s="12" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="C575" s="12" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="D575" s="11" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="E575" s="13">
         <v>39022</v>
@@ -29935,7 +29934,7 @@
         <v>469</v>
       </c>
       <c r="N575" s="12" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="O575" s="14"/>
       <c r="P575" s="14"/>
@@ -29947,13 +29946,13 @@
         <v>18</v>
       </c>
       <c r="B576" s="7" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="E576" s="8">
         <v>39738</v>
@@ -29991,13 +29990,13 @@
         <v>18</v>
       </c>
       <c r="B577" s="12" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="C577" s="12" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="D577" s="11" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="E577" s="13">
         <v>41220</v>
@@ -30014,10 +30013,10 @@
       </c>
       <c r="L577" s="12"/>
       <c r="M577" s="11" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="N577" s="12" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="O577" s="14"/>
       <c r="P577" s="14"/>
@@ -30029,13 +30028,13 @@
         <v>18</v>
       </c>
       <c r="B578" s="7" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="E578" s="8">
         <v>38391</v>
@@ -30061,7 +30060,7 @@
         <v>45</v>
       </c>
       <c r="N578" s="7" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="O578" s="9"/>
       <c r="P578" s="9"/>
@@ -30073,13 +30072,13 @@
         <v>18</v>
       </c>
       <c r="B579" s="12" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="C579" s="12" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="D579" s="11" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="E579" s="13">
         <v>39750</v>
@@ -30102,7 +30101,7 @@
       </c>
       <c r="L579" s="12"/>
       <c r="M579" s="11" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="N579" s="12"/>
       <c r="O579" s="14"/>
@@ -30115,13 +30114,13 @@
         <v>18</v>
       </c>
       <c r="B580" s="7" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="D580" s="6" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="E580" s="8">
         <v>41676</v>
@@ -30144,7 +30143,7 @@
       </c>
       <c r="L580" s="7"/>
       <c r="M580" s="6" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="N580" s="7" t="s">
         <v>68</v>
@@ -30159,13 +30158,13 @@
         <v>18</v>
       </c>
       <c r="B581" s="12" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="C581" s="12" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="D581" s="11" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="E581" s="13">
         <v>38391</v>
@@ -30185,7 +30184,7 @@
         <v>45</v>
       </c>
       <c r="N581" s="12" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="O581" s="14"/>
       <c r="P581" s="14"/>
@@ -30197,13 +30196,13 @@
         <v>18</v>
       </c>
       <c r="B582" s="7" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="D582" s="6" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="E582" s="8">
         <v>39022</v>
@@ -30239,10 +30238,10 @@
         <v>18</v>
       </c>
       <c r="B583" s="12" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="C583" s="12" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="D583" s="11" t="s">
         <v>994</v>
@@ -30266,7 +30265,7 @@
       </c>
       <c r="L583" s="12"/>
       <c r="M583" s="17" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="N583" s="12" t="s">
         <v>996</v>
@@ -30281,10 +30280,10 @@
         <v>30</v>
       </c>
       <c r="B584" s="15" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="D584" s="6" t="s">
         <v>994</v>
@@ -30310,7 +30309,7 @@
         <v>11</v>
       </c>
       <c r="M584" s="6" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="N584" s="15" t="s">
         <v>996</v>
@@ -30321,7 +30320,7 @@
       </c>
       <c r="Q584" s="7"/>
       <c r="R584" s="15" t="s">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="585" s="1" customFormat="1" ht="41.0641" customHeight="1">
@@ -30329,13 +30328,13 @@
         <v>18</v>
       </c>
       <c r="B585" s="12" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="C585" s="12" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="D585" s="11" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="E585" s="13">
         <v>39153</v>
@@ -30358,7 +30357,7 @@
       </c>
       <c r="L585" s="12"/>
       <c r="M585" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N585" s="12"/>
       <c r="O585" s="14"/>
@@ -30371,13 +30370,13 @@
         <v>18</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="D586" s="10" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E586" s="8">
         <v>38391</v>
@@ -30413,13 +30412,13 @@
         <v>18</v>
       </c>
       <c r="B587" s="12" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="C587" s="12" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="D587" s="17" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E587" s="13">
         <v>39750</v>
@@ -30445,7 +30444,7 @@
         <v>24</v>
       </c>
       <c r="N587" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O587" s="14"/>
       <c r="P587" s="14"/>
@@ -30457,13 +30456,13 @@
         <v>18</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="D588" s="10" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E588" s="8">
         <v>41956</v>
@@ -30499,13 +30498,13 @@
         <v>18</v>
       </c>
       <c r="B589" s="12" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="C589" s="12" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="D589" s="17" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E589" s="13">
         <v>40591</v>
@@ -30526,7 +30525,7 @@
       </c>
       <c r="L589" s="12"/>
       <c r="M589" s="11" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="N589" s="12"/>
       <c r="O589" s="14"/>
@@ -30539,13 +30538,13 @@
         <v>18</v>
       </c>
       <c r="B590" s="7" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="C590" s="7" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="D590" s="6" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="E590" s="8">
         <v>40759</v>
@@ -30562,7 +30561,7 @@
       </c>
       <c r="L590" s="7"/>
       <c r="M590" s="6" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="N590" s="7" t="s">
         <v>13</v>
@@ -30577,13 +30576,13 @@
         <v>18</v>
       </c>
       <c r="B591" s="12" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="C591" s="12" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="D591" s="17" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E591" s="13">
         <v>41312</v>
@@ -30600,7 +30599,7 @@
       </c>
       <c r="L591" s="12"/>
       <c r="M591" s="11" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="N591" s="12" t="s">
         <v>13</v>
@@ -30615,13 +30614,13 @@
         <v>18</v>
       </c>
       <c r="B592" s="7" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="D592" s="6" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="E592" s="8">
         <v>41312</v>
@@ -30644,10 +30643,10 @@
       </c>
       <c r="L592" s="7"/>
       <c r="M592" s="6" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="N592" s="7" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="O592" s="9"/>
       <c r="P592" s="9"/>
@@ -30659,13 +30658,13 @@
         <v>18</v>
       </c>
       <c r="B593" s="12" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="C593" s="12" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="D593" s="11" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="E593" s="13">
         <v>43411</v>
@@ -30686,10 +30685,10 @@
       </c>
       <c r="L593" s="12"/>
       <c r="M593" s="11" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="N593" s="12" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O593" s="14"/>
       <c r="P593" s="14"/>
@@ -30701,13 +30700,13 @@
         <v>30</v>
       </c>
       <c r="B594" s="15" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="D594" s="6" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="E594" s="8">
         <v>43411</v>
@@ -30732,13 +30731,13 @@
         <v>11</v>
       </c>
       <c r="M594" s="6" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="N594" s="15" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O594" s="16" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="P594" s="16" t="s">
         <v>34</v>
@@ -30751,13 +30750,13 @@
         <v>18</v>
       </c>
       <c r="B595" s="12" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="C595" s="12" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="D595" s="17" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E595" s="13">
         <v>38391</v>
@@ -30795,13 +30794,13 @@
         <v>18</v>
       </c>
       <c r="B596" s="7" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E596" s="8">
         <v>39659</v>
@@ -30824,7 +30823,7 @@
       </c>
       <c r="L596" s="7"/>
       <c r="M596" s="6" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="N596" s="7"/>
       <c r="O596" s="9"/>
@@ -30837,13 +30836,13 @@
         <v>18</v>
       </c>
       <c r="B597" s="12" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="C597" s="12" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="D597" s="17" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E597" s="13">
         <v>40122</v>
@@ -30866,10 +30865,10 @@
       </c>
       <c r="L597" s="12"/>
       <c r="M597" s="11" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="N597" s="12" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="O597" s="14"/>
       <c r="P597" s="14"/>
@@ -30881,13 +30880,13 @@
         <v>18</v>
       </c>
       <c r="B598" s="7" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E598" s="8">
         <v>41956</v>
@@ -30923,13 +30922,13 @@
         <v>18</v>
       </c>
       <c r="B599" s="12" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="C599" s="12" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="D599" s="17" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E599" s="13">
         <v>40591</v>
@@ -30950,10 +30949,10 @@
       </c>
       <c r="L599" s="12"/>
       <c r="M599" s="11" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="N599" s="12" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="O599" s="14"/>
       <c r="P599" s="14"/>
@@ -30965,13 +30964,13 @@
         <v>18</v>
       </c>
       <c r="B600" s="7" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="E600" s="8">
         <v>41312</v>
@@ -30988,10 +30987,10 @@
       </c>
       <c r="L600" s="7"/>
       <c r="M600" s="6" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="N600" s="7" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="O600" s="9"/>
       <c r="P600" s="9"/>
@@ -31003,13 +31002,13 @@
         <v>18</v>
       </c>
       <c r="B601" s="12" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="C601" s="12" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D601" s="17" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E601" s="13">
         <v>38391</v>
@@ -31035,7 +31034,7 @@
         <v>45</v>
       </c>
       <c r="N601" s="12" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="O601" s="14"/>
       <c r="P601" s="14"/>
@@ -31047,13 +31046,13 @@
         <v>18</v>
       </c>
       <c r="B602" s="7" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D602" s="10" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E602" s="8">
         <v>39659</v>
@@ -31076,10 +31075,10 @@
       </c>
       <c r="L602" s="7"/>
       <c r="M602" s="6" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="N602" s="7" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="O602" s="9"/>
       <c r="P602" s="9"/>
@@ -31091,13 +31090,13 @@
         <v>18</v>
       </c>
       <c r="B603" s="12" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="C603" s="12" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D603" s="17" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E603" s="13">
         <v>41312</v>
@@ -31120,10 +31119,10 @@
       </c>
       <c r="L603" s="12"/>
       <c r="M603" s="17" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="N603" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O603" s="14"/>
       <c r="P603" s="14"/>
@@ -31135,13 +31134,13 @@
         <v>18</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D604" s="10" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E604" s="8">
         <v>41956</v>
@@ -31177,13 +31176,13 @@
         <v>18</v>
       </c>
       <c r="B605" s="12" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="C605" s="12" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D605" s="17" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E605" s="13">
         <v>40591</v>
@@ -31204,10 +31203,10 @@
       </c>
       <c r="L605" s="12"/>
       <c r="M605" s="11" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="N605" s="12" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="O605" s="14"/>
       <c r="P605" s="14"/>
@@ -31219,13 +31218,13 @@
         <v>18</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D606" s="10" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E606" s="8">
         <v>41312</v>
@@ -31242,10 +31241,10 @@
       </c>
       <c r="L606" s="7"/>
       <c r="M606" s="6" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="N606" s="7" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="O606" s="9"/>
       <c r="P606" s="9"/>
@@ -31257,13 +31256,13 @@
         <v>18</v>
       </c>
       <c r="B607" s="12" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="C607" s="12" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="D607" s="17" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E607" s="13">
         <v>41312</v>
@@ -31280,10 +31279,10 @@
       </c>
       <c r="L607" s="12"/>
       <c r="M607" s="17" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="N607" s="12" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="O607" s="14"/>
       <c r="P607" s="14"/>
@@ -31295,13 +31294,13 @@
         <v>18</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="D608" s="10" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E608" s="8">
         <v>38391</v>
@@ -31327,7 +31326,7 @@
         <v>45</v>
       </c>
       <c r="N608" s="7" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="O608" s="9"/>
       <c r="P608" s="9"/>
@@ -31339,13 +31338,13 @@
         <v>18</v>
       </c>
       <c r="B609" s="12" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="C609" s="12" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="D609" s="17" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E609" s="13">
         <v>41312</v>
@@ -31368,10 +31367,10 @@
       </c>
       <c r="L609" s="12"/>
       <c r="M609" s="17" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="N609" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O609" s="14"/>
       <c r="P609" s="14"/>
@@ -31383,13 +31382,13 @@
         <v>18</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="D610" s="10" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E610" s="8">
         <v>41956</v>
@@ -31425,13 +31424,13 @@
         <v>18</v>
       </c>
       <c r="B611" s="12" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="C611" s="12" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="D611" s="17" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E611" s="13">
         <v>40591</v>
@@ -31452,7 +31451,7 @@
       </c>
       <c r="L611" s="12"/>
       <c r="M611" s="11" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="N611" s="12"/>
       <c r="O611" s="14"/>
@@ -31465,13 +31464,13 @@
         <v>18</v>
       </c>
       <c r="B612" s="7" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="D612" s="10" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E612" s="8">
         <v>41312</v>
@@ -31488,7 +31487,7 @@
       </c>
       <c r="L612" s="7"/>
       <c r="M612" s="6" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="N612" s="7"/>
       <c r="O612" s="9"/>
@@ -31501,13 +31500,13 @@
         <v>18</v>
       </c>
       <c r="B613" s="12" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="C613" s="12" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="D613" s="17" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="E613" s="13">
         <v>41312</v>
@@ -31524,10 +31523,10 @@
       </c>
       <c r="L613" s="12"/>
       <c r="M613" s="17" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="N613" s="12" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="O613" s="14"/>
       <c r="P613" s="14"/>
@@ -31539,13 +31538,13 @@
         <v>18</v>
       </c>
       <c r="B614" s="7" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="D614" s="6" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="E614" s="8">
         <v>38391</v>
@@ -31577,13 +31576,13 @@
         <v>18</v>
       </c>
       <c r="B615" s="12" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="C615" s="12" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="D615" s="11" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="E615" s="13">
         <v>38391</v>
@@ -31615,13 +31614,13 @@
         <v>18</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="D616" s="6" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="E616" s="8">
         <v>39918</v>
@@ -31636,10 +31635,10 @@
       </c>
       <c r="L616" s="7"/>
       <c r="M616" s="6" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="N616" s="7" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="O616" s="9"/>
       <c r="P616" s="9"/>
@@ -31651,13 +31650,13 @@
         <v>18</v>
       </c>
       <c r="B617" s="12" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="C617" s="12" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="D617" s="11" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="E617" s="13">
         <v>41990</v>
@@ -31682,7 +31681,7 @@
       </c>
       <c r="L617" s="12"/>
       <c r="M617" s="11" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="N617" s="12" t="s">
         <v>591</v>
@@ -31697,13 +31696,13 @@
         <v>18</v>
       </c>
       <c r="B618" s="7" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="D618" s="6" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="E618" s="8">
         <v>43048</v>
@@ -31728,7 +31727,7 @@
       </c>
       <c r="L618" s="7"/>
       <c r="M618" s="10" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="N618" s="7" t="s">
         <v>591</v>
@@ -31743,13 +31742,13 @@
         <v>18</v>
       </c>
       <c r="B619" s="12" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="C619" s="12" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="D619" s="11" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="E619" s="13">
         <v>43503</v>
@@ -31774,10 +31773,10 @@
       </c>
       <c r="L619" s="12"/>
       <c r="M619" s="17" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="N619" s="12" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="O619" s="14"/>
       <c r="P619" s="14"/>
@@ -31789,13 +31788,13 @@
         <v>30</v>
       </c>
       <c r="B620" s="15" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="D620" s="6" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="E620" s="8">
         <v>43867</v>
@@ -31820,13 +31819,13 @@
         <v>11</v>
       </c>
       <c r="M620" s="10" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="N620" s="15" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="O620" s="16" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="P620" s="16" t="s">
         <v>34</v>
@@ -31839,13 +31838,13 @@
         <v>139</v>
       </c>
       <c r="B621" s="18" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="C621" s="12" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="D621" s="11" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="E621" s="13">
         <v>45636</v>
@@ -31868,10 +31867,10 @@
         <v>11</v>
       </c>
       <c r="M621" s="11" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="N621" s="18" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="O621" s="14"/>
       <c r="P621" s="14"/>
@@ -31883,13 +31882,13 @@
         <v>18</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D622" s="6" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="E622" s="8">
         <v>38391</v>
@@ -31906,7 +31905,7 @@
       </c>
       <c r="L622" s="7"/>
       <c r="M622" s="10" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="N622" s="7"/>
       <c r="O622" s="9"/>
@@ -31919,13 +31918,13 @@
         <v>18</v>
       </c>
       <c r="B623" s="12" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="C623" s="12" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D623" s="11" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="E623" s="13">
         <v>38931</v>
@@ -31961,13 +31960,13 @@
         <v>18</v>
       </c>
       <c r="B624" s="7" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="E624" s="8">
         <v>39533</v>
@@ -31982,7 +31981,7 @@
       </c>
       <c r="L624" s="7"/>
       <c r="M624" s="6" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="N624" s="7"/>
       <c r="O624" s="9"/>
@@ -31995,13 +31994,13 @@
         <v>18</v>
       </c>
       <c r="B625" s="12" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="C625" s="12" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D625" s="11" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="E625" s="13">
         <v>40395</v>
@@ -32039,13 +32038,13 @@
         <v>18</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="E626" s="8">
         <v>41038</v>
@@ -32068,7 +32067,7 @@
       </c>
       <c r="L626" s="7"/>
       <c r="M626" s="6" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="N626" s="7" t="s">
         <v>48</v>
@@ -32083,13 +32082,13 @@
         <v>18</v>
       </c>
       <c r="B627" s="12" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="C627" s="12" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D627" s="11" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="E627" s="13">
         <v>41676</v>
@@ -32112,10 +32111,10 @@
       </c>
       <c r="L627" s="12"/>
       <c r="M627" s="11" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="N627" s="12" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="O627" s="14"/>
       <c r="P627" s="14"/>
@@ -32127,13 +32126,13 @@
         <v>18</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D628" s="6" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="E628" s="8">
         <v>41676</v>
@@ -32159,7 +32158,7 @@
         <v>477</v>
       </c>
       <c r="N628" s="7" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="O628" s="9"/>
       <c r="P628" s="9"/>
@@ -32171,13 +32170,13 @@
         <v>18</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="C629" s="12" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D629" s="11" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="E629" s="13">
         <v>42957</v>
@@ -32200,10 +32199,10 @@
       </c>
       <c r="L629" s="12"/>
       <c r="M629" s="17" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="N629" s="12" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="O629" s="14"/>
       <c r="P629" s="14"/>
@@ -32215,13 +32214,13 @@
         <v>30</v>
       </c>
       <c r="B630" s="15" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D630" s="6" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="E630" s="8">
         <v>43328</v>
@@ -32244,7 +32243,7 @@
         <v>11</v>
       </c>
       <c r="M630" s="6" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="N630" s="15" t="s">
         <v>68</v>
@@ -32261,13 +32260,13 @@
         <v>18</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="C631" s="12" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D631" s="11" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="E631" s="13">
         <v>43594</v>
@@ -32284,7 +32283,7 @@
       </c>
       <c r="L631" s="12"/>
       <c r="M631" s="17" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="N631" s="12" t="s">
         <v>690</v>
@@ -32299,13 +32298,13 @@
         <v>18</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="D632" s="6" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="E632" s="8">
         <v>38931</v>
@@ -32341,13 +32340,13 @@
         <v>18</v>
       </c>
       <c r="B633" s="12" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="C633" s="12" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="D633" s="11" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="E633" s="13">
         <v>39750</v>
@@ -32383,13 +32382,13 @@
         <v>18</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="D634" s="6" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="E634" s="8">
         <v>39854</v>
@@ -32412,10 +32411,10 @@
       </c>
       <c r="L634" s="7"/>
       <c r="M634" s="6" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="N634" s="7" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="O634" s="9"/>
       <c r="P634" s="9"/>
@@ -32427,13 +32426,13 @@
         <v>18</v>
       </c>
       <c r="B635" s="12" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="C635" s="12" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="D635" s="11" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="E635" s="13">
         <v>39295</v>
@@ -32456,7 +32455,7 @@
       </c>
       <c r="L635" s="12"/>
       <c r="M635" s="11" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="N635" s="12"/>
       <c r="O635" s="14"/>
@@ -32469,13 +32468,13 @@
         <v>18</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="D636" s="6" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="E636" s="8">
         <v>41137</v>
@@ -32498,10 +32497,10 @@
       </c>
       <c r="L636" s="7"/>
       <c r="M636" s="6" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="N636" s="7" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="O636" s="9"/>
       <c r="P636" s="9"/>
@@ -32513,13 +32512,13 @@
         <v>18</v>
       </c>
       <c r="B637" s="12" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="C637" s="12" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="D637" s="11" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="E637" s="13">
         <v>41765</v>
@@ -32542,10 +32541,10 @@
       </c>
       <c r="L637" s="12"/>
       <c r="M637" s="11" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="N637" s="12" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="O637" s="14"/>
       <c r="P637" s="14"/>
@@ -32557,13 +32556,13 @@
         <v>18</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="D638" s="6" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="E638" s="8">
         <v>41956</v>
@@ -32586,10 +32585,10 @@
       </c>
       <c r="L638" s="7"/>
       <c r="M638" s="6" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="N638" s="7" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="O638" s="9"/>
       <c r="P638" s="9"/>
@@ -32601,13 +32600,13 @@
         <v>30</v>
       </c>
       <c r="B639" s="18" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
       <c r="C639" s="12" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="D639" s="11" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="E639" s="13">
         <v>42957</v>
@@ -32630,10 +32629,10 @@
         <v>11</v>
       </c>
       <c r="M639" s="17" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="N639" s="18" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="O639" s="14"/>
       <c r="P639" s="19" t="s">
@@ -32647,13 +32646,13 @@
         <v>18</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="E640" s="8">
         <v>39750</v>
@@ -32691,13 +32690,13 @@
         <v>18</v>
       </c>
       <c r="B641" s="12" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="C641" s="12" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="D641" s="11" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="E641" s="13">
         <v>41956</v>
@@ -32720,7 +32719,7 @@
       </c>
       <c r="L641" s="12"/>
       <c r="M641" s="11" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="N641" s="12" t="s">
         <v>68</v>
@@ -32735,13 +32734,13 @@
         <v>18</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="D642" s="6" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="E642" s="8">
         <v>39750</v>
@@ -32779,13 +32778,13 @@
         <v>18</v>
       </c>
       <c r="B643" s="12" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="C643" s="12" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="D643" s="11" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
       <c r="E643" s="13">
         <v>41956</v>
@@ -32808,7 +32807,7 @@
       </c>
       <c r="L643" s="12"/>
       <c r="M643" s="11" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
       <c r="N643" s="12" t="s">
         <v>68</v>
@@ -32823,13 +32822,13 @@
         <v>18</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="D644" s="6" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="E644" s="8">
         <v>42775</v>
@@ -32852,10 +32851,10 @@
       </c>
       <c r="L644" s="7"/>
       <c r="M644" s="10" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="N644" s="7" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="O644" s="9"/>
       <c r="P644" s="9"/>
@@ -32867,13 +32866,13 @@
         <v>18</v>
       </c>
       <c r="B645" s="12" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="C645" s="12" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="D645" s="11" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="E645" s="13">
         <v>42957</v>
@@ -32896,7 +32895,7 @@
       </c>
       <c r="L645" s="12"/>
       <c r="M645" s="11" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="N645" s="12" t="s">
         <v>68</v>
@@ -32911,13 +32910,13 @@
         <v>30</v>
       </c>
       <c r="B646" s="15" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="D646" s="6" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="E646" s="8">
         <v>45272</v>
@@ -32936,9 +32935,11 @@
       </c>
       <c r="J646" s="9"/>
       <c r="K646" s="8"/>
-      <c r="L646" s="7"/>
+      <c r="L646" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="M646" s="6" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
       <c r="N646" s="15" t="s">
         <v>68</v>
@@ -32953,13 +32954,13 @@
         <v>18</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="C647" s="12" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="D647" s="17" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="E647" s="13">
         <v>39153</v>
@@ -32982,7 +32983,7 @@
       </c>
       <c r="L647" s="12"/>
       <c r="M647" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N647" s="12"/>
       <c r="O647" s="14"/>
@@ -32995,13 +32996,13 @@
         <v>18</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="D648" s="10" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="E648" s="8">
         <v>39153</v>
@@ -33024,7 +33025,7 @@
       </c>
       <c r="L648" s="7"/>
       <c r="M648" s="6" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N648" s="7"/>
       <c r="O648" s="9"/>
@@ -33268,242 +33269,247 @@
     <hyperlink ref="L277" r:id="rId231"/>
     <hyperlink ref="N277" r:id="rId232"/>
     <hyperlink ref="P277" r:id="rId233"/>
-    <hyperlink ref="B285" r:id="rId234"/>
-    <hyperlink ref="L285" r:id="rId235"/>
-    <hyperlink ref="N285" r:id="rId236"/>
-    <hyperlink ref="P285" r:id="rId237"/>
-    <hyperlink ref="B296" r:id="rId238"/>
-    <hyperlink ref="L296" r:id="rId239"/>
-    <hyperlink ref="N296" r:id="rId240"/>
-    <hyperlink ref="O296" r:id="rId241"/>
-    <hyperlink ref="P296" r:id="rId242"/>
-    <hyperlink ref="B304" r:id="rId243"/>
-    <hyperlink ref="L304" r:id="rId244"/>
-    <hyperlink ref="N304" r:id="rId245"/>
-    <hyperlink ref="P304" r:id="rId246"/>
-    <hyperlink ref="B326" r:id="rId247"/>
-    <hyperlink ref="L326" r:id="rId248"/>
-    <hyperlink ref="N326" r:id="rId249"/>
-    <hyperlink ref="P326" r:id="rId250"/>
-    <hyperlink ref="B328" r:id="rId251"/>
-    <hyperlink ref="L328" r:id="rId252"/>
-    <hyperlink ref="N328" r:id="rId253"/>
-    <hyperlink ref="O328" r:id="rId254"/>
-    <hyperlink ref="P328" r:id="rId255"/>
-    <hyperlink ref="B332" r:id="rId256"/>
-    <hyperlink ref="L332" r:id="rId257"/>
-    <hyperlink ref="N332" r:id="rId258"/>
-    <hyperlink ref="B335" r:id="rId259"/>
-    <hyperlink ref="L335" r:id="rId260"/>
-    <hyperlink ref="N335" r:id="rId261"/>
-    <hyperlink ref="O335" r:id="rId262"/>
-    <hyperlink ref="P335" r:id="rId263"/>
-    <hyperlink ref="B337" r:id="rId264"/>
-    <hyperlink ref="L337" r:id="rId265"/>
-    <hyperlink ref="N337" r:id="rId266"/>
-    <hyperlink ref="O337" r:id="rId267"/>
-    <hyperlink ref="P337" r:id="rId268"/>
-    <hyperlink ref="B343" r:id="rId269"/>
-    <hyperlink ref="L343" r:id="rId270"/>
-    <hyperlink ref="N343" r:id="rId271"/>
-    <hyperlink ref="P343" r:id="rId272"/>
-    <hyperlink ref="B344" r:id="rId273"/>
-    <hyperlink ref="L344" r:id="rId274"/>
-    <hyperlink ref="N344" r:id="rId275"/>
-    <hyperlink ref="B347" r:id="rId276"/>
-    <hyperlink ref="L347" r:id="rId277"/>
-    <hyperlink ref="N347" r:id="rId278"/>
-    <hyperlink ref="O347" r:id="rId279"/>
-    <hyperlink ref="P347" r:id="rId280"/>
-    <hyperlink ref="B350" r:id="rId281"/>
-    <hyperlink ref="L350" r:id="rId282"/>
-    <hyperlink ref="N350" r:id="rId283"/>
-    <hyperlink ref="O350" r:id="rId284"/>
-    <hyperlink ref="P350" r:id="rId285"/>
-    <hyperlink ref="B352" r:id="rId286"/>
-    <hyperlink ref="L352" r:id="rId287"/>
-    <hyperlink ref="N352" r:id="rId288"/>
-    <hyperlink ref="O352" r:id="rId289"/>
-    <hyperlink ref="P352" r:id="rId290"/>
-    <hyperlink ref="R352" r:id="rId291"/>
-    <hyperlink ref="B391" r:id="rId292"/>
-    <hyperlink ref="L391" r:id="rId293"/>
-    <hyperlink ref="N391" r:id="rId294"/>
-    <hyperlink ref="P391" r:id="rId295"/>
-    <hyperlink ref="B393" r:id="rId296"/>
-    <hyperlink ref="L393" r:id="rId297"/>
-    <hyperlink ref="N393" r:id="rId298"/>
-    <hyperlink ref="P393" r:id="rId299"/>
-    <hyperlink ref="B394" r:id="rId300"/>
-    <hyperlink ref="L394" r:id="rId301"/>
-    <hyperlink ref="N394" r:id="rId302"/>
-    <hyperlink ref="B395" r:id="rId303"/>
-    <hyperlink ref="L395" r:id="rId304"/>
-    <hyperlink ref="N395" r:id="rId305"/>
-    <hyperlink ref="P395" r:id="rId306"/>
-    <hyperlink ref="B406" r:id="rId307"/>
-    <hyperlink ref="L406" r:id="rId308"/>
-    <hyperlink ref="N406" r:id="rId309"/>
-    <hyperlink ref="P406" r:id="rId310"/>
-    <hyperlink ref="B407" r:id="rId311"/>
-    <hyperlink ref="L407" r:id="rId312"/>
-    <hyperlink ref="N407" r:id="rId313"/>
-    <hyperlink ref="P407" r:id="rId314"/>
-    <hyperlink ref="B408" r:id="rId315"/>
-    <hyperlink ref="L408" r:id="rId316"/>
-    <hyperlink ref="N408" r:id="rId317"/>
-    <hyperlink ref="B410" r:id="rId318"/>
-    <hyperlink ref="L410" r:id="rId319"/>
-    <hyperlink ref="N410" r:id="rId320"/>
-    <hyperlink ref="P410" r:id="rId321"/>
-    <hyperlink ref="B411" r:id="rId322"/>
-    <hyperlink ref="L411" r:id="rId323"/>
-    <hyperlink ref="N411" r:id="rId324"/>
-    <hyperlink ref="B417" r:id="rId325"/>
-    <hyperlink ref="L417" r:id="rId326"/>
-    <hyperlink ref="N417" r:id="rId327"/>
-    <hyperlink ref="P417" r:id="rId328"/>
-    <hyperlink ref="B424" r:id="rId329"/>
-    <hyperlink ref="L424" r:id="rId330"/>
-    <hyperlink ref="N424" r:id="rId331"/>
-    <hyperlink ref="P424" r:id="rId332"/>
-    <hyperlink ref="B429" r:id="rId333"/>
-    <hyperlink ref="L429" r:id="rId334"/>
-    <hyperlink ref="N429" r:id="rId335"/>
-    <hyperlink ref="P429" r:id="rId336"/>
-    <hyperlink ref="B430" r:id="rId337"/>
-    <hyperlink ref="L430" r:id="rId338"/>
-    <hyperlink ref="N430" r:id="rId339"/>
-    <hyperlink ref="P430" r:id="rId340"/>
-    <hyperlink ref="B442" r:id="rId341"/>
-    <hyperlink ref="L442" r:id="rId342"/>
-    <hyperlink ref="N442" r:id="rId343"/>
-    <hyperlink ref="B459" r:id="rId344"/>
-    <hyperlink ref="L459" r:id="rId345"/>
-    <hyperlink ref="N459" r:id="rId346"/>
-    <hyperlink ref="P459" r:id="rId347"/>
-    <hyperlink ref="N464" r:id="rId348"/>
-    <hyperlink ref="B475" r:id="rId349"/>
-    <hyperlink ref="L475" r:id="rId350"/>
-    <hyperlink ref="N475" r:id="rId351"/>
-    <hyperlink ref="P475" r:id="rId352"/>
-    <hyperlink ref="R475" r:id="rId353"/>
-    <hyperlink ref="B481" r:id="rId354"/>
-    <hyperlink ref="L481" r:id="rId355"/>
-    <hyperlink ref="N481" r:id="rId356"/>
-    <hyperlink ref="P481" r:id="rId357"/>
-    <hyperlink ref="B483" r:id="rId358"/>
-    <hyperlink ref="L483" r:id="rId359"/>
-    <hyperlink ref="N483" r:id="rId360"/>
-    <hyperlink ref="B486" r:id="rId361"/>
-    <hyperlink ref="N486" r:id="rId362"/>
-    <hyperlink ref="B489" r:id="rId363"/>
-    <hyperlink ref="L489" r:id="rId364"/>
-    <hyperlink ref="N489" r:id="rId365"/>
-    <hyperlink ref="P489" r:id="rId366"/>
-    <hyperlink ref="B493" r:id="rId367"/>
-    <hyperlink ref="L493" r:id="rId368"/>
-    <hyperlink ref="N493" r:id="rId369"/>
-    <hyperlink ref="P493" r:id="rId370"/>
-    <hyperlink ref="B494" r:id="rId371"/>
-    <hyperlink ref="L494" r:id="rId372"/>
-    <hyperlink ref="N494" r:id="rId373"/>
-    <hyperlink ref="P494" r:id="rId374"/>
-    <hyperlink ref="B497" r:id="rId375"/>
-    <hyperlink ref="L497" r:id="rId376"/>
-    <hyperlink ref="N497" r:id="rId377"/>
-    <hyperlink ref="P497" r:id="rId378"/>
-    <hyperlink ref="B508" r:id="rId379"/>
-    <hyperlink ref="L508" r:id="rId380"/>
-    <hyperlink ref="N508" r:id="rId381"/>
-    <hyperlink ref="P508" r:id="rId382"/>
-    <hyperlink ref="B511" r:id="rId383"/>
-    <hyperlink ref="L511" r:id="rId384"/>
-    <hyperlink ref="N511" r:id="rId385"/>
-    <hyperlink ref="P511" r:id="rId386"/>
-    <hyperlink ref="R511" r:id="rId387"/>
-    <hyperlink ref="B522" r:id="rId388"/>
-    <hyperlink ref="L522" r:id="rId389"/>
-    <hyperlink ref="N522" r:id="rId390"/>
-    <hyperlink ref="O522" r:id="rId391"/>
-    <hyperlink ref="P522" r:id="rId392"/>
-    <hyperlink ref="R522" r:id="rId393"/>
-    <hyperlink ref="B525" r:id="rId394"/>
-    <hyperlink ref="L525" r:id="rId395"/>
-    <hyperlink ref="N525" r:id="rId396"/>
-    <hyperlink ref="P525" r:id="rId397"/>
-    <hyperlink ref="B526" r:id="rId398"/>
-    <hyperlink ref="L526" r:id="rId399"/>
-    <hyperlink ref="N526" r:id="rId400"/>
-    <hyperlink ref="B528" r:id="rId401"/>
-    <hyperlink ref="L528" r:id="rId402"/>
-    <hyperlink ref="N528" r:id="rId403"/>
-    <hyperlink ref="P528" r:id="rId404"/>
-    <hyperlink ref="B530" r:id="rId405"/>
-    <hyperlink ref="L530" r:id="rId406"/>
-    <hyperlink ref="N530" r:id="rId407"/>
-    <hyperlink ref="P530" r:id="rId408"/>
-    <hyperlink ref="B531" r:id="rId409"/>
-    <hyperlink ref="L531" r:id="rId410"/>
-    <hyperlink ref="N531" r:id="rId411"/>
-    <hyperlink ref="P531" r:id="rId412"/>
-    <hyperlink ref="B532" r:id="rId413"/>
-    <hyperlink ref="L532" r:id="rId414"/>
-    <hyperlink ref="N532" r:id="rId415"/>
-    <hyperlink ref="B533" r:id="rId416"/>
-    <hyperlink ref="L533" r:id="rId417"/>
-    <hyperlink ref="N533" r:id="rId418"/>
-    <hyperlink ref="B534" r:id="rId419"/>
-    <hyperlink ref="L534" r:id="rId420"/>
-    <hyperlink ref="N534" r:id="rId421"/>
-    <hyperlink ref="B545" r:id="rId422"/>
-    <hyperlink ref="L545" r:id="rId423"/>
-    <hyperlink ref="N545" r:id="rId424"/>
-    <hyperlink ref="O545" r:id="rId425"/>
-    <hyperlink ref="P545" r:id="rId426"/>
-    <hyperlink ref="N553" r:id="rId427"/>
-    <hyperlink ref="B554" r:id="rId428"/>
-    <hyperlink ref="L554" r:id="rId429"/>
-    <hyperlink ref="N554" r:id="rId430"/>
-    <hyperlink ref="P554" r:id="rId431"/>
-    <hyperlink ref="B561" r:id="rId432"/>
-    <hyperlink ref="L561" r:id="rId433"/>
-    <hyperlink ref="N561" r:id="rId434"/>
-    <hyperlink ref="P561" r:id="rId435"/>
-    <hyperlink ref="B562" r:id="rId436"/>
-    <hyperlink ref="L562" r:id="rId437"/>
-    <hyperlink ref="N562" r:id="rId438"/>
-    <hyperlink ref="B563" r:id="rId439"/>
-    <hyperlink ref="L563" r:id="rId440"/>
-    <hyperlink ref="N563" r:id="rId441"/>
-    <hyperlink ref="B584" r:id="rId442"/>
-    <hyperlink ref="L584" r:id="rId443"/>
-    <hyperlink ref="N584" r:id="rId444"/>
-    <hyperlink ref="P584" r:id="rId445"/>
-    <hyperlink ref="R584" r:id="rId446"/>
-    <hyperlink ref="B594" r:id="rId447"/>
-    <hyperlink ref="L594" r:id="rId448"/>
-    <hyperlink ref="N594" r:id="rId449"/>
-    <hyperlink ref="O594" r:id="rId450"/>
-    <hyperlink ref="P594" r:id="rId451"/>
-    <hyperlink ref="B620" r:id="rId452"/>
-    <hyperlink ref="L620" r:id="rId453"/>
-    <hyperlink ref="N620" r:id="rId454"/>
-    <hyperlink ref="O620" r:id="rId455"/>
-    <hyperlink ref="P620" r:id="rId456"/>
-    <hyperlink ref="B621" r:id="rId457"/>
-    <hyperlink ref="L621" r:id="rId458"/>
-    <hyperlink ref="N621" r:id="rId459"/>
-    <hyperlink ref="B630" r:id="rId460"/>
-    <hyperlink ref="L630" r:id="rId461"/>
-    <hyperlink ref="N630" r:id="rId462"/>
-    <hyperlink ref="P630" r:id="rId463"/>
-    <hyperlink ref="B639" r:id="rId464"/>
-    <hyperlink ref="L639" r:id="rId465"/>
-    <hyperlink ref="N639" r:id="rId466"/>
-    <hyperlink ref="P639" r:id="rId467"/>
-    <hyperlink ref="B646" r:id="rId468"/>
-    <hyperlink ref="N646" r:id="rId469"/>
+    <hyperlink ref="Q277" r:id="rId234"/>
+    <hyperlink ref="B285" r:id="rId235"/>
+    <hyperlink ref="L285" r:id="rId236"/>
+    <hyperlink ref="N285" r:id="rId237"/>
+    <hyperlink ref="P285" r:id="rId238"/>
+    <hyperlink ref="Q285" r:id="rId239"/>
+    <hyperlink ref="B296" r:id="rId240"/>
+    <hyperlink ref="L296" r:id="rId241"/>
+    <hyperlink ref="N296" r:id="rId242"/>
+    <hyperlink ref="O296" r:id="rId243"/>
+    <hyperlink ref="P296" r:id="rId244"/>
+    <hyperlink ref="B304" r:id="rId245"/>
+    <hyperlink ref="L304" r:id="rId246"/>
+    <hyperlink ref="N304" r:id="rId247"/>
+    <hyperlink ref="P304" r:id="rId248"/>
+    <hyperlink ref="Q304" r:id="rId249"/>
+    <hyperlink ref="B326" r:id="rId250"/>
+    <hyperlink ref="L326" r:id="rId251"/>
+    <hyperlink ref="N326" r:id="rId252"/>
+    <hyperlink ref="P326" r:id="rId253"/>
+    <hyperlink ref="B328" r:id="rId254"/>
+    <hyperlink ref="L328" r:id="rId255"/>
+    <hyperlink ref="N328" r:id="rId256"/>
+    <hyperlink ref="O328" r:id="rId257"/>
+    <hyperlink ref="P328" r:id="rId258"/>
+    <hyperlink ref="B332" r:id="rId259"/>
+    <hyperlink ref="L332" r:id="rId260"/>
+    <hyperlink ref="N332" r:id="rId261"/>
+    <hyperlink ref="B335" r:id="rId262"/>
+    <hyperlink ref="L335" r:id="rId263"/>
+    <hyperlink ref="N335" r:id="rId264"/>
+    <hyperlink ref="O335" r:id="rId265"/>
+    <hyperlink ref="P335" r:id="rId266"/>
+    <hyperlink ref="B337" r:id="rId267"/>
+    <hyperlink ref="L337" r:id="rId268"/>
+    <hyperlink ref="N337" r:id="rId269"/>
+    <hyperlink ref="O337" r:id="rId270"/>
+    <hyperlink ref="P337" r:id="rId271"/>
+    <hyperlink ref="B343" r:id="rId272"/>
+    <hyperlink ref="L343" r:id="rId273"/>
+    <hyperlink ref="N343" r:id="rId274"/>
+    <hyperlink ref="P343" r:id="rId275"/>
+    <hyperlink ref="B344" r:id="rId276"/>
+    <hyperlink ref="L344" r:id="rId277"/>
+    <hyperlink ref="N344" r:id="rId278"/>
+    <hyperlink ref="B347" r:id="rId279"/>
+    <hyperlink ref="L347" r:id="rId280"/>
+    <hyperlink ref="N347" r:id="rId281"/>
+    <hyperlink ref="O347" r:id="rId282"/>
+    <hyperlink ref="P347" r:id="rId283"/>
+    <hyperlink ref="B350" r:id="rId284"/>
+    <hyperlink ref="L350" r:id="rId285"/>
+    <hyperlink ref="N350" r:id="rId286"/>
+    <hyperlink ref="O350" r:id="rId287"/>
+    <hyperlink ref="P350" r:id="rId288"/>
+    <hyperlink ref="B352" r:id="rId289"/>
+    <hyperlink ref="L352" r:id="rId290"/>
+    <hyperlink ref="N352" r:id="rId291"/>
+    <hyperlink ref="P352" r:id="rId292"/>
+    <hyperlink ref="Q352" r:id="rId293"/>
+    <hyperlink ref="R352" r:id="rId294"/>
+    <hyperlink ref="B391" r:id="rId295"/>
+    <hyperlink ref="L391" r:id="rId296"/>
+    <hyperlink ref="N391" r:id="rId297"/>
+    <hyperlink ref="P391" r:id="rId298"/>
+    <hyperlink ref="B393" r:id="rId299"/>
+    <hyperlink ref="L393" r:id="rId300"/>
+    <hyperlink ref="N393" r:id="rId301"/>
+    <hyperlink ref="P393" r:id="rId302"/>
+    <hyperlink ref="B394" r:id="rId303"/>
+    <hyperlink ref="L394" r:id="rId304"/>
+    <hyperlink ref="N394" r:id="rId305"/>
+    <hyperlink ref="B395" r:id="rId306"/>
+    <hyperlink ref="L395" r:id="rId307"/>
+    <hyperlink ref="N395" r:id="rId308"/>
+    <hyperlink ref="P395" r:id="rId309"/>
+    <hyperlink ref="B406" r:id="rId310"/>
+    <hyperlink ref="L406" r:id="rId311"/>
+    <hyperlink ref="N406" r:id="rId312"/>
+    <hyperlink ref="P406" r:id="rId313"/>
+    <hyperlink ref="B407" r:id="rId314"/>
+    <hyperlink ref="L407" r:id="rId315"/>
+    <hyperlink ref="N407" r:id="rId316"/>
+    <hyperlink ref="P407" r:id="rId317"/>
+    <hyperlink ref="B408" r:id="rId318"/>
+    <hyperlink ref="L408" r:id="rId319"/>
+    <hyperlink ref="N408" r:id="rId320"/>
+    <hyperlink ref="B410" r:id="rId321"/>
+    <hyperlink ref="L410" r:id="rId322"/>
+    <hyperlink ref="N410" r:id="rId323"/>
+    <hyperlink ref="P410" r:id="rId324"/>
+    <hyperlink ref="B411" r:id="rId325"/>
+    <hyperlink ref="L411" r:id="rId326"/>
+    <hyperlink ref="N411" r:id="rId327"/>
+    <hyperlink ref="B417" r:id="rId328"/>
+    <hyperlink ref="L417" r:id="rId329"/>
+    <hyperlink ref="N417" r:id="rId330"/>
+    <hyperlink ref="P417" r:id="rId331"/>
+    <hyperlink ref="B424" r:id="rId332"/>
+    <hyperlink ref="L424" r:id="rId333"/>
+    <hyperlink ref="N424" r:id="rId334"/>
+    <hyperlink ref="P424" r:id="rId335"/>
+    <hyperlink ref="B429" r:id="rId336"/>
+    <hyperlink ref="L429" r:id="rId337"/>
+    <hyperlink ref="N429" r:id="rId338"/>
+    <hyperlink ref="P429" r:id="rId339"/>
+    <hyperlink ref="B430" r:id="rId340"/>
+    <hyperlink ref="L430" r:id="rId341"/>
+    <hyperlink ref="N430" r:id="rId342"/>
+    <hyperlink ref="P430" r:id="rId343"/>
+    <hyperlink ref="B442" r:id="rId344"/>
+    <hyperlink ref="L442" r:id="rId345"/>
+    <hyperlink ref="N442" r:id="rId346"/>
+    <hyperlink ref="B459" r:id="rId347"/>
+    <hyperlink ref="L459" r:id="rId348"/>
+    <hyperlink ref="N459" r:id="rId349"/>
+    <hyperlink ref="P459" r:id="rId350"/>
+    <hyperlink ref="N464" r:id="rId351"/>
+    <hyperlink ref="B475" r:id="rId352"/>
+    <hyperlink ref="L475" r:id="rId353"/>
+    <hyperlink ref="N475" r:id="rId354"/>
+    <hyperlink ref="P475" r:id="rId355"/>
+    <hyperlink ref="R475" r:id="rId356"/>
+    <hyperlink ref="B481" r:id="rId357"/>
+    <hyperlink ref="L481" r:id="rId358"/>
+    <hyperlink ref="N481" r:id="rId359"/>
+    <hyperlink ref="P481" r:id="rId360"/>
+    <hyperlink ref="B483" r:id="rId361"/>
+    <hyperlink ref="L483" r:id="rId362"/>
+    <hyperlink ref="N483" r:id="rId363"/>
+    <hyperlink ref="B486" r:id="rId364"/>
+    <hyperlink ref="L486" r:id="rId365"/>
+    <hyperlink ref="N486" r:id="rId366"/>
+    <hyperlink ref="B489" r:id="rId367"/>
+    <hyperlink ref="L489" r:id="rId368"/>
+    <hyperlink ref="N489" r:id="rId369"/>
+    <hyperlink ref="P489" r:id="rId370"/>
+    <hyperlink ref="B493" r:id="rId371"/>
+    <hyperlink ref="L493" r:id="rId372"/>
+    <hyperlink ref="N493" r:id="rId373"/>
+    <hyperlink ref="P493" r:id="rId374"/>
+    <hyperlink ref="B494" r:id="rId375"/>
+    <hyperlink ref="L494" r:id="rId376"/>
+    <hyperlink ref="N494" r:id="rId377"/>
+    <hyperlink ref="P494" r:id="rId378"/>
+    <hyperlink ref="B497" r:id="rId379"/>
+    <hyperlink ref="L497" r:id="rId380"/>
+    <hyperlink ref="N497" r:id="rId381"/>
+    <hyperlink ref="P497" r:id="rId382"/>
+    <hyperlink ref="B508" r:id="rId383"/>
+    <hyperlink ref="L508" r:id="rId384"/>
+    <hyperlink ref="N508" r:id="rId385"/>
+    <hyperlink ref="P508" r:id="rId386"/>
+    <hyperlink ref="B511" r:id="rId387"/>
+    <hyperlink ref="L511" r:id="rId388"/>
+    <hyperlink ref="N511" r:id="rId389"/>
+    <hyperlink ref="P511" r:id="rId390"/>
+    <hyperlink ref="R511" r:id="rId391"/>
+    <hyperlink ref="B522" r:id="rId392"/>
+    <hyperlink ref="L522" r:id="rId393"/>
+    <hyperlink ref="N522" r:id="rId394"/>
+    <hyperlink ref="O522" r:id="rId395"/>
+    <hyperlink ref="P522" r:id="rId396"/>
+    <hyperlink ref="R522" r:id="rId397"/>
+    <hyperlink ref="B525" r:id="rId398"/>
+    <hyperlink ref="L525" r:id="rId399"/>
+    <hyperlink ref="N525" r:id="rId400"/>
+    <hyperlink ref="P525" r:id="rId401"/>
+    <hyperlink ref="B526" r:id="rId402"/>
+    <hyperlink ref="L526" r:id="rId403"/>
+    <hyperlink ref="N526" r:id="rId404"/>
+    <hyperlink ref="B528" r:id="rId405"/>
+    <hyperlink ref="L528" r:id="rId406"/>
+    <hyperlink ref="N528" r:id="rId407"/>
+    <hyperlink ref="P528" r:id="rId408"/>
+    <hyperlink ref="B530" r:id="rId409"/>
+    <hyperlink ref="L530" r:id="rId410"/>
+    <hyperlink ref="N530" r:id="rId411"/>
+    <hyperlink ref="P530" r:id="rId412"/>
+    <hyperlink ref="B531" r:id="rId413"/>
+    <hyperlink ref="L531" r:id="rId414"/>
+    <hyperlink ref="N531" r:id="rId415"/>
+    <hyperlink ref="P531" r:id="rId416"/>
+    <hyperlink ref="B532" r:id="rId417"/>
+    <hyperlink ref="L532" r:id="rId418"/>
+    <hyperlink ref="N532" r:id="rId419"/>
+    <hyperlink ref="B533" r:id="rId420"/>
+    <hyperlink ref="L533" r:id="rId421"/>
+    <hyperlink ref="N533" r:id="rId422"/>
+    <hyperlink ref="B534" r:id="rId423"/>
+    <hyperlink ref="L534" r:id="rId424"/>
+    <hyperlink ref="N534" r:id="rId425"/>
+    <hyperlink ref="B545" r:id="rId426"/>
+    <hyperlink ref="L545" r:id="rId427"/>
+    <hyperlink ref="N545" r:id="rId428"/>
+    <hyperlink ref="P545" r:id="rId429"/>
+    <hyperlink ref="Q545" r:id="rId430"/>
+    <hyperlink ref="N553" r:id="rId431"/>
+    <hyperlink ref="B554" r:id="rId432"/>
+    <hyperlink ref="L554" r:id="rId433"/>
+    <hyperlink ref="N554" r:id="rId434"/>
+    <hyperlink ref="P554" r:id="rId435"/>
+    <hyperlink ref="B561" r:id="rId436"/>
+    <hyperlink ref="L561" r:id="rId437"/>
+    <hyperlink ref="N561" r:id="rId438"/>
+    <hyperlink ref="P561" r:id="rId439"/>
+    <hyperlink ref="B562" r:id="rId440"/>
+    <hyperlink ref="L562" r:id="rId441"/>
+    <hyperlink ref="N562" r:id="rId442"/>
+    <hyperlink ref="B563" r:id="rId443"/>
+    <hyperlink ref="L563" r:id="rId444"/>
+    <hyperlink ref="N563" r:id="rId445"/>
+    <hyperlink ref="B584" r:id="rId446"/>
+    <hyperlink ref="L584" r:id="rId447"/>
+    <hyperlink ref="N584" r:id="rId448"/>
+    <hyperlink ref="P584" r:id="rId449"/>
+    <hyperlink ref="R584" r:id="rId450"/>
+    <hyperlink ref="B594" r:id="rId451"/>
+    <hyperlink ref="L594" r:id="rId452"/>
+    <hyperlink ref="N594" r:id="rId453"/>
+    <hyperlink ref="O594" r:id="rId454"/>
+    <hyperlink ref="P594" r:id="rId455"/>
+    <hyperlink ref="B620" r:id="rId456"/>
+    <hyperlink ref="L620" r:id="rId457"/>
+    <hyperlink ref="N620" r:id="rId458"/>
+    <hyperlink ref="O620" r:id="rId459"/>
+    <hyperlink ref="P620" r:id="rId460"/>
+    <hyperlink ref="B621" r:id="rId461"/>
+    <hyperlink ref="L621" r:id="rId462"/>
+    <hyperlink ref="N621" r:id="rId463"/>
+    <hyperlink ref="B630" r:id="rId464"/>
+    <hyperlink ref="L630" r:id="rId465"/>
+    <hyperlink ref="N630" r:id="rId466"/>
+    <hyperlink ref="P630" r:id="rId467"/>
+    <hyperlink ref="B639" r:id="rId468"/>
+    <hyperlink ref="L639" r:id="rId469"/>
+    <hyperlink ref="N639" r:id="rId470"/>
+    <hyperlink ref="P639" r:id="rId471"/>
+    <hyperlink ref="B646" r:id="rId472"/>
+    <hyperlink ref="L646" r:id="rId473"/>
+    <hyperlink ref="N646" r:id="rId474"/>
   </hyperlinks>
   <pageSetup paperSize="66" scale="100" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>

--- a/last_snapshot.xlsx
+++ b/last_snapshot.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="1786">
   <si>
     <t>Status</t>
   </si>
@@ -5328,6 +5328,9 @@
   </si>
   <si>
     <t>Project 2023-07</t>
+  </si>
+  <si>
+    <t>Benchmark Weather Event Development and Maintenance ProcessBenchmark Event Data</t>
   </si>
   <si>
     <t>VAR-001-0</t>
@@ -5623,7 +5626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
@@ -5700,6 +5703,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -31872,7 +31881,9 @@
       <c r="N621" s="18" t="s">
         <v>1722</v>
       </c>
-      <c r="O621" s="14"/>
+      <c r="O621" s="27" t="s">
+        <v>1723</v>
+      </c>
       <c r="P621" s="14"/>
       <c r="Q621" s="12"/>
       <c r="R621" s="12"/>
@@ -31882,13 +31893,13 @@
         <v>18</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D622" s="6" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="E622" s="8">
         <v>38391</v>
@@ -31905,7 +31916,7 @@
       </c>
       <c r="L622" s="7"/>
       <c r="M622" s="10" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="N622" s="7"/>
       <c r="O622" s="9"/>
@@ -31918,13 +31929,13 @@
         <v>18</v>
       </c>
       <c r="B623" s="12" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C623" s="12" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D623" s="11" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="E623" s="13">
         <v>38931</v>
@@ -31960,13 +31971,13 @@
         <v>18</v>
       </c>
       <c r="B624" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C624" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D624" s="6" t="s">
         <v>1729</v>
-      </c>
-      <c r="C624" s="7" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D624" s="6" t="s">
-        <v>1728</v>
       </c>
       <c r="E624" s="8">
         <v>39533</v>
@@ -31981,7 +31992,7 @@
       </c>
       <c r="L624" s="7"/>
       <c r="M624" s="6" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="N624" s="7"/>
       <c r="O624" s="9"/>
@@ -31994,13 +32005,13 @@
         <v>18</v>
       </c>
       <c r="B625" s="12" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C625" s="12" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D625" s="11" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="E625" s="13">
         <v>40395</v>
@@ -32038,13 +32049,13 @@
         <v>18</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="E626" s="8">
         <v>41038</v>
@@ -32067,7 +32078,7 @@
       </c>
       <c r="L626" s="7"/>
       <c r="M626" s="6" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="N626" s="7" t="s">
         <v>48</v>
@@ -32082,13 +32093,13 @@
         <v>18</v>
       </c>
       <c r="B627" s="12" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C627" s="12" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D627" s="11" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="E627" s="13">
         <v>41676</v>
@@ -32111,10 +32122,10 @@
       </c>
       <c r="L627" s="12"/>
       <c r="M627" s="11" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="N627" s="12" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="O627" s="14"/>
       <c r="P627" s="14"/>
@@ -32126,13 +32137,13 @@
         <v>18</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D628" s="6" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="E628" s="8">
         <v>41676</v>
@@ -32158,7 +32169,7 @@
         <v>477</v>
       </c>
       <c r="N628" s="7" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="O628" s="9"/>
       <c r="P628" s="9"/>
@@ -32170,13 +32181,13 @@
         <v>18</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C629" s="12" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D629" s="11" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="E629" s="13">
         <v>42957</v>
@@ -32199,10 +32210,10 @@
       </c>
       <c r="L629" s="12"/>
       <c r="M629" s="17" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="N629" s="12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="O629" s="14"/>
       <c r="P629" s="14"/>
@@ -32214,13 +32225,13 @@
         <v>30</v>
       </c>
       <c r="B630" s="15" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D630" s="6" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="E630" s="8">
         <v>43328</v>
@@ -32239,11 +32250,9 @@
       </c>
       <c r="J630" s="9"/>
       <c r="K630" s="8"/>
-      <c r="L630" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="L630" s="7"/>
       <c r="M630" s="6" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="N630" s="15" t="s">
         <v>68</v>
@@ -32260,13 +32269,13 @@
         <v>18</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C631" s="12" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D631" s="11" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="E631" s="13">
         <v>43594</v>
@@ -32283,7 +32292,7 @@
       </c>
       <c r="L631" s="12"/>
       <c r="M631" s="17" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="N631" s="12" t="s">
         <v>690</v>
@@ -32298,13 +32307,13 @@
         <v>18</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D632" s="6" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="E632" s="8">
         <v>38931</v>
@@ -32340,13 +32349,13 @@
         <v>18</v>
       </c>
       <c r="B633" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C633" s="12" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D633" s="11" t="s">
         <v>1749</v>
-      </c>
-      <c r="C633" s="12" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D633" s="11" t="s">
-        <v>1748</v>
       </c>
       <c r="E633" s="13">
         <v>39750</v>
@@ -32382,13 +32391,13 @@
         <v>18</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D634" s="6" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="E634" s="8">
         <v>39854</v>
@@ -32411,10 +32420,10 @@
       </c>
       <c r="L634" s="7"/>
       <c r="M634" s="6" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="N634" s="7" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="O634" s="9"/>
       <c r="P634" s="9"/>
@@ -32426,13 +32435,13 @@
         <v>18</v>
       </c>
       <c r="B635" s="12" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C635" s="12" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D635" s="11" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="E635" s="13">
         <v>39295</v>
@@ -32468,13 +32477,13 @@
         <v>18</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D636" s="6" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="E636" s="8">
         <v>41137</v>
@@ -32497,10 +32506,10 @@
       </c>
       <c r="L636" s="7"/>
       <c r="M636" s="6" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="N636" s="7" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="O636" s="9"/>
       <c r="P636" s="9"/>
@@ -32512,13 +32521,13 @@
         <v>18</v>
       </c>
       <c r="B637" s="12" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C637" s="12" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D637" s="11" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E637" s="13">
         <v>41765</v>
@@ -32541,10 +32550,10 @@
       </c>
       <c r="L637" s="12"/>
       <c r="M637" s="11" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="N637" s="12" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="O637" s="14"/>
       <c r="P637" s="14"/>
@@ -32556,13 +32565,13 @@
         <v>18</v>
       </c>
       <c r="B638" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D638" s="6" t="s">
         <v>1759</v>
-      </c>
-      <c r="C638" s="7" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D638" s="6" t="s">
-        <v>1758</v>
       </c>
       <c r="E638" s="8">
         <v>41956</v>
@@ -32600,13 +32609,13 @@
         <v>30</v>
       </c>
       <c r="B639" s="18" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C639" s="12" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D639" s="11" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E639" s="13">
         <v>42957</v>
@@ -32629,10 +32638,10 @@
         <v>11</v>
       </c>
       <c r="M639" s="17" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="N639" s="18" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="O639" s="14"/>
       <c r="P639" s="19" t="s">
@@ -32646,13 +32655,13 @@
         <v>18</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="E640" s="8">
         <v>39750</v>
@@ -32690,13 +32699,13 @@
         <v>18</v>
       </c>
       <c r="B641" s="12" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C641" s="12" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D641" s="11" t="s">
         <v>1765</v>
-      </c>
-      <c r="C641" s="12" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D641" s="11" t="s">
-        <v>1764</v>
       </c>
       <c r="E641" s="13">
         <v>41956</v>
@@ -32719,7 +32728,7 @@
       </c>
       <c r="L641" s="12"/>
       <c r="M641" s="11" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="N641" s="12" t="s">
         <v>68</v>
@@ -32734,13 +32743,13 @@
         <v>18</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D642" s="6" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="E642" s="8">
         <v>39750</v>
@@ -32778,13 +32787,13 @@
         <v>18</v>
       </c>
       <c r="B643" s="12" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C643" s="12" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D643" s="11" t="s">
         <v>1770</v>
-      </c>
-      <c r="C643" s="12" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D643" s="11" t="s">
-        <v>1769</v>
       </c>
       <c r="E643" s="13">
         <v>41956</v>
@@ -32807,7 +32816,7 @@
       </c>
       <c r="L643" s="12"/>
       <c r="M643" s="11" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="N643" s="12" t="s">
         <v>68</v>
@@ -32822,13 +32831,13 @@
         <v>18</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D644" s="6" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E644" s="8">
         <v>42775</v>
@@ -32851,10 +32860,10 @@
       </c>
       <c r="L644" s="7"/>
       <c r="M644" s="10" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="N644" s="7" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="O644" s="9"/>
       <c r="P644" s="9"/>
@@ -32866,13 +32875,13 @@
         <v>18</v>
       </c>
       <c r="B645" s="12" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C645" s="12" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D645" s="11" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E645" s="13">
         <v>42957</v>
@@ -32895,7 +32904,7 @@
       </c>
       <c r="L645" s="12"/>
       <c r="M645" s="11" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="N645" s="12" t="s">
         <v>68</v>
@@ -32910,13 +32919,13 @@
         <v>30</v>
       </c>
       <c r="B646" s="15" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D646" s="6" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E646" s="8">
         <v>45272</v>
@@ -32939,7 +32948,7 @@
         <v>11</v>
       </c>
       <c r="M646" s="6" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="N646" s="15" t="s">
         <v>68</v>
@@ -32954,13 +32963,13 @@
         <v>18</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C647" s="12" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D647" s="17" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="E647" s="13">
         <v>39153</v>
@@ -32996,13 +33005,13 @@
         <v>18</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D648" s="10" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="E648" s="8">
         <v>39153</v>
@@ -33499,8 +33508,8 @@
     <hyperlink ref="B621" r:id="rId461"/>
     <hyperlink ref="L621" r:id="rId462"/>
     <hyperlink ref="N621" r:id="rId463"/>
-    <hyperlink ref="B630" r:id="rId464"/>
-    <hyperlink ref="L630" r:id="rId465"/>
+    <hyperlink ref="O621" r:id="rId464"/>
+    <hyperlink ref="B630" r:id="rId465"/>
     <hyperlink ref="N630" r:id="rId466"/>
     <hyperlink ref="P630" r:id="rId467"/>
     <hyperlink ref="B639" r:id="rId468"/>

--- a/last_snapshot.xlsx
+++ b/last_snapshot.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="1776">
   <si>
     <t>Status</t>
   </si>
@@ -160,6 +160,9 @@
     <t>Project 2010-12</t>
   </si>
   <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
     <t>BAL-002-1a</t>
   </si>
   <si>
@@ -378,9 +381,6 @@
   </si>
   <si>
     <t>BAL-005-0a</t>
-  </si>
-  <si>
-    <t>Withdrawn</t>
   </si>
   <si>
     <t>BAL-005-0b</t>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="116.7927" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="12" t="s">
         <v>49</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>43</v>
@@ -6175,15 +6175,19 @@
       <c r="K11" s="13">
         <v>42783</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="M11" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>48</v>
       </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
     </row>
@@ -6192,13 +6196,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="8">
         <v>42313</v>
@@ -6219,7 +6223,7 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>29</v>
@@ -6234,13 +6238,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="13">
         <v>42957</v>
@@ -6263,7 +6267,7 @@
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="14"/>
@@ -6276,13 +6280,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="8">
         <v>43328</v>
@@ -6305,10 +6309,10 @@
         <v>11</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="16" t="s">
@@ -6324,13 +6328,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="13">
         <v>39750</v>
@@ -6347,7 +6351,7 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="14"/>
@@ -6360,13 +6364,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="8">
         <v>41220</v>
@@ -6389,10 +6393,10 @@
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -6404,13 +6408,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="13">
         <v>42676</v>
@@ -6433,10 +6437,10 @@
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -6448,13 +6452,13 @@
         <v>30</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="8">
         <v>43692</v>
@@ -6477,10 +6481,10 @@
         <v>11</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -6492,13 +6496,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="13">
         <v>38391</v>
@@ -6521,7 +6525,7 @@
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="14"/>
@@ -6534,13 +6538,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="8">
         <v>39750</v>
@@ -6576,13 +6580,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="13">
         <v>39750</v>
@@ -6618,13 +6622,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="8">
         <v>39378</v>
@@ -6647,7 +6651,7 @@
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="9"/>
@@ -6660,13 +6664,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="13">
         <v>39490</v>
@@ -6687,7 +6691,7 @@
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="14"/>
@@ -6700,13 +6704,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" s="8">
         <v>41312</v>
@@ -6724,14 +6728,14 @@
         <v>42095</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24" s="8">
         <v>42320</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="9"/>
@@ -6744,13 +6748,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="13">
         <v>41312</v>
@@ -6768,17 +6772,17 @@
         <v>42321</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="13">
         <v>44165</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
@@ -6790,13 +6794,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" s="8">
         <v>43774</v>
@@ -6819,10 +6823,10 @@
         <v>11</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="16" t="s">
@@ -6836,13 +6840,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" s="13">
         <v>38391</v>
@@ -6865,10 +6869,10 @@
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
@@ -6880,13 +6884,13 @@
         <v>18</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" s="8">
         <v>39533</v>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="9"/>
@@ -6916,13 +6920,13 @@
         <v>18</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="13">
         <v>39533</v>
@@ -6945,10 +6949,10 @@
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
@@ -6960,13 +6964,13 @@
         <v>18</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" s="8">
         <v>41262</v>
@@ -6989,10 +6993,10 @@
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -7004,13 +7008,13 @@
         <v>18</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E31" s="13">
         <v>43139</v>
@@ -7033,10 +7037,10 @@
       </c>
       <c r="L31" s="12"/>
       <c r="M31" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
@@ -7048,13 +7052,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E32" s="8">
         <v>45701</v>
@@ -7077,10 +7081,10 @@
         <v>11</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -7092,13 +7096,13 @@
         <v>18</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" s="13">
         <v>38391</v>
@@ -7134,13 +7138,13 @@
         <v>18</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="E34" s="8">
         <v>39750</v>
@@ -7176,13 +7180,13 @@
         <v>18</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35" s="13">
         <v>40976</v>
@@ -7205,10 +7209,10 @@
       </c>
       <c r="L35" s="12"/>
       <c r="M35" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
@@ -7220,13 +7224,13 @@
         <v>18</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="8">
         <v>39204</v>
@@ -7243,7 +7247,7 @@
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="6" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="9"/>
@@ -7259,10 +7263,10 @@
         <v>122</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E37" s="13">
         <v>39490</v>
@@ -8834,7 +8838,7 @@
         <v>42552</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K75" s="13">
         <v>43830</v>
@@ -9356,7 +9360,7 @@
         <v>42552</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K87" s="13">
         <v>45291</v>
@@ -10550,7 +10554,7 @@
         <v>42552</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K116" s="8"/>
       <c r="L116" s="15" t="s">
@@ -10996,7 +11000,7 @@
         <v>42552</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K127" s="13"/>
       <c r="L127" s="18" t="s">
@@ -11256,7 +11260,7 @@
         <v>42552</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K133" s="13">
         <v>44196</v>
@@ -11602,7 +11606,7 @@
         <v>42552</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K141" s="13"/>
       <c r="L141" s="18" t="s">
@@ -11954,7 +11958,7 @@
         <v>42552</v>
       </c>
       <c r="J149" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K149" s="13">
         <v>45291</v>
@@ -12368,7 +12372,7 @@
         <v>42279</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K158" s="8">
         <v>44728</v>
@@ -13479,7 +13483,7 @@
       </c>
       <c r="L185" s="12"/>
       <c r="M185" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N185" s="12" t="s">
         <v>48</v>
@@ -14378,7 +14382,7 @@
         <v>42095</v>
       </c>
       <c r="J206" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K206" s="8"/>
       <c r="L206" s="15" t="s">
@@ -14510,7 +14514,7 @@
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
       <c r="J209" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K209" s="13">
         <v>45565</v>
@@ -14556,7 +14560,7 @@
         <v>45566</v>
       </c>
       <c r="J210" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K210" s="8"/>
       <c r="L210" s="15" t="s">
@@ -14602,7 +14606,7 @@
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
       <c r="J211" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K211" s="13">
         <v>45565</v>
@@ -14648,7 +14652,7 @@
         <v>45566</v>
       </c>
       <c r="J212" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K212" s="8">
         <v>45930</v>
@@ -14916,7 +14920,7 @@
         <v>45292</v>
       </c>
       <c r="J218" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K218" s="8"/>
       <c r="L218" s="15" t="s">
@@ -15140,7 +15144,7 @@
         <v>45292</v>
       </c>
       <c r="J223" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K223" s="13"/>
       <c r="L223" s="18" t="s">
@@ -15890,7 +15894,7 @@
         <v>42826</v>
       </c>
       <c r="J241" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K241" s="13">
         <v>45382</v>
@@ -16192,7 +16196,7 @@
         <v>41365</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K248" s="8">
         <v>44179</v>
@@ -16380,7 +16384,7 @@
         <v>732</v>
       </c>
       <c r="N252" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O252" s="9"/>
       <c r="P252" s="9"/>
@@ -16424,7 +16428,7 @@
         <v>735</v>
       </c>
       <c r="N253" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O253" s="14"/>
       <c r="P253" s="14"/>
@@ -16458,7 +16462,7 @@
         <v>738</v>
       </c>
       <c r="N254" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O254" s="9"/>
       <c r="P254" s="9"/>
@@ -16502,7 +16506,7 @@
         <v>741</v>
       </c>
       <c r="N255" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O255" s="14"/>
       <c r="P255" s="14"/>
@@ -18488,7 +18492,7 @@
         <v>861</v>
       </c>
       <c r="N303" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O303" s="14"/>
       <c r="P303" s="14"/>
@@ -19011,7 +19015,7 @@
       </c>
       <c r="L316" s="7"/>
       <c r="M316" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N316" s="7" t="s">
         <v>892</v>
@@ -19315,7 +19319,7 @@
       </c>
       <c r="L324" s="7"/>
       <c r="M324" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N324" s="7"/>
       <c r="O324" s="9"/>
@@ -19626,7 +19630,7 @@
         <v>933</v>
       </c>
       <c r="N331" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O331" s="14"/>
       <c r="P331" s="14"/>
@@ -19670,7 +19674,7 @@
         <v>937</v>
       </c>
       <c r="N332" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O332" s="9"/>
       <c r="P332" s="9"/>
@@ -20018,7 +20022,7 @@
         <v>42736</v>
       </c>
       <c r="J340" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K340" s="8">
         <v>44286</v>
@@ -22190,7 +22194,7 @@
         <v>41821</v>
       </c>
       <c r="J393" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K393" s="13"/>
       <c r="L393" s="18" t="s">
@@ -22232,7 +22236,7 @@
       <c r="H394" s="8"/>
       <c r="I394" s="8"/>
       <c r="J394" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K394" s="8"/>
       <c r="L394" s="15" t="s">
@@ -22280,7 +22284,7 @@
         <v>41821</v>
       </c>
       <c r="J395" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K395" s="13"/>
       <c r="L395" s="18" t="s">
@@ -22800,7 +22804,7 @@
         <v>42186</v>
       </c>
       <c r="J407" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K407" s="13"/>
       <c r="L407" s="18" t="s">
@@ -23357,7 +23361,7 @@
       </c>
       <c r="L420" s="7"/>
       <c r="M420" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N420" s="7" t="s">
         <v>1189</v>
@@ -23998,7 +24002,7 @@
         <v>42153</v>
       </c>
       <c r="J435" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K435" s="13">
         <v>44286</v>
@@ -24158,7 +24162,7 @@
         <v>42552</v>
       </c>
       <c r="J439" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K439" s="13">
         <v>45382</v>
@@ -24202,7 +24206,7 @@
       </c>
       <c r="I440" s="8"/>
       <c r="J440" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K440" s="8">
         <v>45382</v>
@@ -25070,7 +25074,7 @@
         <v>24</v>
       </c>
       <c r="N460" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O460" s="9"/>
       <c r="P460" s="9"/>
@@ -25114,7 +25118,7 @@
         <v>542</v>
       </c>
       <c r="N461" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O461" s="14"/>
       <c r="P461" s="14"/>
@@ -25680,7 +25684,7 @@
         <v>42370</v>
       </c>
       <c r="J475" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K475" s="13"/>
       <c r="L475" s="18" t="s">
@@ -25862,7 +25866,7 @@
         <v>1358</v>
       </c>
       <c r="N479" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O479" s="14"/>
       <c r="P479" s="14"/>
@@ -25944,7 +25948,7 @@
         <v>1361</v>
       </c>
       <c r="N481" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O481" s="14"/>
       <c r="P481" s="19" t="s">
@@ -25982,7 +25986,7 @@
         <v>42186</v>
       </c>
       <c r="J482" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K482" s="8">
         <v>43921</v>
@@ -26026,7 +26030,7 @@
         <v>43922</v>
       </c>
       <c r="J483" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K483" s="13"/>
       <c r="L483" s="18" t="s">
@@ -27973,7 +27977,7 @@
         <v>43282</v>
       </c>
       <c r="J528" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K528" s="8"/>
       <c r="L528" s="15" t="s">
@@ -28021,7 +28025,7 @@
         <v>43101</v>
       </c>
       <c r="J529" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K529" s="13">
         <v>45382</v>
@@ -28067,7 +28071,7 @@
         <v>45383</v>
       </c>
       <c r="J530" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K530" s="8"/>
       <c r="L530" s="15" t="s">
@@ -28161,7 +28165,7 @@
         <v>45748</v>
       </c>
       <c r="J532" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K532" s="8"/>
       <c r="L532" s="15" t="s">
@@ -28209,7 +28213,7 @@
         <v>46296</v>
       </c>
       <c r="J533" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K533" s="13"/>
       <c r="L533" s="18" t="s">
@@ -28257,7 +28261,7 @@
         <v>46296</v>
       </c>
       <c r="J534" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K534" s="8"/>
       <c r="L534" s="15" t="s">
@@ -28888,7 +28892,7 @@
       </c>
       <c r="L549" s="12"/>
       <c r="M549" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N549" s="12" t="s">
         <v>1535</v>
@@ -29265,7 +29269,7 @@
         <v>42736</v>
       </c>
       <c r="J558" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K558" s="8">
         <v>44286</v>
@@ -30191,7 +30195,7 @@
         <v>1619</v>
       </c>
       <c r="N580" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O580" s="9"/>
       <c r="P580" s="9"/>
@@ -30769,7 +30773,7 @@
         <v>45108</v>
       </c>
       <c r="J594" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K594" s="8"/>
       <c r="L594" s="15" t="s">
@@ -31719,7 +31723,7 @@
         <v>42917</v>
       </c>
       <c r="J617" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K617" s="13">
         <v>43646</v>
@@ -31765,7 +31769,7 @@
         <v>43647</v>
       </c>
       <c r="J618" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K618" s="8">
         <v>43646</v>
@@ -31811,7 +31815,7 @@
         <v>43647</v>
       </c>
       <c r="J619" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K619" s="13">
         <v>44104</v>
@@ -31857,7 +31861,7 @@
         <v>44105</v>
       </c>
       <c r="J620" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K620" s="8"/>
       <c r="L620" s="15" t="s">
@@ -31907,7 +31911,7 @@
         <v>46113</v>
       </c>
       <c r="J621" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K621" s="13"/>
       <c r="L621" s="18" t="s">
@@ -32295,7 +32299,7 @@
         <v>1734</v>
       </c>
       <c r="N630" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O630" s="9"/>
       <c r="P630" s="16" t="s">
@@ -32727,7 +32731,7 @@
         <v>732</v>
       </c>
       <c r="N640" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O640" s="9"/>
       <c r="P640" s="9"/>
@@ -32771,7 +32775,7 @@
         <v>1757</v>
       </c>
       <c r="N641" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O641" s="14"/>
       <c r="P641" s="14"/>
@@ -32815,7 +32819,7 @@
         <v>732</v>
       </c>
       <c r="N642" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O642" s="9"/>
       <c r="P642" s="9"/>
@@ -32859,7 +32863,7 @@
         <v>1757</v>
       </c>
       <c r="N643" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O643" s="14"/>
       <c r="P643" s="14"/>
@@ -32947,7 +32951,7 @@
         <v>1767</v>
       </c>
       <c r="N645" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O645" s="14"/>
       <c r="P645" s="14"/>
@@ -32991,7 +32995,7 @@
         <v>1769</v>
       </c>
       <c r="N646" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O646" s="9"/>
       <c r="P646" s="9"/>
@@ -33092,507 +33096,510 @@
     <hyperlink ref="B8" r:id="rId5"/>
     <hyperlink ref="L8" r:id="rId6"/>
     <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="L14" r:id="rId9"/>
-    <hyperlink ref="N14" r:id="rId10"/>
-    <hyperlink ref="P14" r:id="rId11"/>
-    <hyperlink ref="Q14" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="L18" r:id="rId14"/>
-    <hyperlink ref="N18" r:id="rId15"/>
-    <hyperlink ref="B26" r:id="rId16"/>
-    <hyperlink ref="L26" r:id="rId17"/>
-    <hyperlink ref="N26" r:id="rId18"/>
-    <hyperlink ref="P26" r:id="rId19"/>
-    <hyperlink ref="N31" r:id="rId20"/>
-    <hyperlink ref="B32" r:id="rId21"/>
-    <hyperlink ref="L32" r:id="rId22"/>
-    <hyperlink ref="N32" r:id="rId23"/>
-    <hyperlink ref="B38" r:id="rId24"/>
-    <hyperlink ref="L38" r:id="rId25"/>
-    <hyperlink ref="N38" r:id="rId26"/>
-    <hyperlink ref="P38" r:id="rId27"/>
-    <hyperlink ref="Q38" r:id="rId28"/>
-    <hyperlink ref="B43" r:id="rId29"/>
-    <hyperlink ref="L43" r:id="rId30"/>
-    <hyperlink ref="N43" r:id="rId31"/>
-    <hyperlink ref="Q43" r:id="rId32"/>
-    <hyperlink ref="B44" r:id="rId33"/>
-    <hyperlink ref="L44" r:id="rId34"/>
-    <hyperlink ref="N44" r:id="rId35"/>
-    <hyperlink ref="B62" r:id="rId36"/>
-    <hyperlink ref="L62" r:id="rId37"/>
-    <hyperlink ref="N62" r:id="rId38"/>
-    <hyperlink ref="P62" r:id="rId39"/>
-    <hyperlink ref="R62" r:id="rId40"/>
-    <hyperlink ref="B64" r:id="rId41"/>
-    <hyperlink ref="L64" r:id="rId42"/>
-    <hyperlink ref="N64" r:id="rId43"/>
-    <hyperlink ref="Q64" r:id="rId44"/>
-    <hyperlink ref="B65" r:id="rId45"/>
-    <hyperlink ref="L65" r:id="rId46"/>
-    <hyperlink ref="N65" r:id="rId47"/>
-    <hyperlink ref="Q65" r:id="rId48"/>
-    <hyperlink ref="B67" r:id="rId49"/>
-    <hyperlink ref="L67" r:id="rId50"/>
-    <hyperlink ref="N67" r:id="rId51"/>
-    <hyperlink ref="Q67" r:id="rId52"/>
-    <hyperlink ref="B68" r:id="rId53"/>
-    <hyperlink ref="L68" r:id="rId54"/>
-    <hyperlink ref="N68" r:id="rId55"/>
-    <hyperlink ref="Q68" r:id="rId56"/>
-    <hyperlink ref="B77" r:id="rId57"/>
-    <hyperlink ref="L77" r:id="rId58"/>
-    <hyperlink ref="N77" r:id="rId59"/>
-    <hyperlink ref="P77" r:id="rId60"/>
-    <hyperlink ref="B78" r:id="rId61"/>
-    <hyperlink ref="L78" r:id="rId62"/>
-    <hyperlink ref="N78" r:id="rId63"/>
-    <hyperlink ref="P78" r:id="rId64"/>
-    <hyperlink ref="Q78" r:id="rId65"/>
-    <hyperlink ref="B88" r:id="rId66"/>
-    <hyperlink ref="L88" r:id="rId67"/>
-    <hyperlink ref="N88" r:id="rId68"/>
-    <hyperlink ref="P88" r:id="rId69"/>
-    <hyperlink ref="Q88" r:id="rId70"/>
-    <hyperlink ref="R88" r:id="rId71"/>
-    <hyperlink ref="B89" r:id="rId72"/>
-    <hyperlink ref="L89" r:id="rId73"/>
-    <hyperlink ref="N89" r:id="rId74"/>
-    <hyperlink ref="Q89" r:id="rId75"/>
-    <hyperlink ref="M97" r:id="rId76"/>
-    <hyperlink ref="B99" r:id="rId77"/>
-    <hyperlink ref="L99" r:id="rId78"/>
-    <hyperlink ref="N99" r:id="rId79"/>
-    <hyperlink ref="P99" r:id="rId80"/>
-    <hyperlink ref="Q99" r:id="rId81"/>
-    <hyperlink ref="B100" r:id="rId82"/>
-    <hyperlink ref="L100" r:id="rId83"/>
-    <hyperlink ref="N100" r:id="rId84"/>
-    <hyperlink ref="Q100" r:id="rId85"/>
-    <hyperlink ref="B116" r:id="rId86"/>
-    <hyperlink ref="L116" r:id="rId87"/>
-    <hyperlink ref="N116" r:id="rId88"/>
-    <hyperlink ref="P116" r:id="rId89"/>
-    <hyperlink ref="R116" r:id="rId90"/>
-    <hyperlink ref="B117" r:id="rId91"/>
-    <hyperlink ref="L117" r:id="rId92"/>
-    <hyperlink ref="N117" r:id="rId93"/>
-    <hyperlink ref="Q117" r:id="rId94"/>
-    <hyperlink ref="B127" r:id="rId95"/>
-    <hyperlink ref="L127" r:id="rId96"/>
-    <hyperlink ref="N127" r:id="rId97"/>
-    <hyperlink ref="P127" r:id="rId98"/>
-    <hyperlink ref="R127" r:id="rId99"/>
-    <hyperlink ref="B128" r:id="rId100"/>
-    <hyperlink ref="L128" r:id="rId101"/>
-    <hyperlink ref="N128" r:id="rId102"/>
-    <hyperlink ref="Q128" r:id="rId103"/>
-    <hyperlink ref="M133" r:id="rId104"/>
-    <hyperlink ref="B134" r:id="rId105"/>
-    <hyperlink ref="L134" r:id="rId106"/>
-    <hyperlink ref="N134" r:id="rId107"/>
-    <hyperlink ref="P134" r:id="rId108"/>
-    <hyperlink ref="Q134" r:id="rId109"/>
-    <hyperlink ref="B135" r:id="rId110"/>
-    <hyperlink ref="L135" r:id="rId111"/>
-    <hyperlink ref="N135" r:id="rId112"/>
-    <hyperlink ref="Q135" r:id="rId113"/>
-    <hyperlink ref="B141" r:id="rId114"/>
-    <hyperlink ref="L141" r:id="rId115"/>
-    <hyperlink ref="N141" r:id="rId116"/>
-    <hyperlink ref="P141" r:id="rId117"/>
-    <hyperlink ref="R141" r:id="rId118"/>
-    <hyperlink ref="B142" r:id="rId119"/>
-    <hyperlink ref="L142" r:id="rId120"/>
-    <hyperlink ref="N142" r:id="rId121"/>
-    <hyperlink ref="Q142" r:id="rId122"/>
-    <hyperlink ref="M144" r:id="rId123"/>
-    <hyperlink ref="B146" r:id="rId124"/>
-    <hyperlink ref="L146" r:id="rId125"/>
-    <hyperlink ref="N146" r:id="rId126"/>
-    <hyperlink ref="P146" r:id="rId127"/>
-    <hyperlink ref="Q146" r:id="rId128"/>
-    <hyperlink ref="R146" r:id="rId129"/>
-    <hyperlink ref="B147" r:id="rId130"/>
-    <hyperlink ref="L147" r:id="rId131"/>
-    <hyperlink ref="N147" r:id="rId132"/>
-    <hyperlink ref="Q147" r:id="rId133"/>
-    <hyperlink ref="B150" r:id="rId134"/>
-    <hyperlink ref="L150" r:id="rId135"/>
-    <hyperlink ref="N150" r:id="rId136"/>
-    <hyperlink ref="P150" r:id="rId137"/>
-    <hyperlink ref="Q150" r:id="rId138"/>
-    <hyperlink ref="R150" r:id="rId139"/>
-    <hyperlink ref="B151" r:id="rId140"/>
-    <hyperlink ref="L151" r:id="rId141"/>
-    <hyperlink ref="N151" r:id="rId142"/>
-    <hyperlink ref="Q151" r:id="rId143"/>
-    <hyperlink ref="B152" r:id="rId144"/>
-    <hyperlink ref="L152" r:id="rId145"/>
-    <hyperlink ref="N152" r:id="rId146"/>
-    <hyperlink ref="P152" r:id="rId147"/>
-    <hyperlink ref="Q152" r:id="rId148"/>
-    <hyperlink ref="R152" r:id="rId149"/>
-    <hyperlink ref="B153" r:id="rId150"/>
-    <hyperlink ref="L153" r:id="rId151"/>
-    <hyperlink ref="N153" r:id="rId152"/>
-    <hyperlink ref="P153" r:id="rId153"/>
-    <hyperlink ref="Q153" r:id="rId154"/>
-    <hyperlink ref="B155" r:id="rId155"/>
-    <hyperlink ref="L155" r:id="rId156"/>
-    <hyperlink ref="N155" r:id="rId157"/>
-    <hyperlink ref="P155" r:id="rId158"/>
-    <hyperlink ref="Q155" r:id="rId159"/>
-    <hyperlink ref="R155" r:id="rId160"/>
-    <hyperlink ref="B156" r:id="rId161"/>
-    <hyperlink ref="L156" r:id="rId162"/>
-    <hyperlink ref="N156" r:id="rId163"/>
-    <hyperlink ref="Q156" r:id="rId164"/>
-    <hyperlink ref="B159" r:id="rId165"/>
-    <hyperlink ref="L159" r:id="rId166"/>
-    <hyperlink ref="N159" r:id="rId167"/>
-    <hyperlink ref="P159" r:id="rId168"/>
-    <hyperlink ref="R159" r:id="rId169"/>
-    <hyperlink ref="B160" r:id="rId170"/>
-    <hyperlink ref="L160" r:id="rId171"/>
-    <hyperlink ref="N160" r:id="rId172"/>
-    <hyperlink ref="Q160" r:id="rId173"/>
-    <hyperlink ref="B166" r:id="rId174"/>
-    <hyperlink ref="L166" r:id="rId175"/>
-    <hyperlink ref="N166" r:id="rId176"/>
-    <hyperlink ref="P166" r:id="rId177"/>
-    <hyperlink ref="B172" r:id="rId178"/>
-    <hyperlink ref="L172" r:id="rId179"/>
-    <hyperlink ref="N172" r:id="rId180"/>
-    <hyperlink ref="P172" r:id="rId181"/>
-    <hyperlink ref="Q172" r:id="rId182"/>
-    <hyperlink ref="B192" r:id="rId183"/>
-    <hyperlink ref="L192" r:id="rId184"/>
-    <hyperlink ref="N192" r:id="rId185"/>
-    <hyperlink ref="P192" r:id="rId186"/>
-    <hyperlink ref="B196" r:id="rId187"/>
-    <hyperlink ref="L196" r:id="rId188"/>
-    <hyperlink ref="N196" r:id="rId189"/>
-    <hyperlink ref="P196" r:id="rId190"/>
-    <hyperlink ref="B200" r:id="rId191"/>
-    <hyperlink ref="L200" r:id="rId192"/>
-    <hyperlink ref="N200" r:id="rId193"/>
-    <hyperlink ref="P200" r:id="rId194"/>
-    <hyperlink ref="B204" r:id="rId195"/>
-    <hyperlink ref="L204" r:id="rId196"/>
-    <hyperlink ref="N204" r:id="rId197"/>
-    <hyperlink ref="P204" r:id="rId198"/>
-    <hyperlink ref="Q204" r:id="rId199"/>
-    <hyperlink ref="B206" r:id="rId200"/>
-    <hyperlink ref="L206" r:id="rId201"/>
-    <hyperlink ref="N206" r:id="rId202"/>
-    <hyperlink ref="P206" r:id="rId203"/>
-    <hyperlink ref="B210" r:id="rId204"/>
-    <hyperlink ref="L210" r:id="rId205"/>
-    <hyperlink ref="N210" r:id="rId206"/>
-    <hyperlink ref="P210" r:id="rId207"/>
-    <hyperlink ref="Q210" r:id="rId208"/>
-    <hyperlink ref="M212" r:id="rId209"/>
-    <hyperlink ref="N212" r:id="rId210"/>
-    <hyperlink ref="B213" r:id="rId211"/>
-    <hyperlink ref="L213" r:id="rId212"/>
-    <hyperlink ref="N213" r:id="rId213"/>
-    <hyperlink ref="Q213" r:id="rId214"/>
-    <hyperlink ref="B218" r:id="rId215"/>
-    <hyperlink ref="L218" r:id="rId216"/>
-    <hyperlink ref="N218" r:id="rId217"/>
-    <hyperlink ref="P218" r:id="rId218"/>
-    <hyperlink ref="Q218" r:id="rId219"/>
-    <hyperlink ref="B223" r:id="rId220"/>
-    <hyperlink ref="L223" r:id="rId221"/>
-    <hyperlink ref="N223" r:id="rId222"/>
-    <hyperlink ref="P223" r:id="rId223"/>
-    <hyperlink ref="Q223" r:id="rId224"/>
-    <hyperlink ref="R223" r:id="rId225"/>
-    <hyperlink ref="B229" r:id="rId226"/>
-    <hyperlink ref="L229" r:id="rId227"/>
-    <hyperlink ref="N229" r:id="rId228"/>
-    <hyperlink ref="P229" r:id="rId229"/>
-    <hyperlink ref="B236" r:id="rId230"/>
-    <hyperlink ref="L236" r:id="rId231"/>
-    <hyperlink ref="N236" r:id="rId232"/>
-    <hyperlink ref="P236" r:id="rId233"/>
-    <hyperlink ref="B245" r:id="rId234"/>
-    <hyperlink ref="L245" r:id="rId235"/>
-    <hyperlink ref="N245" r:id="rId236"/>
-    <hyperlink ref="P245" r:id="rId237"/>
-    <hyperlink ref="Q245" r:id="rId238"/>
-    <hyperlink ref="B251" r:id="rId239"/>
-    <hyperlink ref="L251" r:id="rId240"/>
-    <hyperlink ref="N251" r:id="rId241"/>
-    <hyperlink ref="P251" r:id="rId242"/>
-    <hyperlink ref="Q251" r:id="rId243"/>
-    <hyperlink ref="B255" r:id="rId244"/>
-    <hyperlink ref="L255" r:id="rId245"/>
-    <hyperlink ref="N255" r:id="rId246"/>
-    <hyperlink ref="B277" r:id="rId247"/>
-    <hyperlink ref="L277" r:id="rId248"/>
-    <hyperlink ref="N277" r:id="rId249"/>
-    <hyperlink ref="P277" r:id="rId250"/>
-    <hyperlink ref="Q277" r:id="rId251"/>
-    <hyperlink ref="B285" r:id="rId252"/>
-    <hyperlink ref="L285" r:id="rId253"/>
-    <hyperlink ref="N285" r:id="rId254"/>
-    <hyperlink ref="P285" r:id="rId255"/>
-    <hyperlink ref="Q285" r:id="rId256"/>
-    <hyperlink ref="B296" r:id="rId257"/>
-    <hyperlink ref="L296" r:id="rId258"/>
-    <hyperlink ref="N296" r:id="rId259"/>
-    <hyperlink ref="P296" r:id="rId260"/>
-    <hyperlink ref="Q296" r:id="rId261"/>
-    <hyperlink ref="B304" r:id="rId262"/>
-    <hyperlink ref="L304" r:id="rId263"/>
-    <hyperlink ref="N304" r:id="rId264"/>
-    <hyperlink ref="P304" r:id="rId265"/>
-    <hyperlink ref="Q304" r:id="rId266"/>
-    <hyperlink ref="B326" r:id="rId267"/>
-    <hyperlink ref="L326" r:id="rId268"/>
-    <hyperlink ref="N326" r:id="rId269"/>
-    <hyperlink ref="P326" r:id="rId270"/>
-    <hyperlink ref="B328" r:id="rId271"/>
-    <hyperlink ref="L328" r:id="rId272"/>
-    <hyperlink ref="N328" r:id="rId273"/>
-    <hyperlink ref="P328" r:id="rId274"/>
-    <hyperlink ref="Q328" r:id="rId275"/>
-    <hyperlink ref="B332" r:id="rId276"/>
-    <hyperlink ref="L332" r:id="rId277"/>
-    <hyperlink ref="N332" r:id="rId278"/>
-    <hyperlink ref="B335" r:id="rId279"/>
-    <hyperlink ref="L335" r:id="rId280"/>
-    <hyperlink ref="N335" r:id="rId281"/>
-    <hyperlink ref="P335" r:id="rId282"/>
-    <hyperlink ref="Q335" r:id="rId283"/>
-    <hyperlink ref="B337" r:id="rId284"/>
-    <hyperlink ref="L337" r:id="rId285"/>
-    <hyperlink ref="N337" r:id="rId286"/>
-    <hyperlink ref="P337" r:id="rId287"/>
-    <hyperlink ref="Q337" r:id="rId288"/>
-    <hyperlink ref="B343" r:id="rId289"/>
-    <hyperlink ref="L343" r:id="rId290"/>
-    <hyperlink ref="N343" r:id="rId291"/>
-    <hyperlink ref="P343" r:id="rId292"/>
-    <hyperlink ref="Q343" r:id="rId293"/>
-    <hyperlink ref="B344" r:id="rId294"/>
-    <hyperlink ref="L344" r:id="rId295"/>
-    <hyperlink ref="N344" r:id="rId296"/>
-    <hyperlink ref="Q344" r:id="rId297"/>
-    <hyperlink ref="B347" r:id="rId298"/>
-    <hyperlink ref="L347" r:id="rId299"/>
-    <hyperlink ref="N347" r:id="rId300"/>
-    <hyperlink ref="P347" r:id="rId301"/>
-    <hyperlink ref="Q347" r:id="rId302"/>
-    <hyperlink ref="B350" r:id="rId303"/>
-    <hyperlink ref="L350" r:id="rId304"/>
-    <hyperlink ref="N350" r:id="rId305"/>
-    <hyperlink ref="P350" r:id="rId306"/>
-    <hyperlink ref="Q350" r:id="rId307"/>
-    <hyperlink ref="B352" r:id="rId308"/>
-    <hyperlink ref="L352" r:id="rId309"/>
-    <hyperlink ref="N352" r:id="rId310"/>
-    <hyperlink ref="P352" r:id="rId311"/>
-    <hyperlink ref="Q352" r:id="rId312"/>
-    <hyperlink ref="R352" r:id="rId313"/>
-    <hyperlink ref="B391" r:id="rId314"/>
-    <hyperlink ref="L391" r:id="rId315"/>
-    <hyperlink ref="N391" r:id="rId316"/>
-    <hyperlink ref="P391" r:id="rId317"/>
-    <hyperlink ref="B393" r:id="rId318"/>
-    <hyperlink ref="L393" r:id="rId319"/>
-    <hyperlink ref="N393" r:id="rId320"/>
-    <hyperlink ref="P393" r:id="rId321"/>
-    <hyperlink ref="B394" r:id="rId322"/>
-    <hyperlink ref="L394" r:id="rId323"/>
-    <hyperlink ref="N394" r:id="rId324"/>
-    <hyperlink ref="Q394" r:id="rId325"/>
-    <hyperlink ref="B395" r:id="rId326"/>
-    <hyperlink ref="L395" r:id="rId327"/>
-    <hyperlink ref="N395" r:id="rId328"/>
-    <hyperlink ref="P395" r:id="rId329"/>
-    <hyperlink ref="B406" r:id="rId330"/>
-    <hyperlink ref="L406" r:id="rId331"/>
-    <hyperlink ref="N406" r:id="rId332"/>
-    <hyperlink ref="P406" r:id="rId333"/>
-    <hyperlink ref="B407" r:id="rId334"/>
-    <hyperlink ref="L407" r:id="rId335"/>
-    <hyperlink ref="N407" r:id="rId336"/>
-    <hyperlink ref="P407" r:id="rId337"/>
-    <hyperlink ref="B408" r:id="rId338"/>
-    <hyperlink ref="L408" r:id="rId339"/>
-    <hyperlink ref="N408" r:id="rId340"/>
-    <hyperlink ref="Q408" r:id="rId341"/>
-    <hyperlink ref="B410" r:id="rId342"/>
-    <hyperlink ref="L410" r:id="rId343"/>
-    <hyperlink ref="N410" r:id="rId344"/>
-    <hyperlink ref="P410" r:id="rId345"/>
-    <hyperlink ref="B411" r:id="rId346"/>
-    <hyperlink ref="L411" r:id="rId347"/>
-    <hyperlink ref="N411" r:id="rId348"/>
-    <hyperlink ref="Q411" r:id="rId349"/>
-    <hyperlink ref="B417" r:id="rId350"/>
-    <hyperlink ref="L417" r:id="rId351"/>
-    <hyperlink ref="N417" r:id="rId352"/>
-    <hyperlink ref="P417" r:id="rId353"/>
-    <hyperlink ref="B424" r:id="rId354"/>
-    <hyperlink ref="L424" r:id="rId355"/>
-    <hyperlink ref="N424" r:id="rId356"/>
-    <hyperlink ref="P424" r:id="rId357"/>
-    <hyperlink ref="B429" r:id="rId358"/>
-    <hyperlink ref="L429" r:id="rId359"/>
-    <hyperlink ref="N429" r:id="rId360"/>
-    <hyperlink ref="P429" r:id="rId361"/>
-    <hyperlink ref="B430" r:id="rId362"/>
-    <hyperlink ref="L430" r:id="rId363"/>
-    <hyperlink ref="N430" r:id="rId364"/>
-    <hyperlink ref="P430" r:id="rId365"/>
-    <hyperlink ref="B442" r:id="rId366"/>
-    <hyperlink ref="L442" r:id="rId367"/>
-    <hyperlink ref="N442" r:id="rId368"/>
-    <hyperlink ref="P442" r:id="rId369"/>
-    <hyperlink ref="Q442" r:id="rId370"/>
-    <hyperlink ref="B459" r:id="rId371"/>
-    <hyperlink ref="L459" r:id="rId372"/>
-    <hyperlink ref="N459" r:id="rId373"/>
-    <hyperlink ref="P459" r:id="rId374"/>
-    <hyperlink ref="Q459" r:id="rId375"/>
-    <hyperlink ref="N464" r:id="rId376"/>
-    <hyperlink ref="B475" r:id="rId377"/>
-    <hyperlink ref="L475" r:id="rId378"/>
-    <hyperlink ref="N475" r:id="rId379"/>
-    <hyperlink ref="P475" r:id="rId380"/>
-    <hyperlink ref="R475" r:id="rId381"/>
-    <hyperlink ref="B481" r:id="rId382"/>
-    <hyperlink ref="L481" r:id="rId383"/>
-    <hyperlink ref="N481" r:id="rId384"/>
-    <hyperlink ref="P481" r:id="rId385"/>
-    <hyperlink ref="B483" r:id="rId386"/>
-    <hyperlink ref="L483" r:id="rId387"/>
-    <hyperlink ref="N483" r:id="rId388"/>
-    <hyperlink ref="B486" r:id="rId389"/>
-    <hyperlink ref="L486" r:id="rId390"/>
-    <hyperlink ref="N486" r:id="rId391"/>
-    <hyperlink ref="B489" r:id="rId392"/>
-    <hyperlink ref="L489" r:id="rId393"/>
-    <hyperlink ref="N489" r:id="rId394"/>
-    <hyperlink ref="P489" r:id="rId395"/>
-    <hyperlink ref="B493" r:id="rId396"/>
-    <hyperlink ref="L493" r:id="rId397"/>
-    <hyperlink ref="N493" r:id="rId398"/>
-    <hyperlink ref="P493" r:id="rId399"/>
-    <hyperlink ref="B494" r:id="rId400"/>
-    <hyperlink ref="L494" r:id="rId401"/>
-    <hyperlink ref="N494" r:id="rId402"/>
-    <hyperlink ref="P494" r:id="rId403"/>
-    <hyperlink ref="B497" r:id="rId404"/>
-    <hyperlink ref="L497" r:id="rId405"/>
-    <hyperlink ref="N497" r:id="rId406"/>
-    <hyperlink ref="P497" r:id="rId407"/>
-    <hyperlink ref="B508" r:id="rId408"/>
-    <hyperlink ref="L508" r:id="rId409"/>
-    <hyperlink ref="N508" r:id="rId410"/>
-    <hyperlink ref="P508" r:id="rId411"/>
-    <hyperlink ref="B511" r:id="rId412"/>
-    <hyperlink ref="L511" r:id="rId413"/>
-    <hyperlink ref="N511" r:id="rId414"/>
-    <hyperlink ref="P511" r:id="rId415"/>
-    <hyperlink ref="R511" r:id="rId416"/>
-    <hyperlink ref="B522" r:id="rId417"/>
-    <hyperlink ref="L522" r:id="rId418"/>
-    <hyperlink ref="N522" r:id="rId419"/>
-    <hyperlink ref="P522" r:id="rId420"/>
-    <hyperlink ref="Q522" r:id="rId421"/>
-    <hyperlink ref="R522" r:id="rId422"/>
-    <hyperlink ref="B525" r:id="rId423"/>
-    <hyperlink ref="L525" r:id="rId424"/>
-    <hyperlink ref="N525" r:id="rId425"/>
-    <hyperlink ref="P525" r:id="rId426"/>
-    <hyperlink ref="B526" r:id="rId427"/>
-    <hyperlink ref="L526" r:id="rId428"/>
-    <hyperlink ref="N526" r:id="rId429"/>
-    <hyperlink ref="Q526" r:id="rId430"/>
-    <hyperlink ref="B528" r:id="rId431"/>
-    <hyperlink ref="L528" r:id="rId432"/>
-    <hyperlink ref="N528" r:id="rId433"/>
-    <hyperlink ref="P528" r:id="rId434"/>
-    <hyperlink ref="B530" r:id="rId435"/>
-    <hyperlink ref="L530" r:id="rId436"/>
-    <hyperlink ref="N530" r:id="rId437"/>
-    <hyperlink ref="P530" r:id="rId438"/>
-    <hyperlink ref="B531" r:id="rId439"/>
-    <hyperlink ref="L531" r:id="rId440"/>
-    <hyperlink ref="N531" r:id="rId441"/>
-    <hyperlink ref="P531" r:id="rId442"/>
-    <hyperlink ref="B532" r:id="rId443"/>
-    <hyperlink ref="L532" r:id="rId444"/>
-    <hyperlink ref="N532" r:id="rId445"/>
-    <hyperlink ref="Q532" r:id="rId446"/>
-    <hyperlink ref="B533" r:id="rId447"/>
-    <hyperlink ref="L533" r:id="rId448"/>
-    <hyperlink ref="N533" r:id="rId449"/>
-    <hyperlink ref="Q533" r:id="rId450"/>
-    <hyperlink ref="B534" r:id="rId451"/>
-    <hyperlink ref="L534" r:id="rId452"/>
-    <hyperlink ref="N534" r:id="rId453"/>
-    <hyperlink ref="Q534" r:id="rId454"/>
-    <hyperlink ref="B545" r:id="rId455"/>
-    <hyperlink ref="L545" r:id="rId456"/>
-    <hyperlink ref="N545" r:id="rId457"/>
-    <hyperlink ref="P545" r:id="rId458"/>
-    <hyperlink ref="Q545" r:id="rId459"/>
-    <hyperlink ref="N553" r:id="rId460"/>
-    <hyperlink ref="B554" r:id="rId461"/>
-    <hyperlink ref="L554" r:id="rId462"/>
-    <hyperlink ref="N554" r:id="rId463"/>
-    <hyperlink ref="P554" r:id="rId464"/>
-    <hyperlink ref="Q554" r:id="rId465"/>
-    <hyperlink ref="B561" r:id="rId466"/>
-    <hyperlink ref="L561" r:id="rId467"/>
-    <hyperlink ref="N561" r:id="rId468"/>
-    <hyperlink ref="P561" r:id="rId469"/>
-    <hyperlink ref="Q561" r:id="rId470"/>
-    <hyperlink ref="B562" r:id="rId471"/>
-    <hyperlink ref="L562" r:id="rId472"/>
-    <hyperlink ref="N562" r:id="rId473"/>
-    <hyperlink ref="Q562" r:id="rId474"/>
-    <hyperlink ref="B563" r:id="rId475"/>
-    <hyperlink ref="L563" r:id="rId476"/>
-    <hyperlink ref="N563" r:id="rId477"/>
-    <hyperlink ref="Q563" r:id="rId478"/>
-    <hyperlink ref="B584" r:id="rId479"/>
-    <hyperlink ref="L584" r:id="rId480"/>
-    <hyperlink ref="N584" r:id="rId481"/>
-    <hyperlink ref="P584" r:id="rId482"/>
-    <hyperlink ref="R584" r:id="rId483"/>
-    <hyperlink ref="B594" r:id="rId484"/>
-    <hyperlink ref="L594" r:id="rId485"/>
-    <hyperlink ref="N594" r:id="rId486"/>
-    <hyperlink ref="P594" r:id="rId487"/>
-    <hyperlink ref="Q594" r:id="rId488"/>
-    <hyperlink ref="B620" r:id="rId489"/>
-    <hyperlink ref="L620" r:id="rId490"/>
-    <hyperlink ref="N620" r:id="rId491"/>
-    <hyperlink ref="P620" r:id="rId492"/>
-    <hyperlink ref="Q620" r:id="rId493"/>
-    <hyperlink ref="B621" r:id="rId494"/>
-    <hyperlink ref="L621" r:id="rId495"/>
-    <hyperlink ref="N621" r:id="rId496"/>
-    <hyperlink ref="O621" r:id="rId497"/>
-    <hyperlink ref="Q621" r:id="rId498"/>
-    <hyperlink ref="B630" r:id="rId499"/>
-    <hyperlink ref="N630" r:id="rId500"/>
-    <hyperlink ref="P630" r:id="rId501"/>
-    <hyperlink ref="B639" r:id="rId502"/>
-    <hyperlink ref="L639" r:id="rId503"/>
-    <hyperlink ref="N639" r:id="rId504"/>
-    <hyperlink ref="P639" r:id="rId505"/>
-    <hyperlink ref="B646" r:id="rId506"/>
-    <hyperlink ref="L646" r:id="rId507"/>
-    <hyperlink ref="N646" r:id="rId508"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="L11" r:id="rId9"/>
+    <hyperlink ref="P11" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="L14" r:id="rId12"/>
+    <hyperlink ref="N14" r:id="rId13"/>
+    <hyperlink ref="P14" r:id="rId14"/>
+    <hyperlink ref="Q14" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="N18" r:id="rId18"/>
+    <hyperlink ref="B26" r:id="rId19"/>
+    <hyperlink ref="L26" r:id="rId20"/>
+    <hyperlink ref="N26" r:id="rId21"/>
+    <hyperlink ref="P26" r:id="rId22"/>
+    <hyperlink ref="N31" r:id="rId23"/>
+    <hyperlink ref="B32" r:id="rId24"/>
+    <hyperlink ref="L32" r:id="rId25"/>
+    <hyperlink ref="N32" r:id="rId26"/>
+    <hyperlink ref="B38" r:id="rId27"/>
+    <hyperlink ref="L38" r:id="rId28"/>
+    <hyperlink ref="N38" r:id="rId29"/>
+    <hyperlink ref="P38" r:id="rId30"/>
+    <hyperlink ref="Q38" r:id="rId31"/>
+    <hyperlink ref="B43" r:id="rId32"/>
+    <hyperlink ref="L43" r:id="rId33"/>
+    <hyperlink ref="N43" r:id="rId34"/>
+    <hyperlink ref="Q43" r:id="rId35"/>
+    <hyperlink ref="B44" r:id="rId36"/>
+    <hyperlink ref="L44" r:id="rId37"/>
+    <hyperlink ref="N44" r:id="rId38"/>
+    <hyperlink ref="B62" r:id="rId39"/>
+    <hyperlink ref="L62" r:id="rId40"/>
+    <hyperlink ref="N62" r:id="rId41"/>
+    <hyperlink ref="P62" r:id="rId42"/>
+    <hyperlink ref="R62" r:id="rId43"/>
+    <hyperlink ref="B64" r:id="rId44"/>
+    <hyperlink ref="L64" r:id="rId45"/>
+    <hyperlink ref="N64" r:id="rId46"/>
+    <hyperlink ref="Q64" r:id="rId47"/>
+    <hyperlink ref="B65" r:id="rId48"/>
+    <hyperlink ref="L65" r:id="rId49"/>
+    <hyperlink ref="N65" r:id="rId50"/>
+    <hyperlink ref="Q65" r:id="rId51"/>
+    <hyperlink ref="B67" r:id="rId52"/>
+    <hyperlink ref="L67" r:id="rId53"/>
+    <hyperlink ref="N67" r:id="rId54"/>
+    <hyperlink ref="Q67" r:id="rId55"/>
+    <hyperlink ref="B68" r:id="rId56"/>
+    <hyperlink ref="L68" r:id="rId57"/>
+    <hyperlink ref="N68" r:id="rId58"/>
+    <hyperlink ref="Q68" r:id="rId59"/>
+    <hyperlink ref="B77" r:id="rId60"/>
+    <hyperlink ref="L77" r:id="rId61"/>
+    <hyperlink ref="N77" r:id="rId62"/>
+    <hyperlink ref="P77" r:id="rId63"/>
+    <hyperlink ref="B78" r:id="rId64"/>
+    <hyperlink ref="L78" r:id="rId65"/>
+    <hyperlink ref="N78" r:id="rId66"/>
+    <hyperlink ref="P78" r:id="rId67"/>
+    <hyperlink ref="Q78" r:id="rId68"/>
+    <hyperlink ref="B88" r:id="rId69"/>
+    <hyperlink ref="L88" r:id="rId70"/>
+    <hyperlink ref="N88" r:id="rId71"/>
+    <hyperlink ref="P88" r:id="rId72"/>
+    <hyperlink ref="Q88" r:id="rId73"/>
+    <hyperlink ref="R88" r:id="rId74"/>
+    <hyperlink ref="B89" r:id="rId75"/>
+    <hyperlink ref="L89" r:id="rId76"/>
+    <hyperlink ref="N89" r:id="rId77"/>
+    <hyperlink ref="Q89" r:id="rId78"/>
+    <hyperlink ref="M97" r:id="rId79"/>
+    <hyperlink ref="B99" r:id="rId80"/>
+    <hyperlink ref="L99" r:id="rId81"/>
+    <hyperlink ref="N99" r:id="rId82"/>
+    <hyperlink ref="P99" r:id="rId83"/>
+    <hyperlink ref="Q99" r:id="rId84"/>
+    <hyperlink ref="B100" r:id="rId85"/>
+    <hyperlink ref="L100" r:id="rId86"/>
+    <hyperlink ref="N100" r:id="rId87"/>
+    <hyperlink ref="Q100" r:id="rId88"/>
+    <hyperlink ref="B116" r:id="rId89"/>
+    <hyperlink ref="L116" r:id="rId90"/>
+    <hyperlink ref="N116" r:id="rId91"/>
+    <hyperlink ref="P116" r:id="rId92"/>
+    <hyperlink ref="R116" r:id="rId93"/>
+    <hyperlink ref="B117" r:id="rId94"/>
+    <hyperlink ref="L117" r:id="rId95"/>
+    <hyperlink ref="N117" r:id="rId96"/>
+    <hyperlink ref="Q117" r:id="rId97"/>
+    <hyperlink ref="B127" r:id="rId98"/>
+    <hyperlink ref="L127" r:id="rId99"/>
+    <hyperlink ref="N127" r:id="rId100"/>
+    <hyperlink ref="P127" r:id="rId101"/>
+    <hyperlink ref="R127" r:id="rId102"/>
+    <hyperlink ref="B128" r:id="rId103"/>
+    <hyperlink ref="L128" r:id="rId104"/>
+    <hyperlink ref="N128" r:id="rId105"/>
+    <hyperlink ref="Q128" r:id="rId106"/>
+    <hyperlink ref="M133" r:id="rId107"/>
+    <hyperlink ref="B134" r:id="rId108"/>
+    <hyperlink ref="L134" r:id="rId109"/>
+    <hyperlink ref="N134" r:id="rId110"/>
+    <hyperlink ref="P134" r:id="rId111"/>
+    <hyperlink ref="Q134" r:id="rId112"/>
+    <hyperlink ref="B135" r:id="rId113"/>
+    <hyperlink ref="L135" r:id="rId114"/>
+    <hyperlink ref="N135" r:id="rId115"/>
+    <hyperlink ref="Q135" r:id="rId116"/>
+    <hyperlink ref="B141" r:id="rId117"/>
+    <hyperlink ref="L141" r:id="rId118"/>
+    <hyperlink ref="N141" r:id="rId119"/>
+    <hyperlink ref="P141" r:id="rId120"/>
+    <hyperlink ref="R141" r:id="rId121"/>
+    <hyperlink ref="B142" r:id="rId122"/>
+    <hyperlink ref="L142" r:id="rId123"/>
+    <hyperlink ref="N142" r:id="rId124"/>
+    <hyperlink ref="Q142" r:id="rId125"/>
+    <hyperlink ref="M144" r:id="rId126"/>
+    <hyperlink ref="B146" r:id="rId127"/>
+    <hyperlink ref="L146" r:id="rId128"/>
+    <hyperlink ref="N146" r:id="rId129"/>
+    <hyperlink ref="P146" r:id="rId130"/>
+    <hyperlink ref="Q146" r:id="rId131"/>
+    <hyperlink ref="R146" r:id="rId132"/>
+    <hyperlink ref="B147" r:id="rId133"/>
+    <hyperlink ref="L147" r:id="rId134"/>
+    <hyperlink ref="N147" r:id="rId135"/>
+    <hyperlink ref="Q147" r:id="rId136"/>
+    <hyperlink ref="B150" r:id="rId137"/>
+    <hyperlink ref="L150" r:id="rId138"/>
+    <hyperlink ref="N150" r:id="rId139"/>
+    <hyperlink ref="P150" r:id="rId140"/>
+    <hyperlink ref="Q150" r:id="rId141"/>
+    <hyperlink ref="R150" r:id="rId142"/>
+    <hyperlink ref="B151" r:id="rId143"/>
+    <hyperlink ref="L151" r:id="rId144"/>
+    <hyperlink ref="N151" r:id="rId145"/>
+    <hyperlink ref="Q151" r:id="rId146"/>
+    <hyperlink ref="B152" r:id="rId147"/>
+    <hyperlink ref="L152" r:id="rId148"/>
+    <hyperlink ref="N152" r:id="rId149"/>
+    <hyperlink ref="P152" r:id="rId150"/>
+    <hyperlink ref="Q152" r:id="rId151"/>
+    <hyperlink ref="R152" r:id="rId152"/>
+    <hyperlink ref="B153" r:id="rId153"/>
+    <hyperlink ref="L153" r:id="rId154"/>
+    <hyperlink ref="N153" r:id="rId155"/>
+    <hyperlink ref="P153" r:id="rId156"/>
+    <hyperlink ref="Q153" r:id="rId157"/>
+    <hyperlink ref="B155" r:id="rId158"/>
+    <hyperlink ref="L155" r:id="rId159"/>
+    <hyperlink ref="N155" r:id="rId160"/>
+    <hyperlink ref="P155" r:id="rId161"/>
+    <hyperlink ref="Q155" r:id="rId162"/>
+    <hyperlink ref="R155" r:id="rId163"/>
+    <hyperlink ref="B156" r:id="rId164"/>
+    <hyperlink ref="L156" r:id="rId165"/>
+    <hyperlink ref="N156" r:id="rId166"/>
+    <hyperlink ref="Q156" r:id="rId167"/>
+    <hyperlink ref="B159" r:id="rId168"/>
+    <hyperlink ref="L159" r:id="rId169"/>
+    <hyperlink ref="N159" r:id="rId170"/>
+    <hyperlink ref="P159" r:id="rId171"/>
+    <hyperlink ref="R159" r:id="rId172"/>
+    <hyperlink ref="B160" r:id="rId173"/>
+    <hyperlink ref="L160" r:id="rId174"/>
+    <hyperlink ref="N160" r:id="rId175"/>
+    <hyperlink ref="Q160" r:id="rId176"/>
+    <hyperlink ref="B166" r:id="rId177"/>
+    <hyperlink ref="L166" r:id="rId178"/>
+    <hyperlink ref="N166" r:id="rId179"/>
+    <hyperlink ref="P166" r:id="rId180"/>
+    <hyperlink ref="B172" r:id="rId181"/>
+    <hyperlink ref="L172" r:id="rId182"/>
+    <hyperlink ref="N172" r:id="rId183"/>
+    <hyperlink ref="P172" r:id="rId184"/>
+    <hyperlink ref="Q172" r:id="rId185"/>
+    <hyperlink ref="B192" r:id="rId186"/>
+    <hyperlink ref="L192" r:id="rId187"/>
+    <hyperlink ref="N192" r:id="rId188"/>
+    <hyperlink ref="P192" r:id="rId189"/>
+    <hyperlink ref="B196" r:id="rId190"/>
+    <hyperlink ref="L196" r:id="rId191"/>
+    <hyperlink ref="N196" r:id="rId192"/>
+    <hyperlink ref="P196" r:id="rId193"/>
+    <hyperlink ref="B200" r:id="rId194"/>
+    <hyperlink ref="L200" r:id="rId195"/>
+    <hyperlink ref="N200" r:id="rId196"/>
+    <hyperlink ref="P200" r:id="rId197"/>
+    <hyperlink ref="B204" r:id="rId198"/>
+    <hyperlink ref="L204" r:id="rId199"/>
+    <hyperlink ref="N204" r:id="rId200"/>
+    <hyperlink ref="P204" r:id="rId201"/>
+    <hyperlink ref="Q204" r:id="rId202"/>
+    <hyperlink ref="B206" r:id="rId203"/>
+    <hyperlink ref="L206" r:id="rId204"/>
+    <hyperlink ref="N206" r:id="rId205"/>
+    <hyperlink ref="P206" r:id="rId206"/>
+    <hyperlink ref="B210" r:id="rId207"/>
+    <hyperlink ref="L210" r:id="rId208"/>
+    <hyperlink ref="N210" r:id="rId209"/>
+    <hyperlink ref="P210" r:id="rId210"/>
+    <hyperlink ref="Q210" r:id="rId211"/>
+    <hyperlink ref="M212" r:id="rId212"/>
+    <hyperlink ref="N212" r:id="rId213"/>
+    <hyperlink ref="B213" r:id="rId214"/>
+    <hyperlink ref="L213" r:id="rId215"/>
+    <hyperlink ref="N213" r:id="rId216"/>
+    <hyperlink ref="Q213" r:id="rId217"/>
+    <hyperlink ref="B218" r:id="rId218"/>
+    <hyperlink ref="L218" r:id="rId219"/>
+    <hyperlink ref="N218" r:id="rId220"/>
+    <hyperlink ref="P218" r:id="rId221"/>
+    <hyperlink ref="Q218" r:id="rId222"/>
+    <hyperlink ref="B223" r:id="rId223"/>
+    <hyperlink ref="L223" r:id="rId224"/>
+    <hyperlink ref="N223" r:id="rId225"/>
+    <hyperlink ref="P223" r:id="rId226"/>
+    <hyperlink ref="Q223" r:id="rId227"/>
+    <hyperlink ref="R223" r:id="rId228"/>
+    <hyperlink ref="B229" r:id="rId229"/>
+    <hyperlink ref="L229" r:id="rId230"/>
+    <hyperlink ref="N229" r:id="rId231"/>
+    <hyperlink ref="P229" r:id="rId232"/>
+    <hyperlink ref="B236" r:id="rId233"/>
+    <hyperlink ref="L236" r:id="rId234"/>
+    <hyperlink ref="N236" r:id="rId235"/>
+    <hyperlink ref="P236" r:id="rId236"/>
+    <hyperlink ref="B245" r:id="rId237"/>
+    <hyperlink ref="L245" r:id="rId238"/>
+    <hyperlink ref="N245" r:id="rId239"/>
+    <hyperlink ref="P245" r:id="rId240"/>
+    <hyperlink ref="Q245" r:id="rId241"/>
+    <hyperlink ref="B251" r:id="rId242"/>
+    <hyperlink ref="L251" r:id="rId243"/>
+    <hyperlink ref="N251" r:id="rId244"/>
+    <hyperlink ref="P251" r:id="rId245"/>
+    <hyperlink ref="Q251" r:id="rId246"/>
+    <hyperlink ref="B255" r:id="rId247"/>
+    <hyperlink ref="L255" r:id="rId248"/>
+    <hyperlink ref="N255" r:id="rId249"/>
+    <hyperlink ref="B277" r:id="rId250"/>
+    <hyperlink ref="L277" r:id="rId251"/>
+    <hyperlink ref="N277" r:id="rId252"/>
+    <hyperlink ref="P277" r:id="rId253"/>
+    <hyperlink ref="Q277" r:id="rId254"/>
+    <hyperlink ref="B285" r:id="rId255"/>
+    <hyperlink ref="L285" r:id="rId256"/>
+    <hyperlink ref="N285" r:id="rId257"/>
+    <hyperlink ref="P285" r:id="rId258"/>
+    <hyperlink ref="Q285" r:id="rId259"/>
+    <hyperlink ref="B296" r:id="rId260"/>
+    <hyperlink ref="L296" r:id="rId261"/>
+    <hyperlink ref="N296" r:id="rId262"/>
+    <hyperlink ref="P296" r:id="rId263"/>
+    <hyperlink ref="Q296" r:id="rId264"/>
+    <hyperlink ref="B304" r:id="rId265"/>
+    <hyperlink ref="L304" r:id="rId266"/>
+    <hyperlink ref="N304" r:id="rId267"/>
+    <hyperlink ref="P304" r:id="rId268"/>
+    <hyperlink ref="Q304" r:id="rId269"/>
+    <hyperlink ref="B326" r:id="rId270"/>
+    <hyperlink ref="L326" r:id="rId271"/>
+    <hyperlink ref="N326" r:id="rId272"/>
+    <hyperlink ref="P326" r:id="rId273"/>
+    <hyperlink ref="B328" r:id="rId274"/>
+    <hyperlink ref="L328" r:id="rId275"/>
+    <hyperlink ref="N328" r:id="rId276"/>
+    <hyperlink ref="P328" r:id="rId277"/>
+    <hyperlink ref="Q328" r:id="rId278"/>
+    <hyperlink ref="B332" r:id="rId279"/>
+    <hyperlink ref="L332" r:id="rId280"/>
+    <hyperlink ref="N332" r:id="rId281"/>
+    <hyperlink ref="B335" r:id="rId282"/>
+    <hyperlink ref="L335" r:id="rId283"/>
+    <hyperlink ref="N335" r:id="rId284"/>
+    <hyperlink ref="P335" r:id="rId285"/>
+    <hyperlink ref="Q335" r:id="rId286"/>
+    <hyperlink ref="B337" r:id="rId287"/>
+    <hyperlink ref="L337" r:id="rId288"/>
+    <hyperlink ref="N337" r:id="rId289"/>
+    <hyperlink ref="P337" r:id="rId290"/>
+    <hyperlink ref="Q337" r:id="rId291"/>
+    <hyperlink ref="B343" r:id="rId292"/>
+    <hyperlink ref="L343" r:id="rId293"/>
+    <hyperlink ref="N343" r:id="rId294"/>
+    <hyperlink ref="P343" r:id="rId295"/>
+    <hyperlink ref="Q343" r:id="rId296"/>
+    <hyperlink ref="B344" r:id="rId297"/>
+    <hyperlink ref="L344" r:id="rId298"/>
+    <hyperlink ref="N344" r:id="rId299"/>
+    <hyperlink ref="Q344" r:id="rId300"/>
+    <hyperlink ref="B347" r:id="rId301"/>
+    <hyperlink ref="L347" r:id="rId302"/>
+    <hyperlink ref="N347" r:id="rId303"/>
+    <hyperlink ref="P347" r:id="rId304"/>
+    <hyperlink ref="Q347" r:id="rId305"/>
+    <hyperlink ref="B350" r:id="rId306"/>
+    <hyperlink ref="L350" r:id="rId307"/>
+    <hyperlink ref="N350" r:id="rId308"/>
+    <hyperlink ref="P350" r:id="rId309"/>
+    <hyperlink ref="Q350" r:id="rId310"/>
+    <hyperlink ref="B352" r:id="rId311"/>
+    <hyperlink ref="L352" r:id="rId312"/>
+    <hyperlink ref="N352" r:id="rId313"/>
+    <hyperlink ref="P352" r:id="rId314"/>
+    <hyperlink ref="Q352" r:id="rId315"/>
+    <hyperlink ref="R352" r:id="rId316"/>
+    <hyperlink ref="B391" r:id="rId317"/>
+    <hyperlink ref="L391" r:id="rId318"/>
+    <hyperlink ref="N391" r:id="rId319"/>
+    <hyperlink ref="P391" r:id="rId320"/>
+    <hyperlink ref="B393" r:id="rId321"/>
+    <hyperlink ref="L393" r:id="rId322"/>
+    <hyperlink ref="N393" r:id="rId323"/>
+    <hyperlink ref="P393" r:id="rId324"/>
+    <hyperlink ref="B394" r:id="rId325"/>
+    <hyperlink ref="L394" r:id="rId326"/>
+    <hyperlink ref="N394" r:id="rId327"/>
+    <hyperlink ref="Q394" r:id="rId328"/>
+    <hyperlink ref="B395" r:id="rId329"/>
+    <hyperlink ref="L395" r:id="rId330"/>
+    <hyperlink ref="N395" r:id="rId331"/>
+    <hyperlink ref="P395" r:id="rId332"/>
+    <hyperlink ref="B406" r:id="rId333"/>
+    <hyperlink ref="L406" r:id="rId334"/>
+    <hyperlink ref="N406" r:id="rId335"/>
+    <hyperlink ref="P406" r:id="rId336"/>
+    <hyperlink ref="B407" r:id="rId337"/>
+    <hyperlink ref="L407" r:id="rId338"/>
+    <hyperlink ref="N407" r:id="rId339"/>
+    <hyperlink ref="P407" r:id="rId340"/>
+    <hyperlink ref="B408" r:id="rId341"/>
+    <hyperlink ref="L408" r:id="rId342"/>
+    <hyperlink ref="N408" r:id="rId343"/>
+    <hyperlink ref="Q408" r:id="rId344"/>
+    <hyperlink ref="B410" r:id="rId345"/>
+    <hyperlink ref="L410" r:id="rId346"/>
+    <hyperlink ref="N410" r:id="rId347"/>
+    <hyperlink ref="P410" r:id="rId348"/>
+    <hyperlink ref="B411" r:id="rId349"/>
+    <hyperlink ref="L411" r:id="rId350"/>
+    <hyperlink ref="N411" r:id="rId351"/>
+    <hyperlink ref="Q411" r:id="rId352"/>
+    <hyperlink ref="B417" r:id="rId353"/>
+    <hyperlink ref="L417" r:id="rId354"/>
+    <hyperlink ref="N417" r:id="rId355"/>
+    <hyperlink ref="P417" r:id="rId356"/>
+    <hyperlink ref="B424" r:id="rId357"/>
+    <hyperlink ref="L424" r:id="rId358"/>
+    <hyperlink ref="N424" r:id="rId359"/>
+    <hyperlink ref="P424" r:id="rId360"/>
+    <hyperlink ref="B429" r:id="rId361"/>
+    <hyperlink ref="L429" r:id="rId362"/>
+    <hyperlink ref="N429" r:id="rId363"/>
+    <hyperlink ref="P429" r:id="rId364"/>
+    <hyperlink ref="B430" r:id="rId365"/>
+    <hyperlink ref="L430" r:id="rId366"/>
+    <hyperlink ref="N430" r:id="rId367"/>
+    <hyperlink ref="P430" r:id="rId368"/>
+    <hyperlink ref="B442" r:id="rId369"/>
+    <hyperlink ref="L442" r:id="rId370"/>
+    <hyperlink ref="N442" r:id="rId371"/>
+    <hyperlink ref="P442" r:id="rId372"/>
+    <hyperlink ref="Q442" r:id="rId373"/>
+    <hyperlink ref="B459" r:id="rId374"/>
+    <hyperlink ref="L459" r:id="rId375"/>
+    <hyperlink ref="N459" r:id="rId376"/>
+    <hyperlink ref="P459" r:id="rId377"/>
+    <hyperlink ref="Q459" r:id="rId378"/>
+    <hyperlink ref="N464" r:id="rId379"/>
+    <hyperlink ref="B475" r:id="rId380"/>
+    <hyperlink ref="L475" r:id="rId381"/>
+    <hyperlink ref="N475" r:id="rId382"/>
+    <hyperlink ref="P475" r:id="rId383"/>
+    <hyperlink ref="R475" r:id="rId384"/>
+    <hyperlink ref="B481" r:id="rId385"/>
+    <hyperlink ref="L481" r:id="rId386"/>
+    <hyperlink ref="N481" r:id="rId387"/>
+    <hyperlink ref="P481" r:id="rId388"/>
+    <hyperlink ref="B483" r:id="rId389"/>
+    <hyperlink ref="L483" r:id="rId390"/>
+    <hyperlink ref="N483" r:id="rId391"/>
+    <hyperlink ref="B486" r:id="rId392"/>
+    <hyperlink ref="L486" r:id="rId393"/>
+    <hyperlink ref="N486" r:id="rId394"/>
+    <hyperlink ref="B489" r:id="rId395"/>
+    <hyperlink ref="L489" r:id="rId396"/>
+    <hyperlink ref="N489" r:id="rId397"/>
+    <hyperlink ref="P489" r:id="rId398"/>
+    <hyperlink ref="B493" r:id="rId399"/>
+    <hyperlink ref="L493" r:id="rId400"/>
+    <hyperlink ref="N493" r:id="rId401"/>
+    <hyperlink ref="P493" r:id="rId402"/>
+    <hyperlink ref="B494" r:id="rId403"/>
+    <hyperlink ref="L494" r:id="rId404"/>
+    <hyperlink ref="N494" r:id="rId405"/>
+    <hyperlink ref="P494" r:id="rId406"/>
+    <hyperlink ref="B497" r:id="rId407"/>
+    <hyperlink ref="L497" r:id="rId408"/>
+    <hyperlink ref="N497" r:id="rId409"/>
+    <hyperlink ref="P497" r:id="rId410"/>
+    <hyperlink ref="B508" r:id="rId411"/>
+    <hyperlink ref="L508" r:id="rId412"/>
+    <hyperlink ref="N508" r:id="rId413"/>
+    <hyperlink ref="P508" r:id="rId414"/>
+    <hyperlink ref="B511" r:id="rId415"/>
+    <hyperlink ref="L511" r:id="rId416"/>
+    <hyperlink ref="N511" r:id="rId417"/>
+    <hyperlink ref="P511" r:id="rId418"/>
+    <hyperlink ref="R511" r:id="rId419"/>
+    <hyperlink ref="B522" r:id="rId420"/>
+    <hyperlink ref="L522" r:id="rId421"/>
+    <hyperlink ref="N522" r:id="rId422"/>
+    <hyperlink ref="P522" r:id="rId423"/>
+    <hyperlink ref="Q522" r:id="rId424"/>
+    <hyperlink ref="R522" r:id="rId425"/>
+    <hyperlink ref="B525" r:id="rId426"/>
+    <hyperlink ref="L525" r:id="rId427"/>
+    <hyperlink ref="N525" r:id="rId428"/>
+    <hyperlink ref="P525" r:id="rId429"/>
+    <hyperlink ref="B526" r:id="rId430"/>
+    <hyperlink ref="L526" r:id="rId431"/>
+    <hyperlink ref="N526" r:id="rId432"/>
+    <hyperlink ref="Q526" r:id="rId433"/>
+    <hyperlink ref="B528" r:id="rId434"/>
+    <hyperlink ref="L528" r:id="rId435"/>
+    <hyperlink ref="N528" r:id="rId436"/>
+    <hyperlink ref="P528" r:id="rId437"/>
+    <hyperlink ref="B530" r:id="rId438"/>
+    <hyperlink ref="L530" r:id="rId439"/>
+    <hyperlink ref="N530" r:id="rId440"/>
+    <hyperlink ref="P530" r:id="rId441"/>
+    <hyperlink ref="B531" r:id="rId442"/>
+    <hyperlink ref="L531" r:id="rId443"/>
+    <hyperlink ref="N531" r:id="rId444"/>
+    <hyperlink ref="P531" r:id="rId445"/>
+    <hyperlink ref="B532" r:id="rId446"/>
+    <hyperlink ref="L532" r:id="rId447"/>
+    <hyperlink ref="N532" r:id="rId448"/>
+    <hyperlink ref="Q532" r:id="rId449"/>
+    <hyperlink ref="B533" r:id="rId450"/>
+    <hyperlink ref="L533" r:id="rId451"/>
+    <hyperlink ref="N533" r:id="rId452"/>
+    <hyperlink ref="Q533" r:id="rId453"/>
+    <hyperlink ref="B534" r:id="rId454"/>
+    <hyperlink ref="L534" r:id="rId455"/>
+    <hyperlink ref="N534" r:id="rId456"/>
+    <hyperlink ref="Q534" r:id="rId457"/>
+    <hyperlink ref="B545" r:id="rId458"/>
+    <hyperlink ref="L545" r:id="rId459"/>
+    <hyperlink ref="N545" r:id="rId460"/>
+    <hyperlink ref="P545" r:id="rId461"/>
+    <hyperlink ref="Q545" r:id="rId462"/>
+    <hyperlink ref="N553" r:id="rId463"/>
+    <hyperlink ref="B554" r:id="rId464"/>
+    <hyperlink ref="L554" r:id="rId465"/>
+    <hyperlink ref="N554" r:id="rId466"/>
+    <hyperlink ref="P554" r:id="rId467"/>
+    <hyperlink ref="Q554" r:id="rId468"/>
+    <hyperlink ref="B561" r:id="rId469"/>
+    <hyperlink ref="L561" r:id="rId470"/>
+    <hyperlink ref="N561" r:id="rId471"/>
+    <hyperlink ref="P561" r:id="rId472"/>
+    <hyperlink ref="Q561" r:id="rId473"/>
+    <hyperlink ref="B562" r:id="rId474"/>
+    <hyperlink ref="L562" r:id="rId475"/>
+    <hyperlink ref="N562" r:id="rId476"/>
+    <hyperlink ref="Q562" r:id="rId477"/>
+    <hyperlink ref="B563" r:id="rId478"/>
+    <hyperlink ref="L563" r:id="rId479"/>
+    <hyperlink ref="N563" r:id="rId480"/>
+    <hyperlink ref="Q563" r:id="rId481"/>
+    <hyperlink ref="B584" r:id="rId482"/>
+    <hyperlink ref="L584" r:id="rId483"/>
+    <hyperlink ref="N584" r:id="rId484"/>
+    <hyperlink ref="P584" r:id="rId485"/>
+    <hyperlink ref="R584" r:id="rId486"/>
+    <hyperlink ref="B594" r:id="rId487"/>
+    <hyperlink ref="L594" r:id="rId488"/>
+    <hyperlink ref="N594" r:id="rId489"/>
+    <hyperlink ref="P594" r:id="rId490"/>
+    <hyperlink ref="Q594" r:id="rId491"/>
+    <hyperlink ref="B620" r:id="rId492"/>
+    <hyperlink ref="L620" r:id="rId493"/>
+    <hyperlink ref="N620" r:id="rId494"/>
+    <hyperlink ref="P620" r:id="rId495"/>
+    <hyperlink ref="Q620" r:id="rId496"/>
+    <hyperlink ref="B621" r:id="rId497"/>
+    <hyperlink ref="L621" r:id="rId498"/>
+    <hyperlink ref="N621" r:id="rId499"/>
+    <hyperlink ref="O621" r:id="rId500"/>
+    <hyperlink ref="Q621" r:id="rId501"/>
+    <hyperlink ref="B630" r:id="rId502"/>
+    <hyperlink ref="N630" r:id="rId503"/>
+    <hyperlink ref="P630" r:id="rId504"/>
+    <hyperlink ref="B639" r:id="rId505"/>
+    <hyperlink ref="L639" r:id="rId506"/>
+    <hyperlink ref="N639" r:id="rId507"/>
+    <hyperlink ref="P639" r:id="rId508"/>
+    <hyperlink ref="B646" r:id="rId509"/>
+    <hyperlink ref="L646" r:id="rId510"/>
+    <hyperlink ref="N646" r:id="rId511"/>
   </hyperlinks>
   <pageSetup paperSize="66" scale="100" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>

--- a/last_snapshot.xlsx
+++ b/last_snapshot.xlsx
@@ -773,7 +773,7 @@
   <si>
     <t xml:space="preserve">Filing/Order Docket No. RM15-14-000
 With the approval of CIP-003-7 and its associated Implementation Plan, entities will not be required to implement CIP-003-6, Requirement R2, Attachment 1, Sections 2 and 3. Instead, entities will implement CIP-003-7, Requirement R2, Attachment 1 Sections 2 and 3 on January 1, 2020. See Implementation Plan for CIP-003-7.
-See CIP V5 Effective Dates here under Key Resources: http://www.nerc.com/pa/CI/Pages/Transition-Program.aspx.</t>
+</t>
   </si>
   <si>
     <t>Project 2014-02</t>
@@ -5613,7 +5613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom"/>
@@ -5669,9 +5669,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8825,7 +8822,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="159.99" customHeight="1">
+    <row r="75" s="1" customFormat="1" ht="138.1247" customHeight="1">
       <c r="A75" s="11" t="s">
         <v>18</v>
       </c>
@@ -8860,7 +8857,7 @@
         <v>43830</v>
       </c>
       <c r="L75" s="12"/>
-      <c r="M75" s="19" t="s">
+      <c r="M75" s="17" t="s">
         <v>245</v>
       </c>
       <c r="N75" s="12" t="s">
@@ -8957,7 +8954,7 @@
         <v>210</v>
       </c>
       <c r="O77" s="14"/>
-      <c r="P77" s="20" t="s">
+      <c r="P77" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q77" s="12"/>
@@ -9899,7 +9896,7 @@
         <v>309</v>
       </c>
       <c r="O99" s="14"/>
-      <c r="P99" s="20" t="s">
+      <c r="P99" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q99" s="18" t="s">
@@ -10587,7 +10584,7 @@
         <v>34</v>
       </c>
       <c r="Q116" s="7"/>
-      <c r="R116" s="22" t="s">
+      <c r="R116" s="21" t="s">
         <v>348</v>
       </c>
     </row>
@@ -11029,7 +11026,7 @@
         <v>246</v>
       </c>
       <c r="O127" s="14"/>
-      <c r="P127" s="20" t="s">
+      <c r="P127" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q127" s="12"/>
@@ -11635,7 +11632,7 @@
         <v>246</v>
       </c>
       <c r="O141" s="14"/>
-      <c r="P141" s="20" t="s">
+      <c r="P141" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q141" s="12"/>
@@ -12173,7 +12170,7 @@
         <v>438</v>
       </c>
       <c r="O153" s="14"/>
-      <c r="P153" s="20" t="s">
+      <c r="P153" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q153" s="18" t="s">
@@ -12265,13 +12262,13 @@
         <v>309</v>
       </c>
       <c r="O155" s="14"/>
-      <c r="P155" s="20" t="s">
+      <c r="P155" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q155" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R155" s="24" t="s">
+      <c r="R155" s="23" t="s">
         <v>443</v>
       </c>
     </row>
@@ -12445,7 +12442,7 @@
         <v>457</v>
       </c>
       <c r="O159" s="14"/>
-      <c r="P159" s="20" t="s">
+      <c r="P159" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q159" s="12"/>
@@ -15173,7 +15170,7 @@
         <v>634</v>
       </c>
       <c r="O223" s="14"/>
-      <c r="P223" s="20" t="s">
+      <c r="P223" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q223" s="18" t="s">
@@ -15433,7 +15430,7 @@
         <v>669</v>
       </c>
       <c r="O229" s="14"/>
-      <c r="P229" s="20" t="s">
+      <c r="P229" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q229" s="12"/>
@@ -16099,7 +16096,7 @@
         <v>457</v>
       </c>
       <c r="O245" s="14"/>
-      <c r="P245" s="20" t="s">
+      <c r="P245" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q245" s="18" t="s">
@@ -16357,7 +16354,7 @@
         <v>457</v>
       </c>
       <c r="O251" s="14"/>
-      <c r="P251" s="20" t="s">
+      <c r="P251" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q251" s="18" t="s">
@@ -17417,7 +17414,7 @@
         <v>690</v>
       </c>
       <c r="O277" s="14"/>
-      <c r="P277" s="20" t="s">
+      <c r="P277" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q277" s="18" t="s">
@@ -17761,7 +17758,7 @@
         <v>690</v>
       </c>
       <c r="O285" s="14"/>
-      <c r="P285" s="20" t="s">
+      <c r="P285" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q285" s="18" t="s">
@@ -19827,7 +19824,7 @@
         <v>457</v>
       </c>
       <c r="O335" s="14"/>
-      <c r="P335" s="20" t="s">
+      <c r="P335" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q335" s="18" t="s">
@@ -19919,7 +19916,7 @@
         <v>922</v>
       </c>
       <c r="O337" s="14"/>
-      <c r="P337" s="20" t="s">
+      <c r="P337" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q337" s="18" t="s">
@@ -20185,7 +20182,7 @@
         <v>963</v>
       </c>
       <c r="O343" s="14"/>
-      <c r="P343" s="20" t="s">
+      <c r="P343" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q343" s="18" t="s">
@@ -20355,7 +20352,7 @@
         <v>840</v>
       </c>
       <c r="O347" s="14"/>
-      <c r="P347" s="20" t="s">
+      <c r="P347" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q347" s="18" t="s">
@@ -22147,7 +22144,7 @@
         <v>1106</v>
       </c>
       <c r="O391" s="14"/>
-      <c r="P391" s="20" t="s">
+      <c r="P391" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q391" s="12"/>
@@ -22229,7 +22226,7 @@
         <v>1106</v>
       </c>
       <c r="O393" s="14"/>
-      <c r="P393" s="20" t="s">
+      <c r="P393" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q393" s="12"/>
@@ -22319,7 +22316,7 @@
         <v>1106</v>
       </c>
       <c r="O395" s="14"/>
-      <c r="P395" s="20" t="s">
+      <c r="P395" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q395" s="12"/>
@@ -22839,7 +22836,7 @@
         <v>1158</v>
       </c>
       <c r="O407" s="14"/>
-      <c r="P407" s="20" t="s">
+      <c r="P407" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q407" s="12"/>
@@ -23257,7 +23254,7 @@
         <v>645</v>
       </c>
       <c r="O417" s="14"/>
-      <c r="P417" s="20" t="s">
+      <c r="P417" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q417" s="12"/>
@@ -23775,7 +23772,7 @@
         <v>1219</v>
       </c>
       <c r="O429" s="14"/>
-      <c r="P429" s="20" t="s">
+      <c r="P429" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q429" s="12"/>
@@ -25051,7 +25048,7 @@
         <v>690</v>
       </c>
       <c r="O459" s="14"/>
-      <c r="P459" s="20" t="s">
+      <c r="P459" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q459" s="18" t="s">
@@ -25719,7 +25716,7 @@
         <v>1347</v>
       </c>
       <c r="O475" s="14"/>
-      <c r="P475" s="20" t="s">
+      <c r="P475" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q475" s="12"/>
@@ -25973,7 +25970,7 @@
         <v>71</v>
       </c>
       <c r="O481" s="14"/>
-      <c r="P481" s="20" t="s">
+      <c r="P481" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q481" s="12"/>
@@ -26324,7 +26321,7 @@
         <v>1048</v>
       </c>
       <c r="O489" s="14"/>
-      <c r="P489" s="20" t="s">
+      <c r="P489" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q489" s="12"/>
@@ -26502,7 +26499,7 @@
         <v>1301</v>
       </c>
       <c r="O493" s="14"/>
-      <c r="P493" s="20" t="s">
+      <c r="P493" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q493" s="12"/>
@@ -26672,7 +26669,7 @@
         <v>1412</v>
       </c>
       <c r="O497" s="14"/>
-      <c r="P497" s="20" t="s">
+      <c r="P497" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q497" s="12"/>
@@ -27268,7 +27265,7 @@
         <v>1235</v>
       </c>
       <c r="O511" s="14"/>
-      <c r="P511" s="20" t="s">
+      <c r="P511" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q511" s="12"/>
@@ -27740,7 +27737,7 @@
       <c r="Q522" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R522" s="22" t="s">
+      <c r="R522" s="21" t="s">
         <v>282</v>
       </c>
     </row>
@@ -27874,7 +27871,7 @@
         <v>1487</v>
       </c>
       <c r="O525" s="14"/>
-      <c r="P525" s="20" t="s">
+      <c r="P525" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q525" s="12"/>
@@ -28152,7 +28149,7 @@
         <v>1508</v>
       </c>
       <c r="O531" s="14"/>
-      <c r="P531" s="20" t="s">
+      <c r="P531" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q531" s="12"/>
@@ -28760,7 +28757,7 @@
         <v>457</v>
       </c>
       <c r="O545" s="14"/>
-      <c r="P545" s="20" t="s">
+      <c r="P545" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q545" s="18" t="s">
@@ -29438,7 +29435,7 @@
         <v>963</v>
       </c>
       <c r="O561" s="14"/>
-      <c r="P561" s="20" t="s">
+      <c r="P561" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q561" s="18" t="s">
@@ -31945,7 +31942,7 @@
       <c r="N621" s="18" t="s">
         <v>1712</v>
       </c>
-      <c r="O621" s="26" t="s">
+      <c r="O621" s="25" t="s">
         <v>1713</v>
       </c>
       <c r="P621" s="14"/>
@@ -32714,7 +32711,7 @@
         <v>1732</v>
       </c>
       <c r="O639" s="14"/>
-      <c r="P639" s="20" t="s">
+      <c r="P639" s="19" t="s">
         <v>34</v>
       </c>
       <c r="Q639" s="12"/>
@@ -33171,455 +33168,454 @@
     <hyperlink ref="L68" r:id="rId54"/>
     <hyperlink ref="N68" r:id="rId55"/>
     <hyperlink ref="Q68" r:id="rId56"/>
-    <hyperlink ref="M75" r:id="rId57"/>
-    <hyperlink ref="B77" r:id="rId58"/>
-    <hyperlink ref="L77" r:id="rId59"/>
-    <hyperlink ref="N77" r:id="rId60"/>
-    <hyperlink ref="P77" r:id="rId61"/>
-    <hyperlink ref="B78" r:id="rId62"/>
-    <hyperlink ref="L78" r:id="rId63"/>
-    <hyperlink ref="N78" r:id="rId64"/>
-    <hyperlink ref="P78" r:id="rId65"/>
-    <hyperlink ref="Q78" r:id="rId66"/>
-    <hyperlink ref="B88" r:id="rId67"/>
-    <hyperlink ref="L88" r:id="rId68"/>
-    <hyperlink ref="N88" r:id="rId69"/>
-    <hyperlink ref="P88" r:id="rId70"/>
-    <hyperlink ref="Q88" r:id="rId71"/>
-    <hyperlink ref="R88" r:id="rId72"/>
-    <hyperlink ref="B89" r:id="rId73"/>
-    <hyperlink ref="L89" r:id="rId74"/>
-    <hyperlink ref="N89" r:id="rId75"/>
-    <hyperlink ref="Q89" r:id="rId76"/>
-    <hyperlink ref="B99" r:id="rId77"/>
-    <hyperlink ref="L99" r:id="rId78"/>
-    <hyperlink ref="N99" r:id="rId79"/>
-    <hyperlink ref="P99" r:id="rId80"/>
-    <hyperlink ref="Q99" r:id="rId81"/>
-    <hyperlink ref="B100" r:id="rId82"/>
-    <hyperlink ref="L100" r:id="rId83"/>
-    <hyperlink ref="N100" r:id="rId84"/>
-    <hyperlink ref="Q100" r:id="rId85"/>
-    <hyperlink ref="B116" r:id="rId86"/>
-    <hyperlink ref="L116" r:id="rId87"/>
-    <hyperlink ref="N116" r:id="rId88"/>
-    <hyperlink ref="P116" r:id="rId89"/>
-    <hyperlink ref="R116" r:id="rId90"/>
-    <hyperlink ref="B117" r:id="rId91"/>
-    <hyperlink ref="L117" r:id="rId92"/>
-    <hyperlink ref="N117" r:id="rId93"/>
-    <hyperlink ref="Q117" r:id="rId94"/>
-    <hyperlink ref="B127" r:id="rId95"/>
-    <hyperlink ref="L127" r:id="rId96"/>
-    <hyperlink ref="N127" r:id="rId97"/>
-    <hyperlink ref="P127" r:id="rId98"/>
-    <hyperlink ref="R127" r:id="rId99"/>
-    <hyperlink ref="B128" r:id="rId100"/>
-    <hyperlink ref="L128" r:id="rId101"/>
-    <hyperlink ref="N128" r:id="rId102"/>
-    <hyperlink ref="Q128" r:id="rId103"/>
-    <hyperlink ref="B134" r:id="rId104"/>
-    <hyperlink ref="L134" r:id="rId105"/>
-    <hyperlink ref="N134" r:id="rId106"/>
-    <hyperlink ref="P134" r:id="rId107"/>
-    <hyperlink ref="Q134" r:id="rId108"/>
-    <hyperlink ref="B135" r:id="rId109"/>
-    <hyperlink ref="L135" r:id="rId110"/>
-    <hyperlink ref="N135" r:id="rId111"/>
-    <hyperlink ref="Q135" r:id="rId112"/>
-    <hyperlink ref="B141" r:id="rId113"/>
-    <hyperlink ref="L141" r:id="rId114"/>
-    <hyperlink ref="N141" r:id="rId115"/>
-    <hyperlink ref="P141" r:id="rId116"/>
-    <hyperlink ref="R141" r:id="rId117"/>
-    <hyperlink ref="B142" r:id="rId118"/>
-    <hyperlink ref="L142" r:id="rId119"/>
-    <hyperlink ref="N142" r:id="rId120"/>
-    <hyperlink ref="Q142" r:id="rId121"/>
-    <hyperlink ref="B146" r:id="rId122"/>
-    <hyperlink ref="L146" r:id="rId123"/>
-    <hyperlink ref="N146" r:id="rId124"/>
-    <hyperlink ref="P146" r:id="rId125"/>
-    <hyperlink ref="Q146" r:id="rId126"/>
-    <hyperlink ref="R146" r:id="rId127"/>
-    <hyperlink ref="B147" r:id="rId128"/>
-    <hyperlink ref="L147" r:id="rId129"/>
-    <hyperlink ref="N147" r:id="rId130"/>
-    <hyperlink ref="Q147" r:id="rId131"/>
-    <hyperlink ref="B150" r:id="rId132"/>
-    <hyperlink ref="L150" r:id="rId133"/>
-    <hyperlink ref="N150" r:id="rId134"/>
-    <hyperlink ref="P150" r:id="rId135"/>
-    <hyperlink ref="Q150" r:id="rId136"/>
-    <hyperlink ref="R150" r:id="rId137"/>
-    <hyperlink ref="B151" r:id="rId138"/>
-    <hyperlink ref="L151" r:id="rId139"/>
-    <hyperlink ref="N151" r:id="rId140"/>
-    <hyperlink ref="Q151" r:id="rId141"/>
-    <hyperlink ref="B152" r:id="rId142"/>
-    <hyperlink ref="L152" r:id="rId143"/>
-    <hyperlink ref="N152" r:id="rId144"/>
-    <hyperlink ref="P152" r:id="rId145"/>
-    <hyperlink ref="Q152" r:id="rId146"/>
-    <hyperlink ref="R152" r:id="rId147"/>
-    <hyperlink ref="B153" r:id="rId148"/>
-    <hyperlink ref="L153" r:id="rId149"/>
-    <hyperlink ref="N153" r:id="rId150"/>
-    <hyperlink ref="P153" r:id="rId151"/>
-    <hyperlink ref="Q153" r:id="rId152"/>
-    <hyperlink ref="B155" r:id="rId153"/>
-    <hyperlink ref="L155" r:id="rId154"/>
-    <hyperlink ref="N155" r:id="rId155"/>
-    <hyperlink ref="P155" r:id="rId156"/>
-    <hyperlink ref="Q155" r:id="rId157"/>
-    <hyperlink ref="R155" r:id="rId158"/>
-    <hyperlink ref="B156" r:id="rId159"/>
-    <hyperlink ref="L156" r:id="rId160"/>
-    <hyperlink ref="N156" r:id="rId161"/>
-    <hyperlink ref="Q156" r:id="rId162"/>
-    <hyperlink ref="B159" r:id="rId163"/>
-    <hyperlink ref="L159" r:id="rId164"/>
-    <hyperlink ref="N159" r:id="rId165"/>
-    <hyperlink ref="P159" r:id="rId166"/>
-    <hyperlink ref="R159" r:id="rId167"/>
-    <hyperlink ref="B160" r:id="rId168"/>
-    <hyperlink ref="L160" r:id="rId169"/>
-    <hyperlink ref="N160" r:id="rId170"/>
-    <hyperlink ref="Q160" r:id="rId171"/>
-    <hyperlink ref="B166" r:id="rId172"/>
-    <hyperlink ref="L166" r:id="rId173"/>
-    <hyperlink ref="N166" r:id="rId174"/>
-    <hyperlink ref="P166" r:id="rId175"/>
-    <hyperlink ref="B172" r:id="rId176"/>
-    <hyperlink ref="L172" r:id="rId177"/>
-    <hyperlink ref="N172" r:id="rId178"/>
-    <hyperlink ref="P172" r:id="rId179"/>
-    <hyperlink ref="Q172" r:id="rId180"/>
-    <hyperlink ref="B192" r:id="rId181"/>
-    <hyperlink ref="L192" r:id="rId182"/>
-    <hyperlink ref="N192" r:id="rId183"/>
-    <hyperlink ref="P192" r:id="rId184"/>
-    <hyperlink ref="B196" r:id="rId185"/>
-    <hyperlink ref="L196" r:id="rId186"/>
-    <hyperlink ref="N196" r:id="rId187"/>
-    <hyperlink ref="P196" r:id="rId188"/>
-    <hyperlink ref="B200" r:id="rId189"/>
-    <hyperlink ref="L200" r:id="rId190"/>
-    <hyperlink ref="N200" r:id="rId191"/>
-    <hyperlink ref="P200" r:id="rId192"/>
-    <hyperlink ref="B204" r:id="rId193"/>
-    <hyperlink ref="L204" r:id="rId194"/>
-    <hyperlink ref="N204" r:id="rId195"/>
-    <hyperlink ref="P204" r:id="rId196"/>
-    <hyperlink ref="Q204" r:id="rId197"/>
-    <hyperlink ref="B206" r:id="rId198"/>
-    <hyperlink ref="L206" r:id="rId199"/>
-    <hyperlink ref="N206" r:id="rId200"/>
-    <hyperlink ref="P206" r:id="rId201"/>
-    <hyperlink ref="B210" r:id="rId202"/>
-    <hyperlink ref="L210" r:id="rId203"/>
-    <hyperlink ref="N210" r:id="rId204"/>
-    <hyperlink ref="P210" r:id="rId205"/>
-    <hyperlink ref="Q210" r:id="rId206"/>
-    <hyperlink ref="N212" r:id="rId207"/>
-    <hyperlink ref="B213" r:id="rId208"/>
-    <hyperlink ref="L213" r:id="rId209"/>
-    <hyperlink ref="N213" r:id="rId210"/>
-    <hyperlink ref="Q213" r:id="rId211"/>
-    <hyperlink ref="B218" r:id="rId212"/>
-    <hyperlink ref="L218" r:id="rId213"/>
-    <hyperlink ref="N218" r:id="rId214"/>
-    <hyperlink ref="P218" r:id="rId215"/>
-    <hyperlink ref="Q218" r:id="rId216"/>
-    <hyperlink ref="B223" r:id="rId217"/>
-    <hyperlink ref="L223" r:id="rId218"/>
-    <hyperlink ref="N223" r:id="rId219"/>
-    <hyperlink ref="P223" r:id="rId220"/>
-    <hyperlink ref="Q223" r:id="rId221"/>
-    <hyperlink ref="R223" r:id="rId222"/>
-    <hyperlink ref="B229" r:id="rId223"/>
-    <hyperlink ref="L229" r:id="rId224"/>
-    <hyperlink ref="N229" r:id="rId225"/>
-    <hyperlink ref="P229" r:id="rId226"/>
-    <hyperlink ref="B236" r:id="rId227"/>
-    <hyperlink ref="L236" r:id="rId228"/>
-    <hyperlink ref="N236" r:id="rId229"/>
-    <hyperlink ref="P236" r:id="rId230"/>
-    <hyperlink ref="B245" r:id="rId231"/>
-    <hyperlink ref="L245" r:id="rId232"/>
-    <hyperlink ref="N245" r:id="rId233"/>
-    <hyperlink ref="P245" r:id="rId234"/>
-    <hyperlink ref="Q245" r:id="rId235"/>
-    <hyperlink ref="B251" r:id="rId236"/>
-    <hyperlink ref="L251" r:id="rId237"/>
-    <hyperlink ref="N251" r:id="rId238"/>
-    <hyperlink ref="P251" r:id="rId239"/>
-    <hyperlink ref="Q251" r:id="rId240"/>
-    <hyperlink ref="B255" r:id="rId241"/>
-    <hyperlink ref="L255" r:id="rId242"/>
-    <hyperlink ref="N255" r:id="rId243"/>
-    <hyperlink ref="B277" r:id="rId244"/>
-    <hyperlink ref="L277" r:id="rId245"/>
-    <hyperlink ref="N277" r:id="rId246"/>
-    <hyperlink ref="P277" r:id="rId247"/>
-    <hyperlink ref="Q277" r:id="rId248"/>
-    <hyperlink ref="B285" r:id="rId249"/>
-    <hyperlink ref="L285" r:id="rId250"/>
-    <hyperlink ref="N285" r:id="rId251"/>
-    <hyperlink ref="P285" r:id="rId252"/>
-    <hyperlink ref="Q285" r:id="rId253"/>
-    <hyperlink ref="B296" r:id="rId254"/>
-    <hyperlink ref="L296" r:id="rId255"/>
-    <hyperlink ref="N296" r:id="rId256"/>
-    <hyperlink ref="P296" r:id="rId257"/>
-    <hyperlink ref="Q296" r:id="rId258"/>
-    <hyperlink ref="B304" r:id="rId259"/>
-    <hyperlink ref="L304" r:id="rId260"/>
-    <hyperlink ref="N304" r:id="rId261"/>
-    <hyperlink ref="P304" r:id="rId262"/>
-    <hyperlink ref="Q304" r:id="rId263"/>
-    <hyperlink ref="B326" r:id="rId264"/>
-    <hyperlink ref="L326" r:id="rId265"/>
-    <hyperlink ref="N326" r:id="rId266"/>
-    <hyperlink ref="P326" r:id="rId267"/>
-    <hyperlink ref="B328" r:id="rId268"/>
-    <hyperlink ref="L328" r:id="rId269"/>
-    <hyperlink ref="N328" r:id="rId270"/>
-    <hyperlink ref="P328" r:id="rId271"/>
-    <hyperlink ref="Q328" r:id="rId272"/>
-    <hyperlink ref="B332" r:id="rId273"/>
-    <hyperlink ref="L332" r:id="rId274"/>
-    <hyperlink ref="N332" r:id="rId275"/>
-    <hyperlink ref="B335" r:id="rId276"/>
-    <hyperlink ref="L335" r:id="rId277"/>
-    <hyperlink ref="N335" r:id="rId278"/>
-    <hyperlink ref="P335" r:id="rId279"/>
-    <hyperlink ref="Q335" r:id="rId280"/>
-    <hyperlink ref="B337" r:id="rId281"/>
-    <hyperlink ref="L337" r:id="rId282"/>
-    <hyperlink ref="N337" r:id="rId283"/>
-    <hyperlink ref="P337" r:id="rId284"/>
-    <hyperlink ref="Q337" r:id="rId285"/>
-    <hyperlink ref="B343" r:id="rId286"/>
-    <hyperlink ref="L343" r:id="rId287"/>
-    <hyperlink ref="N343" r:id="rId288"/>
-    <hyperlink ref="P343" r:id="rId289"/>
-    <hyperlink ref="Q343" r:id="rId290"/>
-    <hyperlink ref="B344" r:id="rId291"/>
-    <hyperlink ref="L344" r:id="rId292"/>
-    <hyperlink ref="N344" r:id="rId293"/>
-    <hyperlink ref="Q344" r:id="rId294"/>
-    <hyperlink ref="B347" r:id="rId295"/>
-    <hyperlink ref="L347" r:id="rId296"/>
-    <hyperlink ref="N347" r:id="rId297"/>
-    <hyperlink ref="P347" r:id="rId298"/>
-    <hyperlink ref="Q347" r:id="rId299"/>
-    <hyperlink ref="B350" r:id="rId300"/>
-    <hyperlink ref="L350" r:id="rId301"/>
-    <hyperlink ref="N350" r:id="rId302"/>
-    <hyperlink ref="P350" r:id="rId303"/>
-    <hyperlink ref="Q350" r:id="rId304"/>
-    <hyperlink ref="B352" r:id="rId305"/>
-    <hyperlink ref="L352" r:id="rId306"/>
-    <hyperlink ref="N352" r:id="rId307"/>
-    <hyperlink ref="P352" r:id="rId308"/>
-    <hyperlink ref="Q352" r:id="rId309"/>
-    <hyperlink ref="R352" r:id="rId310"/>
-    <hyperlink ref="B391" r:id="rId311"/>
-    <hyperlink ref="L391" r:id="rId312"/>
-    <hyperlink ref="N391" r:id="rId313"/>
-    <hyperlink ref="P391" r:id="rId314"/>
-    <hyperlink ref="B393" r:id="rId315"/>
-    <hyperlink ref="L393" r:id="rId316"/>
-    <hyperlink ref="N393" r:id="rId317"/>
-    <hyperlink ref="P393" r:id="rId318"/>
-    <hyperlink ref="B394" r:id="rId319"/>
-    <hyperlink ref="L394" r:id="rId320"/>
-    <hyperlink ref="N394" r:id="rId321"/>
-    <hyperlink ref="Q394" r:id="rId322"/>
-    <hyperlink ref="B395" r:id="rId323"/>
-    <hyperlink ref="L395" r:id="rId324"/>
-    <hyperlink ref="N395" r:id="rId325"/>
-    <hyperlink ref="P395" r:id="rId326"/>
-    <hyperlink ref="B406" r:id="rId327"/>
-    <hyperlink ref="L406" r:id="rId328"/>
-    <hyperlink ref="N406" r:id="rId329"/>
-    <hyperlink ref="P406" r:id="rId330"/>
-    <hyperlink ref="B407" r:id="rId331"/>
-    <hyperlink ref="L407" r:id="rId332"/>
-    <hyperlink ref="N407" r:id="rId333"/>
-    <hyperlink ref="P407" r:id="rId334"/>
-    <hyperlink ref="B408" r:id="rId335"/>
-    <hyperlink ref="L408" r:id="rId336"/>
-    <hyperlink ref="N408" r:id="rId337"/>
-    <hyperlink ref="Q408" r:id="rId338"/>
-    <hyperlink ref="B410" r:id="rId339"/>
-    <hyperlink ref="L410" r:id="rId340"/>
-    <hyperlink ref="N410" r:id="rId341"/>
-    <hyperlink ref="P410" r:id="rId342"/>
-    <hyperlink ref="B411" r:id="rId343"/>
-    <hyperlink ref="L411" r:id="rId344"/>
-    <hyperlink ref="N411" r:id="rId345"/>
-    <hyperlink ref="Q411" r:id="rId346"/>
-    <hyperlink ref="B417" r:id="rId347"/>
-    <hyperlink ref="L417" r:id="rId348"/>
-    <hyperlink ref="N417" r:id="rId349"/>
-    <hyperlink ref="P417" r:id="rId350"/>
-    <hyperlink ref="B424" r:id="rId351"/>
-    <hyperlink ref="L424" r:id="rId352"/>
-    <hyperlink ref="N424" r:id="rId353"/>
-    <hyperlink ref="P424" r:id="rId354"/>
-    <hyperlink ref="B429" r:id="rId355"/>
-    <hyperlink ref="L429" r:id="rId356"/>
-    <hyperlink ref="N429" r:id="rId357"/>
-    <hyperlink ref="P429" r:id="rId358"/>
-    <hyperlink ref="B430" r:id="rId359"/>
-    <hyperlink ref="L430" r:id="rId360"/>
-    <hyperlink ref="N430" r:id="rId361"/>
-    <hyperlink ref="P430" r:id="rId362"/>
-    <hyperlink ref="B442" r:id="rId363"/>
-    <hyperlink ref="L442" r:id="rId364"/>
-    <hyperlink ref="N442" r:id="rId365"/>
-    <hyperlink ref="P442" r:id="rId366"/>
-    <hyperlink ref="Q442" r:id="rId367"/>
-    <hyperlink ref="B459" r:id="rId368"/>
-    <hyperlink ref="L459" r:id="rId369"/>
-    <hyperlink ref="N459" r:id="rId370"/>
-    <hyperlink ref="P459" r:id="rId371"/>
-    <hyperlink ref="Q459" r:id="rId372"/>
-    <hyperlink ref="N464" r:id="rId373"/>
-    <hyperlink ref="B475" r:id="rId374"/>
-    <hyperlink ref="L475" r:id="rId375"/>
-    <hyperlink ref="N475" r:id="rId376"/>
-    <hyperlink ref="P475" r:id="rId377"/>
-    <hyperlink ref="R475" r:id="rId378"/>
-    <hyperlink ref="B481" r:id="rId379"/>
-    <hyperlink ref="L481" r:id="rId380"/>
-    <hyperlink ref="N481" r:id="rId381"/>
-    <hyperlink ref="P481" r:id="rId382"/>
-    <hyperlink ref="B483" r:id="rId383"/>
-    <hyperlink ref="L483" r:id="rId384"/>
-    <hyperlink ref="N483" r:id="rId385"/>
-    <hyperlink ref="B486" r:id="rId386"/>
-    <hyperlink ref="L486" r:id="rId387"/>
-    <hyperlink ref="N486" r:id="rId388"/>
-    <hyperlink ref="B489" r:id="rId389"/>
-    <hyperlink ref="L489" r:id="rId390"/>
-    <hyperlink ref="N489" r:id="rId391"/>
-    <hyperlink ref="P489" r:id="rId392"/>
-    <hyperlink ref="B493" r:id="rId393"/>
-    <hyperlink ref="L493" r:id="rId394"/>
-    <hyperlink ref="N493" r:id="rId395"/>
-    <hyperlink ref="P493" r:id="rId396"/>
-    <hyperlink ref="B494" r:id="rId397"/>
-    <hyperlink ref="L494" r:id="rId398"/>
-    <hyperlink ref="N494" r:id="rId399"/>
-    <hyperlink ref="P494" r:id="rId400"/>
-    <hyperlink ref="B497" r:id="rId401"/>
-    <hyperlink ref="L497" r:id="rId402"/>
-    <hyperlink ref="N497" r:id="rId403"/>
-    <hyperlink ref="P497" r:id="rId404"/>
-    <hyperlink ref="B508" r:id="rId405"/>
-    <hyperlink ref="L508" r:id="rId406"/>
-    <hyperlink ref="N508" r:id="rId407"/>
-    <hyperlink ref="P508" r:id="rId408"/>
-    <hyperlink ref="B511" r:id="rId409"/>
-    <hyperlink ref="L511" r:id="rId410"/>
-    <hyperlink ref="N511" r:id="rId411"/>
-    <hyperlink ref="P511" r:id="rId412"/>
-    <hyperlink ref="R511" r:id="rId413"/>
-    <hyperlink ref="B522" r:id="rId414"/>
-    <hyperlink ref="L522" r:id="rId415"/>
-    <hyperlink ref="N522" r:id="rId416"/>
-    <hyperlink ref="P522" r:id="rId417"/>
-    <hyperlink ref="Q522" r:id="rId418"/>
-    <hyperlink ref="R522" r:id="rId419"/>
-    <hyperlink ref="B525" r:id="rId420"/>
-    <hyperlink ref="L525" r:id="rId421"/>
-    <hyperlink ref="N525" r:id="rId422"/>
-    <hyperlink ref="P525" r:id="rId423"/>
-    <hyperlink ref="B526" r:id="rId424"/>
-    <hyperlink ref="L526" r:id="rId425"/>
-    <hyperlink ref="N526" r:id="rId426"/>
-    <hyperlink ref="Q526" r:id="rId427"/>
-    <hyperlink ref="B528" r:id="rId428"/>
-    <hyperlink ref="L528" r:id="rId429"/>
-    <hyperlink ref="N528" r:id="rId430"/>
-    <hyperlink ref="P528" r:id="rId431"/>
-    <hyperlink ref="B530" r:id="rId432"/>
-    <hyperlink ref="L530" r:id="rId433"/>
-    <hyperlink ref="N530" r:id="rId434"/>
-    <hyperlink ref="P530" r:id="rId435"/>
-    <hyperlink ref="B531" r:id="rId436"/>
-    <hyperlink ref="L531" r:id="rId437"/>
-    <hyperlink ref="N531" r:id="rId438"/>
-    <hyperlink ref="P531" r:id="rId439"/>
-    <hyperlink ref="B532" r:id="rId440"/>
-    <hyperlink ref="L532" r:id="rId441"/>
-    <hyperlink ref="N532" r:id="rId442"/>
-    <hyperlink ref="Q532" r:id="rId443"/>
-    <hyperlink ref="B533" r:id="rId444"/>
-    <hyperlink ref="L533" r:id="rId445"/>
-    <hyperlink ref="N533" r:id="rId446"/>
-    <hyperlink ref="Q533" r:id="rId447"/>
-    <hyperlink ref="B534" r:id="rId448"/>
-    <hyperlink ref="L534" r:id="rId449"/>
-    <hyperlink ref="N534" r:id="rId450"/>
-    <hyperlink ref="Q534" r:id="rId451"/>
-    <hyperlink ref="B545" r:id="rId452"/>
-    <hyperlink ref="L545" r:id="rId453"/>
-    <hyperlink ref="N545" r:id="rId454"/>
-    <hyperlink ref="P545" r:id="rId455"/>
-    <hyperlink ref="Q545" r:id="rId456"/>
-    <hyperlink ref="N553" r:id="rId457"/>
-    <hyperlink ref="B554" r:id="rId458"/>
-    <hyperlink ref="L554" r:id="rId459"/>
-    <hyperlink ref="N554" r:id="rId460"/>
-    <hyperlink ref="P554" r:id="rId461"/>
-    <hyperlink ref="Q554" r:id="rId462"/>
-    <hyperlink ref="B561" r:id="rId463"/>
-    <hyperlink ref="L561" r:id="rId464"/>
-    <hyperlink ref="N561" r:id="rId465"/>
-    <hyperlink ref="P561" r:id="rId466"/>
-    <hyperlink ref="Q561" r:id="rId467"/>
-    <hyperlink ref="B562" r:id="rId468"/>
-    <hyperlink ref="L562" r:id="rId469"/>
-    <hyperlink ref="N562" r:id="rId470"/>
-    <hyperlink ref="Q562" r:id="rId471"/>
-    <hyperlink ref="B563" r:id="rId472"/>
-    <hyperlink ref="L563" r:id="rId473"/>
-    <hyperlink ref="N563" r:id="rId474"/>
-    <hyperlink ref="Q563" r:id="rId475"/>
-    <hyperlink ref="B584" r:id="rId476"/>
-    <hyperlink ref="L584" r:id="rId477"/>
-    <hyperlink ref="N584" r:id="rId478"/>
-    <hyperlink ref="P584" r:id="rId479"/>
-    <hyperlink ref="R584" r:id="rId480"/>
-    <hyperlink ref="B594" r:id="rId481"/>
-    <hyperlink ref="L594" r:id="rId482"/>
-    <hyperlink ref="N594" r:id="rId483"/>
-    <hyperlink ref="P594" r:id="rId484"/>
-    <hyperlink ref="Q594" r:id="rId485"/>
-    <hyperlink ref="B620" r:id="rId486"/>
-    <hyperlink ref="L620" r:id="rId487"/>
-    <hyperlink ref="N620" r:id="rId488"/>
-    <hyperlink ref="P620" r:id="rId489"/>
-    <hyperlink ref="Q620" r:id="rId490"/>
-    <hyperlink ref="B621" r:id="rId491"/>
-    <hyperlink ref="L621" r:id="rId492"/>
-    <hyperlink ref="N621" r:id="rId493"/>
-    <hyperlink ref="O621" r:id="rId494"/>
-    <hyperlink ref="Q621" r:id="rId495"/>
-    <hyperlink ref="B630" r:id="rId496"/>
-    <hyperlink ref="N630" r:id="rId497"/>
-    <hyperlink ref="P630" r:id="rId498"/>
-    <hyperlink ref="B639" r:id="rId499"/>
-    <hyperlink ref="L639" r:id="rId500"/>
-    <hyperlink ref="N639" r:id="rId501"/>
-    <hyperlink ref="P639" r:id="rId502"/>
-    <hyperlink ref="B646" r:id="rId503"/>
-    <hyperlink ref="L646" r:id="rId504"/>
-    <hyperlink ref="N646" r:id="rId505"/>
+    <hyperlink ref="B77" r:id="rId57"/>
+    <hyperlink ref="L77" r:id="rId58"/>
+    <hyperlink ref="N77" r:id="rId59"/>
+    <hyperlink ref="P77" r:id="rId60"/>
+    <hyperlink ref="B78" r:id="rId61"/>
+    <hyperlink ref="L78" r:id="rId62"/>
+    <hyperlink ref="N78" r:id="rId63"/>
+    <hyperlink ref="P78" r:id="rId64"/>
+    <hyperlink ref="Q78" r:id="rId65"/>
+    <hyperlink ref="B88" r:id="rId66"/>
+    <hyperlink ref="L88" r:id="rId67"/>
+    <hyperlink ref="N88" r:id="rId68"/>
+    <hyperlink ref="P88" r:id="rId69"/>
+    <hyperlink ref="Q88" r:id="rId70"/>
+    <hyperlink ref="R88" r:id="rId71"/>
+    <hyperlink ref="B89" r:id="rId72"/>
+    <hyperlink ref="L89" r:id="rId73"/>
+    <hyperlink ref="N89" r:id="rId74"/>
+    <hyperlink ref="Q89" r:id="rId75"/>
+    <hyperlink ref="B99" r:id="rId76"/>
+    <hyperlink ref="L99" r:id="rId77"/>
+    <hyperlink ref="N99" r:id="rId78"/>
+    <hyperlink ref="P99" r:id="rId79"/>
+    <hyperlink ref="Q99" r:id="rId80"/>
+    <hyperlink ref="B100" r:id="rId81"/>
+    <hyperlink ref="L100" r:id="rId82"/>
+    <hyperlink ref="N100" r:id="rId83"/>
+    <hyperlink ref="Q100" r:id="rId84"/>
+    <hyperlink ref="B116" r:id="rId85"/>
+    <hyperlink ref="L116" r:id="rId86"/>
+    <hyperlink ref="N116" r:id="rId87"/>
+    <hyperlink ref="P116" r:id="rId88"/>
+    <hyperlink ref="R116" r:id="rId89"/>
+    <hyperlink ref="B117" r:id="rId90"/>
+    <hyperlink ref="L117" r:id="rId91"/>
+    <hyperlink ref="N117" r:id="rId92"/>
+    <hyperlink ref="Q117" r:id="rId93"/>
+    <hyperlink ref="B127" r:id="rId94"/>
+    <hyperlink ref="L127" r:id="rId95"/>
+    <hyperlink ref="N127" r:id="rId96"/>
+    <hyperlink ref="P127" r:id="rId97"/>
+    <hyperlink ref="R127" r:id="rId98"/>
+    <hyperlink ref="B128" r:id="rId99"/>
+    <hyperlink ref="L128" r:id="rId100"/>
+    <hyperlink ref="N128" r:id="rId101"/>
+    <hyperlink ref="Q128" r:id="rId102"/>
+    <hyperlink ref="B134" r:id="rId103"/>
+    <hyperlink ref="L134" r:id="rId104"/>
+    <hyperlink ref="N134" r:id="rId105"/>
+    <hyperlink ref="P134" r:id="rId106"/>
+    <hyperlink ref="Q134" r:id="rId107"/>
+    <hyperlink ref="B135" r:id="rId108"/>
+    <hyperlink ref="L135" r:id="rId109"/>
+    <hyperlink ref="N135" r:id="rId110"/>
+    <hyperlink ref="Q135" r:id="rId111"/>
+    <hyperlink ref="B141" r:id="rId112"/>
+    <hyperlink ref="L141" r:id="rId113"/>
+    <hyperlink ref="N141" r:id="rId114"/>
+    <hyperlink ref="P141" r:id="rId115"/>
+    <hyperlink ref="R141" r:id="rId116"/>
+    <hyperlink ref="B142" r:id="rId117"/>
+    <hyperlink ref="L142" r:id="rId118"/>
+    <hyperlink ref="N142" r:id="rId119"/>
+    <hyperlink ref="Q142" r:id="rId120"/>
+    <hyperlink ref="B146" r:id="rId121"/>
+    <hyperlink ref="L146" r:id="rId122"/>
+    <hyperlink ref="N146" r:id="rId123"/>
+    <hyperlink ref="P146" r:id="rId124"/>
+    <hyperlink ref="Q146" r:id="rId125"/>
+    <hyperlink ref="R146" r:id="rId126"/>
+    <hyperlink ref="B147" r:id="rId127"/>
+    <hyperlink ref="L147" r:id="rId128"/>
+    <hyperlink ref="N147" r:id="rId129"/>
+    <hyperlink ref="Q147" r:id="rId130"/>
+    <hyperlink ref="B150" r:id="rId131"/>
+    <hyperlink ref="L150" r:id="rId132"/>
+    <hyperlink ref="N150" r:id="rId133"/>
+    <hyperlink ref="P150" r:id="rId134"/>
+    <hyperlink ref="Q150" r:id="rId135"/>
+    <hyperlink ref="R150" r:id="rId136"/>
+    <hyperlink ref="B151" r:id="rId137"/>
+    <hyperlink ref="L151" r:id="rId138"/>
+    <hyperlink ref="N151" r:id="rId139"/>
+    <hyperlink ref="Q151" r:id="rId140"/>
+    <hyperlink ref="B152" r:id="rId141"/>
+    <hyperlink ref="L152" r:id="rId142"/>
+    <hyperlink ref="N152" r:id="rId143"/>
+    <hyperlink ref="P152" r:id="rId144"/>
+    <hyperlink ref="Q152" r:id="rId145"/>
+    <hyperlink ref="R152" r:id="rId146"/>
+    <hyperlink ref="B153" r:id="rId147"/>
+    <hyperlink ref="L153" r:id="rId148"/>
+    <hyperlink ref="N153" r:id="rId149"/>
+    <hyperlink ref="P153" r:id="rId150"/>
+    <hyperlink ref="Q153" r:id="rId151"/>
+    <hyperlink ref="B155" r:id="rId152"/>
+    <hyperlink ref="L155" r:id="rId153"/>
+    <hyperlink ref="N155" r:id="rId154"/>
+    <hyperlink ref="P155" r:id="rId155"/>
+    <hyperlink ref="Q155" r:id="rId156"/>
+    <hyperlink ref="R155" r:id="rId157"/>
+    <hyperlink ref="B156" r:id="rId158"/>
+    <hyperlink ref="L156" r:id="rId159"/>
+    <hyperlink ref="N156" r:id="rId160"/>
+    <hyperlink ref="Q156" r:id="rId161"/>
+    <hyperlink ref="B159" r:id="rId162"/>
+    <hyperlink ref="L159" r:id="rId163"/>
+    <hyperlink ref="N159" r:id="rId164"/>
+    <hyperlink ref="P159" r:id="rId165"/>
+    <hyperlink ref="R159" r:id="rId166"/>
+    <hyperlink ref="B160" r:id="rId167"/>
+    <hyperlink ref="L160" r:id="rId168"/>
+    <hyperlink ref="N160" r:id="rId169"/>
+    <hyperlink ref="Q160" r:id="rId170"/>
+    <hyperlink ref="B166" r:id="rId171"/>
+    <hyperlink ref="L166" r:id="rId172"/>
+    <hyperlink ref="N166" r:id="rId173"/>
+    <hyperlink ref="P166" r:id="rId174"/>
+    <hyperlink ref="B172" r:id="rId175"/>
+    <hyperlink ref="L172" r:id="rId176"/>
+    <hyperlink ref="N172" r:id="rId177"/>
+    <hyperlink ref="P172" r:id="rId178"/>
+    <hyperlink ref="Q172" r:id="rId179"/>
+    <hyperlink ref="B192" r:id="rId180"/>
+    <hyperlink ref="L192" r:id="rId181"/>
+    <hyperlink ref="N192" r:id="rId182"/>
+    <hyperlink ref="P192" r:id="rId183"/>
+    <hyperlink ref="B196" r:id="rId184"/>
+    <hyperlink ref="L196" r:id="rId185"/>
+    <hyperlink ref="N196" r:id="rId186"/>
+    <hyperlink ref="P196" r:id="rId187"/>
+    <hyperlink ref="B200" r:id="rId188"/>
+    <hyperlink ref="L200" r:id="rId189"/>
+    <hyperlink ref="N200" r:id="rId190"/>
+    <hyperlink ref="P200" r:id="rId191"/>
+    <hyperlink ref="B204" r:id="rId192"/>
+    <hyperlink ref="L204" r:id="rId193"/>
+    <hyperlink ref="N204" r:id="rId194"/>
+    <hyperlink ref="P204" r:id="rId195"/>
+    <hyperlink ref="Q204" r:id="rId196"/>
+    <hyperlink ref="B206" r:id="rId197"/>
+    <hyperlink ref="L206" r:id="rId198"/>
+    <hyperlink ref="N206" r:id="rId199"/>
+    <hyperlink ref="P206" r:id="rId200"/>
+    <hyperlink ref="B210" r:id="rId201"/>
+    <hyperlink ref="L210" r:id="rId202"/>
+    <hyperlink ref="N210" r:id="rId203"/>
+    <hyperlink ref="P210" r:id="rId204"/>
+    <hyperlink ref="Q210" r:id="rId205"/>
+    <hyperlink ref="N212" r:id="rId206"/>
+    <hyperlink ref="B213" r:id="rId207"/>
+    <hyperlink ref="L213" r:id="rId208"/>
+    <hyperlink ref="N213" r:id="rId209"/>
+    <hyperlink ref="Q213" r:id="rId210"/>
+    <hyperlink ref="B218" r:id="rId211"/>
+    <hyperlink ref="L218" r:id="rId212"/>
+    <hyperlink ref="N218" r:id="rId213"/>
+    <hyperlink ref="P218" r:id="rId214"/>
+    <hyperlink ref="Q218" r:id="rId215"/>
+    <hyperlink ref="B223" r:id="rId216"/>
+    <hyperlink ref="L223" r:id="rId217"/>
+    <hyperlink ref="N223" r:id="rId218"/>
+    <hyperlink ref="P223" r:id="rId219"/>
+    <hyperlink ref="Q223" r:id="rId220"/>
+    <hyperlink ref="R223" r:id="rId221"/>
+    <hyperlink ref="B229" r:id="rId222"/>
+    <hyperlink ref="L229" r:id="rId223"/>
+    <hyperlink ref="N229" r:id="rId224"/>
+    <hyperlink ref="P229" r:id="rId225"/>
+    <hyperlink ref="B236" r:id="rId226"/>
+    <hyperlink ref="L236" r:id="rId227"/>
+    <hyperlink ref="N236" r:id="rId228"/>
+    <hyperlink ref="P236" r:id="rId229"/>
+    <hyperlink ref="B245" r:id="rId230"/>
+    <hyperlink ref="L245" r:id="rId231"/>
+    <hyperlink ref="N245" r:id="rId232"/>
+    <hyperlink ref="P245" r:id="rId233"/>
+    <hyperlink ref="Q245" r:id="rId234"/>
+    <hyperlink ref="B251" r:id="rId235"/>
+    <hyperlink ref="L251" r:id="rId236"/>
+    <hyperlink ref="N251" r:id="rId237"/>
+    <hyperlink ref="P251" r:id="rId238"/>
+    <hyperlink ref="Q251" r:id="rId239"/>
+    <hyperlink ref="B255" r:id="rId240"/>
+    <hyperlink ref="L255" r:id="rId241"/>
+    <hyperlink ref="N255" r:id="rId242"/>
+    <hyperlink ref="B277" r:id="rId243"/>
+    <hyperlink ref="L277" r:id="rId244"/>
+    <hyperlink ref="N277" r:id="rId245"/>
+    <hyperlink ref="P277" r:id="rId246"/>
+    <hyperlink ref="Q277" r:id="rId247"/>
+    <hyperlink ref="B285" r:id="rId248"/>
+    <hyperlink ref="L285" r:id="rId249"/>
+    <hyperlink ref="N285" r:id="rId250"/>
+    <hyperlink ref="P285" r:id="rId251"/>
+    <hyperlink ref="Q285" r:id="rId252"/>
+    <hyperlink ref="B296" r:id="rId253"/>
+    <hyperlink ref="L296" r:id="rId254"/>
+    <hyperlink ref="N296" r:id="rId255"/>
+    <hyperlink ref="P296" r:id="rId256"/>
+    <hyperlink ref="Q296" r:id="rId257"/>
+    <hyperlink ref="B304" r:id="rId258"/>
+    <hyperlink ref="L304" r:id="rId259"/>
+    <hyperlink ref="N304" r:id="rId260"/>
+    <hyperlink ref="P304" r:id="rId261"/>
+    <hyperlink ref="Q304" r:id="rId262"/>
+    <hyperlink ref="B326" r:id="rId263"/>
+    <hyperlink ref="L326" r:id="rId264"/>
+    <hyperlink ref="N326" r:id="rId265"/>
+    <hyperlink ref="P326" r:id="rId266"/>
+    <hyperlink ref="B328" r:id="rId267"/>
+    <hyperlink ref="L328" r:id="rId268"/>
+    <hyperlink ref="N328" r:id="rId269"/>
+    <hyperlink ref="P328" r:id="rId270"/>
+    <hyperlink ref="Q328" r:id="rId271"/>
+    <hyperlink ref="B332" r:id="rId272"/>
+    <hyperlink ref="L332" r:id="rId273"/>
+    <hyperlink ref="N332" r:id="rId274"/>
+    <hyperlink ref="B335" r:id="rId275"/>
+    <hyperlink ref="L335" r:id="rId276"/>
+    <hyperlink ref="N335" r:id="rId277"/>
+    <hyperlink ref="P335" r:id="rId278"/>
+    <hyperlink ref="Q335" r:id="rId279"/>
+    <hyperlink ref="B337" r:id="rId280"/>
+    <hyperlink ref="L337" r:id="rId281"/>
+    <hyperlink ref="N337" r:id="rId282"/>
+    <hyperlink ref="P337" r:id="rId283"/>
+    <hyperlink ref="Q337" r:id="rId284"/>
+    <hyperlink ref="B343" r:id="rId285"/>
+    <hyperlink ref="L343" r:id="rId286"/>
+    <hyperlink ref="N343" r:id="rId287"/>
+    <hyperlink ref="P343" r:id="rId288"/>
+    <hyperlink ref="Q343" r:id="rId289"/>
+    <hyperlink ref="B344" r:id="rId290"/>
+    <hyperlink ref="L344" r:id="rId291"/>
+    <hyperlink ref="N344" r:id="rId292"/>
+    <hyperlink ref="Q344" r:id="rId293"/>
+    <hyperlink ref="B347" r:id="rId294"/>
+    <hyperlink ref="L347" r:id="rId295"/>
+    <hyperlink ref="N347" r:id="rId296"/>
+    <hyperlink ref="P347" r:id="rId297"/>
+    <hyperlink ref="Q347" r:id="rId298"/>
+    <hyperlink ref="B350" r:id="rId299"/>
+    <hyperlink ref="L350" r:id="rId300"/>
+    <hyperlink ref="N350" r:id="rId301"/>
+    <hyperlink ref="P350" r:id="rId302"/>
+    <hyperlink ref="Q350" r:id="rId303"/>
+    <hyperlink ref="B352" r:id="rId304"/>
+    <hyperlink ref="L352" r:id="rId305"/>
+    <hyperlink ref="N352" r:id="rId306"/>
+    <hyperlink ref="P352" r:id="rId307"/>
+    <hyperlink ref="Q352" r:id="rId308"/>
+    <hyperlink ref="R352" r:id="rId309"/>
+    <hyperlink ref="B391" r:id="rId310"/>
+    <hyperlink ref="L391" r:id="rId311"/>
+    <hyperlink ref="N391" r:id="rId312"/>
+    <hyperlink ref="P391" r:id="rId313"/>
+    <hyperlink ref="B393" r:id="rId314"/>
+    <hyperlink ref="L393" r:id="rId315"/>
+    <hyperlink ref="N393" r:id="rId316"/>
+    <hyperlink ref="P393" r:id="rId317"/>
+    <hyperlink ref="B394" r:id="rId318"/>
+    <hyperlink ref="L394" r:id="rId319"/>
+    <hyperlink ref="N394" r:id="rId320"/>
+    <hyperlink ref="Q394" r:id="rId321"/>
+    <hyperlink ref="B395" r:id="rId322"/>
+    <hyperlink ref="L395" r:id="rId323"/>
+    <hyperlink ref="N395" r:id="rId324"/>
+    <hyperlink ref="P395" r:id="rId325"/>
+    <hyperlink ref="B406" r:id="rId326"/>
+    <hyperlink ref="L406" r:id="rId327"/>
+    <hyperlink ref="N406" r:id="rId328"/>
+    <hyperlink ref="P406" r:id="rId329"/>
+    <hyperlink ref="B407" r:id="rId330"/>
+    <hyperlink ref="L407" r:id="rId331"/>
+    <hyperlink ref="N407" r:id="rId332"/>
+    <hyperlink ref="P407" r:id="rId333"/>
+    <hyperlink ref="B408" r:id="rId334"/>
+    <hyperlink ref="L408" r:id="rId335"/>
+    <hyperlink ref="N408" r:id="rId336"/>
+    <hyperlink ref="Q408" r:id="rId337"/>
+    <hyperlink ref="B410" r:id="rId338"/>
+    <hyperlink ref="L410" r:id="rId339"/>
+    <hyperlink ref="N410" r:id="rId340"/>
+    <hyperlink ref="P410" r:id="rId341"/>
+    <hyperlink ref="B411" r:id="rId342"/>
+    <hyperlink ref="L411" r:id="rId343"/>
+    <hyperlink ref="N411" r:id="rId344"/>
+    <hyperlink ref="Q411" r:id="rId345"/>
+    <hyperlink ref="B417" r:id="rId346"/>
+    <hyperlink ref="L417" r:id="rId347"/>
+    <hyperlink ref="N417" r:id="rId348"/>
+    <hyperlink ref="P417" r:id="rId349"/>
+    <hyperlink ref="B424" r:id="rId350"/>
+    <hyperlink ref="L424" r:id="rId351"/>
+    <hyperlink ref="N424" r:id="rId352"/>
+    <hyperlink ref="P424" r:id="rId353"/>
+    <hyperlink ref="B429" r:id="rId354"/>
+    <hyperlink ref="L429" r:id="rId355"/>
+    <hyperlink ref="N429" r:id="rId356"/>
+    <hyperlink ref="P429" r:id="rId357"/>
+    <hyperlink ref="B430" r:id="rId358"/>
+    <hyperlink ref="L430" r:id="rId359"/>
+    <hyperlink ref="N430" r:id="rId360"/>
+    <hyperlink ref="P430" r:id="rId361"/>
+    <hyperlink ref="B442" r:id="rId362"/>
+    <hyperlink ref="L442" r:id="rId363"/>
+    <hyperlink ref="N442" r:id="rId364"/>
+    <hyperlink ref="P442" r:id="rId365"/>
+    <hyperlink ref="Q442" r:id="rId366"/>
+    <hyperlink ref="B459" r:id="rId367"/>
+    <hyperlink ref="L459" r:id="rId368"/>
+    <hyperlink ref="N459" r:id="rId369"/>
+    <hyperlink ref="P459" r:id="rId370"/>
+    <hyperlink ref="Q459" r:id="rId371"/>
+    <hyperlink ref="N464" r:id="rId372"/>
+    <hyperlink ref="B475" r:id="rId373"/>
+    <hyperlink ref="L475" r:id="rId374"/>
+    <hyperlink ref="N475" r:id="rId375"/>
+    <hyperlink ref="P475" r:id="rId376"/>
+    <hyperlink ref="R475" r:id="rId377"/>
+    <hyperlink ref="B481" r:id="rId378"/>
+    <hyperlink ref="L481" r:id="rId379"/>
+    <hyperlink ref="N481" r:id="rId380"/>
+    <hyperlink ref="P481" r:id="rId381"/>
+    <hyperlink ref="B483" r:id="rId382"/>
+    <hyperlink ref="L483" r:id="rId383"/>
+    <hyperlink ref="N483" r:id="rId384"/>
+    <hyperlink ref="B486" r:id="rId385"/>
+    <hyperlink ref="L486" r:id="rId386"/>
+    <hyperlink ref="N486" r:id="rId387"/>
+    <hyperlink ref="B489" r:id="rId388"/>
+    <hyperlink ref="L489" r:id="rId389"/>
+    <hyperlink ref="N489" r:id="rId390"/>
+    <hyperlink ref="P489" r:id="rId391"/>
+    <hyperlink ref="B493" r:id="rId392"/>
+    <hyperlink ref="L493" r:id="rId393"/>
+    <hyperlink ref="N493" r:id="rId394"/>
+    <hyperlink ref="P493" r:id="rId395"/>
+    <hyperlink ref="B494" r:id="rId396"/>
+    <hyperlink ref="L494" r:id="rId397"/>
+    <hyperlink ref="N494" r:id="rId398"/>
+    <hyperlink ref="P494" r:id="rId399"/>
+    <hyperlink ref="B497" r:id="rId400"/>
+    <hyperlink ref="L497" r:id="rId401"/>
+    <hyperlink ref="N497" r:id="rId402"/>
+    <hyperlink ref="P497" r:id="rId403"/>
+    <hyperlink ref="B508" r:id="rId404"/>
+    <hyperlink ref="L508" r:id="rId405"/>
+    <hyperlink ref="N508" r:id="rId406"/>
+    <hyperlink ref="P508" r:id="rId407"/>
+    <hyperlink ref="B511" r:id="rId408"/>
+    <hyperlink ref="L511" r:id="rId409"/>
+    <hyperlink ref="N511" r:id="rId410"/>
+    <hyperlink ref="P511" r:id="rId411"/>
+    <hyperlink ref="R511" r:id="rId412"/>
+    <hyperlink ref="B522" r:id="rId413"/>
+    <hyperlink ref="L522" r:id="rId414"/>
+    <hyperlink ref="N522" r:id="rId415"/>
+    <hyperlink ref="P522" r:id="rId416"/>
+    <hyperlink ref="Q522" r:id="rId417"/>
+    <hyperlink ref="R522" r:id="rId418"/>
+    <hyperlink ref="B525" r:id="rId419"/>
+    <hyperlink ref="L525" r:id="rId420"/>
+    <hyperlink ref="N525" r:id="rId421"/>
+    <hyperlink ref="P525" r:id="rId422"/>
+    <hyperlink ref="B526" r:id="rId423"/>
+    <hyperlink ref="L526" r:id="rId424"/>
+    <hyperlink ref="N526" r:id="rId425"/>
+    <hyperlink ref="Q526" r:id="rId426"/>
+    <hyperlink ref="B528" r:id="rId427"/>
+    <hyperlink ref="L528" r:id="rId428"/>
+    <hyperlink ref="N528" r:id="rId429"/>
+    <hyperlink ref="P528" r:id="rId430"/>
+    <hyperlink ref="B530" r:id="rId431"/>
+    <hyperlink ref="L530" r:id="rId432"/>
+    <hyperlink ref="N530" r:id="rId433"/>
+    <hyperlink ref="P530" r:id="rId434"/>
+    <hyperlink ref="B531" r:id="rId435"/>
+    <hyperlink ref="L531" r:id="rId436"/>
+    <hyperlink ref="N531" r:id="rId437"/>
+    <hyperlink ref="P531" r:id="rId438"/>
+    <hyperlink ref="B532" r:id="rId439"/>
+    <hyperlink ref="L532" r:id="rId440"/>
+    <hyperlink ref="N532" r:id="rId441"/>
+    <hyperlink ref="Q532" r:id="rId442"/>
+    <hyperlink ref="B533" r:id="rId443"/>
+    <hyperlink ref="L533" r:id="rId444"/>
+    <hyperlink ref="N533" r:id="rId445"/>
+    <hyperlink ref="Q533" r:id="rId446"/>
+    <hyperlink ref="B534" r:id="rId447"/>
+    <hyperlink ref="L534" r:id="rId448"/>
+    <hyperlink ref="N534" r:id="rId449"/>
+    <hyperlink ref="Q534" r:id="rId450"/>
+    <hyperlink ref="B545" r:id="rId451"/>
+    <hyperlink ref="L545" r:id="rId452"/>
+    <hyperlink ref="N545" r:id="rId453"/>
+    <hyperlink ref="P545" r:id="rId454"/>
+    <hyperlink ref="Q545" r:id="rId455"/>
+    <hyperlink ref="N553" r:id="rId456"/>
+    <hyperlink ref="B554" r:id="rId457"/>
+    <hyperlink ref="L554" r:id="rId458"/>
+    <hyperlink ref="N554" r:id="rId459"/>
+    <hyperlink ref="P554" r:id="rId460"/>
+    <hyperlink ref="Q554" r:id="rId461"/>
+    <hyperlink ref="B561" r:id="rId462"/>
+    <hyperlink ref="L561" r:id="rId463"/>
+    <hyperlink ref="N561" r:id="rId464"/>
+    <hyperlink ref="P561" r:id="rId465"/>
+    <hyperlink ref="Q561" r:id="rId466"/>
+    <hyperlink ref="B562" r:id="rId467"/>
+    <hyperlink ref="L562" r:id="rId468"/>
+    <hyperlink ref="N562" r:id="rId469"/>
+    <hyperlink ref="Q562" r:id="rId470"/>
+    <hyperlink ref="B563" r:id="rId471"/>
+    <hyperlink ref="L563" r:id="rId472"/>
+    <hyperlink ref="N563" r:id="rId473"/>
+    <hyperlink ref="Q563" r:id="rId474"/>
+    <hyperlink ref="B584" r:id="rId475"/>
+    <hyperlink ref="L584" r:id="rId476"/>
+    <hyperlink ref="N584" r:id="rId477"/>
+    <hyperlink ref="P584" r:id="rId478"/>
+    <hyperlink ref="R584" r:id="rId479"/>
+    <hyperlink ref="B594" r:id="rId480"/>
+    <hyperlink ref="L594" r:id="rId481"/>
+    <hyperlink ref="N594" r:id="rId482"/>
+    <hyperlink ref="P594" r:id="rId483"/>
+    <hyperlink ref="Q594" r:id="rId484"/>
+    <hyperlink ref="B620" r:id="rId485"/>
+    <hyperlink ref="L620" r:id="rId486"/>
+    <hyperlink ref="N620" r:id="rId487"/>
+    <hyperlink ref="P620" r:id="rId488"/>
+    <hyperlink ref="Q620" r:id="rId489"/>
+    <hyperlink ref="B621" r:id="rId490"/>
+    <hyperlink ref="L621" r:id="rId491"/>
+    <hyperlink ref="N621" r:id="rId492"/>
+    <hyperlink ref="O621" r:id="rId493"/>
+    <hyperlink ref="Q621" r:id="rId494"/>
+    <hyperlink ref="B630" r:id="rId495"/>
+    <hyperlink ref="N630" r:id="rId496"/>
+    <hyperlink ref="P630" r:id="rId497"/>
+    <hyperlink ref="B639" r:id="rId498"/>
+    <hyperlink ref="L639" r:id="rId499"/>
+    <hyperlink ref="N639" r:id="rId500"/>
+    <hyperlink ref="P639" r:id="rId501"/>
+    <hyperlink ref="B646" r:id="rId502"/>
+    <hyperlink ref="L646" r:id="rId503"/>
+    <hyperlink ref="N646" r:id="rId504"/>
   </hyperlinks>
   <pageSetup paperSize="66" scale="100" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
